--- a/BackTest/2020-01-16 BackTest PAY.xlsx
+++ b/BackTest/2020-01-16 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>43.56</v>
       </c>
       <c r="F2" t="n">
-        <v>209.0465</v>
+        <v>125.4279</v>
       </c>
       <c r="G2" t="n">
-        <v>41.70566666666664</v>
+        <v>41.68249999999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>43.56</v>
       </c>
       <c r="F3" t="n">
-        <v>167.2372</v>
+        <v>209.0465</v>
       </c>
       <c r="G3" t="n">
-        <v>41.72866666666664</v>
+        <v>41.70566666666664</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,16 +515,16 @@
         <v>43.56</v>
       </c>
       <c r="F4" t="n">
-        <v>459.9023</v>
+        <v>167.2372</v>
       </c>
       <c r="G4" t="n">
-        <v>41.7518333333333</v>
+        <v>41.72866666666664</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -550,16 +550,16 @@
         <v>43.56</v>
       </c>
       <c r="F5" t="n">
-        <v>41.8093</v>
+        <v>459.9023</v>
       </c>
       <c r="G5" t="n">
-        <v>41.7753333333333</v>
+        <v>41.7518333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -585,16 +585,16 @@
         <v>43.56</v>
       </c>
       <c r="F6" t="n">
-        <v>4398.0291</v>
+        <v>41.8093</v>
       </c>
       <c r="G6" t="n">
-        <v>41.80949999999996</v>
+        <v>41.7753333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -620,10 +620,10 @@
         <v>43.56</v>
       </c>
       <c r="F7" t="n">
-        <v>123.632</v>
+        <v>4398.0291</v>
       </c>
       <c r="G7" t="n">
-        <v>41.8438333333333</v>
+        <v>41.80949999999996</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.57</v>
+        <v>43.56</v>
       </c>
       <c r="C8" t="n">
-        <v>43.9</v>
+        <v>43.56</v>
       </c>
       <c r="D8" t="n">
-        <v>43.9</v>
+        <v>43.56</v>
       </c>
       <c r="E8" t="n">
-        <v>43.57</v>
+        <v>43.56</v>
       </c>
       <c r="F8" t="n">
-        <v>7533</v>
+        <v>123.632</v>
       </c>
       <c r="G8" t="n">
-        <v>41.86283333333329</v>
+        <v>41.8438333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>43.57</v>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="D9" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="E9" t="n">
-        <v>44</v>
+        <v>43.57</v>
       </c>
       <c r="F9" t="n">
-        <v>43486.651</v>
+        <v>7533</v>
       </c>
       <c r="G9" t="n">
-        <v>41.89949999999996</v>
+        <v>41.86283333333329</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44.01</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
-        <v>44.01</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>44.01</v>
+        <v>44</v>
       </c>
       <c r="E10" t="n">
-        <v>44.01</v>
+        <v>44</v>
       </c>
       <c r="F10" t="n">
-        <v>368.3802</v>
+        <v>43486.651</v>
       </c>
       <c r="G10" t="n">
-        <v>41.93799999999997</v>
+        <v>41.89949999999996</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,28 +748,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44.15</v>
+        <v>44.01</v>
       </c>
       <c r="C11" t="n">
-        <v>44.15</v>
+        <v>44.01</v>
       </c>
       <c r="D11" t="n">
-        <v>44.15</v>
+        <v>44.01</v>
       </c>
       <c r="E11" t="n">
-        <v>44.15</v>
+        <v>44.01</v>
       </c>
       <c r="F11" t="n">
-        <v>2935.43</v>
+        <v>368.3802</v>
       </c>
       <c r="G11" t="n">
-        <v>41.96716666666664</v>
+        <v>41.93799999999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -786,25 +786,25 @@
         <v>44.15</v>
       </c>
       <c r="C12" t="n">
-        <v>44.01</v>
+        <v>44.15</v>
       </c>
       <c r="D12" t="n">
         <v>44.15</v>
       </c>
       <c r="E12" t="n">
-        <v>44.01</v>
+        <v>44.15</v>
       </c>
       <c r="F12" t="n">
-        <v>5309.283843035108</v>
+        <v>2935.43</v>
       </c>
       <c r="G12" t="n">
-        <v>42.01399999999997</v>
+        <v>41.96716666666664</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44.01</v>
+        <v>44.15</v>
       </c>
       <c r="C13" t="n">
         <v>44.01</v>
       </c>
       <c r="D13" t="n">
-        <v>44.01</v>
+        <v>44.15</v>
       </c>
       <c r="E13" t="n">
         <v>44.01</v>
       </c>
       <c r="F13" t="n">
-        <v>5000</v>
+        <v>5309.283843035108</v>
       </c>
       <c r="G13" t="n">
-        <v>42.05749999999998</v>
+        <v>42.01399999999997</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>44.02</v>
+        <v>44.01</v>
       </c>
       <c r="C14" t="n">
-        <v>44.02</v>
+        <v>44.01</v>
       </c>
       <c r="D14" t="n">
-        <v>44.02</v>
+        <v>44.01</v>
       </c>
       <c r="E14" t="n">
-        <v>44.02</v>
+        <v>44.01</v>
       </c>
       <c r="F14" t="n">
-        <v>1057.214</v>
+        <v>5000</v>
       </c>
       <c r="G14" t="n">
-        <v>42.09716666666665</v>
+        <v>42.05749999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>44.01</v>
+        <v>44.02</v>
       </c>
       <c r="C15" t="n">
-        <v>44.01</v>
+        <v>44.02</v>
       </c>
       <c r="D15" t="n">
-        <v>44.01</v>
+        <v>44.02</v>
       </c>
       <c r="E15" t="n">
-        <v>44.01</v>
+        <v>44.02</v>
       </c>
       <c r="F15" t="n">
-        <v>9366.672200000001</v>
+        <v>1057.214</v>
       </c>
       <c r="G15" t="n">
-        <v>42.13733333333332</v>
+        <v>42.09716666666665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>44.05</v>
+        <v>44.01</v>
       </c>
       <c r="C16" t="n">
-        <v>44.05</v>
+        <v>44.01</v>
       </c>
       <c r="D16" t="n">
-        <v>44.05</v>
+        <v>44.01</v>
       </c>
       <c r="E16" t="n">
-        <v>44.05</v>
+        <v>44.01</v>
       </c>
       <c r="F16" t="n">
-        <v>400</v>
+        <v>9366.672200000001</v>
       </c>
       <c r="G16" t="n">
-        <v>42.17816666666666</v>
+        <v>42.13733333333332</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>44.2</v>
+        <v>44.05</v>
       </c>
       <c r="C17" t="n">
-        <v>44.2</v>
+        <v>44.05</v>
       </c>
       <c r="D17" t="n">
-        <v>44.2</v>
+        <v>44.05</v>
       </c>
       <c r="E17" t="n">
-        <v>44.2</v>
+        <v>44.05</v>
       </c>
       <c r="F17" t="n">
         <v>400</v>
       </c>
       <c r="G17" t="n">
-        <v>42.22449999999998</v>
+        <v>42.17816666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>44.2</v>
       </c>
       <c r="C18" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="D18" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="E18" t="n">
         <v>44.2</v>
       </c>
       <c r="F18" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G18" t="n">
-        <v>42.27249999999999</v>
+        <v>42.22449999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>44.2</v>
       </c>
       <c r="C19" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="D19" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="E19" t="n">
         <v>44.2</v>
       </c>
       <c r="F19" t="n">
-        <v>6253</v>
+        <v>800</v>
       </c>
       <c r="G19" t="n">
-        <v>42.32049999999997</v>
+        <v>42.27249999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="C20" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="D20" t="n">
-        <v>44.41</v>
+        <v>44.2</v>
       </c>
       <c r="E20" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="F20" t="n">
-        <v>11113.69</v>
+        <v>6253</v>
       </c>
       <c r="G20" t="n">
-        <v>42.3668333333333</v>
+        <v>42.32049999999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="C21" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="D21" t="n">
-        <v>44.2</v>
+        <v>44.41</v>
       </c>
       <c r="E21" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="F21" t="n">
-        <v>15165.2619</v>
+        <v>11113.69</v>
       </c>
       <c r="G21" t="n">
-        <v>42.41516666666664</v>
+        <v>42.3668333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>44.2</v>
       </c>
       <c r="C22" t="n">
-        <v>44</v>
+        <v>44.2</v>
       </c>
       <c r="D22" t="n">
         <v>44.2</v>
       </c>
       <c r="E22" t="n">
-        <v>44</v>
+        <v>44.2</v>
       </c>
       <c r="F22" t="n">
-        <v>49912.6404</v>
+        <v>15165.2619</v>
       </c>
       <c r="G22" t="n">
-        <v>42.46016666666663</v>
+        <v>42.41516666666664</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>43.9</v>
+        <v>44.2</v>
       </c>
       <c r="C23" t="n">
         <v>44</v>
       </c>
       <c r="D23" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="E23" t="n">
         <v>44</v>
       </c>
-      <c r="E23" t="n">
-        <v>43.9</v>
-      </c>
       <c r="F23" t="n">
-        <v>1308.6503</v>
+        <v>49912.6404</v>
       </c>
       <c r="G23" t="n">
-        <v>42.50316666666663</v>
+        <v>42.46016666666663</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="C24" t="n">
         <v>44</v>
@@ -1212,13 +1212,13 @@
         <v>44</v>
       </c>
       <c r="E24" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="F24" t="n">
-        <v>13603.4422</v>
+        <v>1308.6503</v>
       </c>
       <c r="G24" t="n">
-        <v>42.54483333333329</v>
+        <v>42.50316666666663</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>43.95</v>
+        <v>44</v>
       </c>
       <c r="C25" t="n">
         <v>44</v>
@@ -1247,13 +1247,13 @@
         <v>44</v>
       </c>
       <c r="E25" t="n">
-        <v>43.95</v>
+        <v>44</v>
       </c>
       <c r="F25" t="n">
-        <v>5959.936103349934</v>
+        <v>13603.4422</v>
       </c>
       <c r="G25" t="n">
-        <v>42.58783333333329</v>
+        <v>42.54483333333329</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>44</v>
+        <v>43.95</v>
       </c>
       <c r="C26" t="n">
         <v>44</v>
@@ -1282,13 +1282,13 @@
         <v>44</v>
       </c>
       <c r="E26" t="n">
-        <v>44</v>
+        <v>43.95</v>
       </c>
       <c r="F26" t="n">
-        <v>2949.022727272727</v>
+        <v>5959.936103349934</v>
       </c>
       <c r="G26" t="n">
-        <v>42.63449999999997</v>
+        <v>42.58783333333329</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>43.99</v>
+        <v>44</v>
       </c>
       <c r="C27" t="n">
-        <v>43.99</v>
+        <v>44</v>
       </c>
       <c r="D27" t="n">
-        <v>43.99</v>
+        <v>44</v>
       </c>
       <c r="E27" t="n">
-        <v>43.99</v>
+        <v>44</v>
       </c>
       <c r="F27" t="n">
-        <v>4361.991361673107</v>
+        <v>2949.022727272727</v>
       </c>
       <c r="G27" t="n">
-        <v>42.68099999999996</v>
+        <v>42.63449999999997</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>43.99</v>
       </c>
       <c r="F28" t="n">
-        <v>233.5602</v>
+        <v>4361.991361673107</v>
       </c>
       <c r="G28" t="n">
-        <v>42.72616666666662</v>
+        <v>42.68099999999996</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>43.47</v>
+        <v>43.99</v>
       </c>
       <c r="C29" t="n">
-        <v>43.47</v>
+        <v>43.99</v>
       </c>
       <c r="D29" t="n">
-        <v>43.47</v>
+        <v>43.99</v>
       </c>
       <c r="E29" t="n">
-        <v>43.47</v>
+        <v>43.99</v>
       </c>
       <c r="F29" t="n">
-        <v>3514.9785</v>
+        <v>233.5602</v>
       </c>
       <c r="G29" t="n">
-        <v>42.76266666666662</v>
+        <v>42.72616666666662</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>43.6</v>
+        <v>43.47</v>
       </c>
       <c r="C30" t="n">
-        <v>43.6</v>
+        <v>43.47</v>
       </c>
       <c r="D30" t="n">
-        <v>43.6</v>
+        <v>43.47</v>
       </c>
       <c r="E30" t="n">
-        <v>43.6</v>
+        <v>43.47</v>
       </c>
       <c r="F30" t="n">
-        <v>527.1754</v>
+        <v>3514.9785</v>
       </c>
       <c r="G30" t="n">
-        <v>42.80133333333328</v>
+        <v>42.76266666666662</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>43.63</v>
+        <v>43.6</v>
       </c>
       <c r="C31" t="n">
-        <v>43.63</v>
+        <v>43.6</v>
       </c>
       <c r="D31" t="n">
-        <v>43.63</v>
+        <v>43.6</v>
       </c>
       <c r="E31" t="n">
-        <v>43.63</v>
+        <v>43.6</v>
       </c>
       <c r="F31" t="n">
-        <v>9373.65</v>
+        <v>527.1754</v>
       </c>
       <c r="G31" t="n">
-        <v>42.83683333333328</v>
+        <v>42.80133333333328</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>43.41</v>
+        <v>43.63</v>
       </c>
       <c r="C32" t="n">
-        <v>43.4</v>
+        <v>43.63</v>
       </c>
       <c r="D32" t="n">
-        <v>43.41</v>
+        <v>43.63</v>
       </c>
       <c r="E32" t="n">
-        <v>43.4</v>
+        <v>43.63</v>
       </c>
       <c r="F32" t="n">
-        <v>4670.889</v>
+        <v>9373.65</v>
       </c>
       <c r="G32" t="n">
-        <v>42.87483333333329</v>
+        <v>42.83683333333328</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="C33" t="n">
         <v>43.4</v>
       </c>
-      <c r="C33" t="n">
-        <v>43.39</v>
-      </c>
       <c r="D33" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="E33" t="n">
         <v>43.4</v>
       </c>
-      <c r="E33" t="n">
-        <v>43.39</v>
-      </c>
       <c r="F33" t="n">
-        <v>6833.5019</v>
+        <v>4670.889</v>
       </c>
       <c r="G33" t="n">
-        <v>42.90633333333328</v>
+        <v>42.87483333333329</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>43.79</v>
+        <v>43.4</v>
       </c>
       <c r="C34" t="n">
-        <v>43.24</v>
+        <v>43.39</v>
       </c>
       <c r="D34" t="n">
-        <v>43.79</v>
+        <v>43.4</v>
       </c>
       <c r="E34" t="n">
-        <v>43.24</v>
+        <v>43.39</v>
       </c>
       <c r="F34" t="n">
-        <v>20522.731</v>
+        <v>6833.5019</v>
       </c>
       <c r="G34" t="n">
-        <v>42.94366666666661</v>
+        <v>42.90633333333328</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>43.3</v>
+        <v>43.79</v>
       </c>
       <c r="C35" t="n">
-        <v>43.3</v>
+        <v>43.24</v>
       </c>
       <c r="D35" t="n">
-        <v>43.3</v>
+        <v>43.79</v>
       </c>
       <c r="E35" t="n">
-        <v>43.3</v>
+        <v>43.24</v>
       </c>
       <c r="F35" t="n">
-        <v>28.7844</v>
+        <v>20522.731</v>
       </c>
       <c r="G35" t="n">
-        <v>42.99483333333328</v>
+        <v>42.94366666666661</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>43.57</v>
+        <v>43.3</v>
       </c>
       <c r="C36" t="n">
-        <v>43.57</v>
+        <v>43.3</v>
       </c>
       <c r="D36" t="n">
-        <v>43.57</v>
+        <v>43.3</v>
       </c>
       <c r="E36" t="n">
-        <v>43.57</v>
+        <v>43.3</v>
       </c>
       <c r="F36" t="n">
-        <v>2117.84</v>
+        <v>28.7844</v>
       </c>
       <c r="G36" t="n">
-        <v>43.05049999999995</v>
+        <v>42.99483333333328</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>42.82</v>
+        <v>43.57</v>
       </c>
       <c r="C37" t="n">
-        <v>40.5</v>
+        <v>43.57</v>
       </c>
       <c r="D37" t="n">
-        <v>42.82</v>
+        <v>43.57</v>
       </c>
       <c r="E37" t="n">
-        <v>40.5</v>
+        <v>43.57</v>
       </c>
       <c r="F37" t="n">
-        <v>63249.5158</v>
+        <v>2117.84</v>
       </c>
       <c r="G37" t="n">
-        <v>43.03833333333328</v>
+        <v>43.05049999999995</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>42.9</v>
+        <v>42.82</v>
       </c>
       <c r="C38" t="n">
-        <v>42.9</v>
+        <v>40.5</v>
       </c>
       <c r="D38" t="n">
-        <v>42.9</v>
+        <v>42.82</v>
       </c>
       <c r="E38" t="n">
-        <v>42.9</v>
+        <v>40.5</v>
       </c>
       <c r="F38" t="n">
-        <v>572</v>
+        <v>63249.5158</v>
       </c>
       <c r="G38" t="n">
-        <v>43.06783333333328</v>
+        <v>43.03833333333328</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>42.6</v>
+        <v>42.9</v>
       </c>
       <c r="C39" t="n">
-        <v>42.89</v>
+        <v>42.9</v>
       </c>
       <c r="D39" t="n">
-        <v>42.89</v>
+        <v>42.9</v>
       </c>
       <c r="E39" t="n">
-        <v>42.6</v>
+        <v>42.9</v>
       </c>
       <c r="F39" t="n">
-        <v>2926</v>
+        <v>572</v>
       </c>
       <c r="G39" t="n">
-        <v>43.09699999999995</v>
+        <v>43.06783333333328</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>42.52</v>
+        <v>42.6</v>
       </c>
       <c r="C40" t="n">
-        <v>42.76</v>
+        <v>42.89</v>
       </c>
       <c r="D40" t="n">
-        <v>42.76</v>
+        <v>42.89</v>
       </c>
       <c r="E40" t="n">
-        <v>42.52</v>
+        <v>42.6</v>
       </c>
       <c r="F40" t="n">
-        <v>996.4728</v>
+        <v>2926</v>
       </c>
       <c r="G40" t="n">
-        <v>43.12399999999995</v>
+        <v>43.09699999999995</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>42.63</v>
+        <v>42.52</v>
       </c>
       <c r="C41" t="n">
-        <v>42.62</v>
+        <v>42.76</v>
       </c>
       <c r="D41" t="n">
-        <v>42.85</v>
+        <v>42.76</v>
       </c>
       <c r="E41" t="n">
-        <v>42.62</v>
+        <v>42.52</v>
       </c>
       <c r="F41" t="n">
-        <v>1276</v>
+        <v>996.4728</v>
       </c>
       <c r="G41" t="n">
-        <v>43.14866666666662</v>
+        <v>43.12399999999995</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>42.77</v>
+        <v>42.63</v>
       </c>
       <c r="C42" t="n">
-        <v>43.15</v>
+        <v>42.62</v>
       </c>
       <c r="D42" t="n">
-        <v>43.15</v>
+        <v>42.85</v>
       </c>
       <c r="E42" t="n">
-        <v>42.76</v>
+        <v>42.62</v>
       </c>
       <c r="F42" t="n">
-        <v>1600</v>
+        <v>1276</v>
       </c>
       <c r="G42" t="n">
-        <v>43.18216666666662</v>
+        <v>43.14866666666662</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="C43" t="n">
+        <v>43.15</v>
+      </c>
+      <c r="D43" t="n">
+        <v>43.15</v>
+      </c>
+      <c r="E43" t="n">
         <v>42.76</v>
       </c>
-      <c r="C43" t="n">
-        <v>43.08</v>
-      </c>
-      <c r="D43" t="n">
-        <v>43.08</v>
-      </c>
-      <c r="E43" t="n">
-        <v>42.75</v>
-      </c>
       <c r="F43" t="n">
-        <v>2908</v>
+        <v>1600</v>
       </c>
       <c r="G43" t="n">
-        <v>43.21283333333329</v>
+        <v>43.18216666666662</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>42.86</v>
+        <v>42.76</v>
       </c>
       <c r="C44" t="n">
-        <v>42.86</v>
+        <v>43.08</v>
       </c>
       <c r="D44" t="n">
-        <v>42.88</v>
+        <v>43.08</v>
       </c>
       <c r="E44" t="n">
-        <v>42.86</v>
+        <v>42.75</v>
       </c>
       <c r="F44" t="n">
-        <v>4108</v>
+        <v>2908</v>
       </c>
       <c r="G44" t="n">
-        <v>43.2398333333333</v>
+        <v>43.21283333333329</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>42.74</v>
+        <v>42.86</v>
       </c>
       <c r="C45" t="n">
-        <v>42.74</v>
+        <v>42.86</v>
       </c>
       <c r="D45" t="n">
-        <v>42.74</v>
+        <v>42.88</v>
       </c>
       <c r="E45" t="n">
-        <v>42.74</v>
+        <v>42.86</v>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>4108</v>
       </c>
       <c r="G45" t="n">
-        <v>43.2648333333333</v>
+        <v>43.2398333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>42.74</v>
       </c>
       <c r="C46" t="n">
-        <v>43.16</v>
+        <v>42.74</v>
       </c>
       <c r="D46" t="n">
-        <v>43.16</v>
+        <v>42.74</v>
       </c>
       <c r="E46" t="n">
         <v>42.74</v>
       </c>
       <c r="F46" t="n">
-        <v>1918</v>
+        <v>2000</v>
       </c>
       <c r="G46" t="n">
-        <v>43.2968333333333</v>
+        <v>43.2648333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>43.04</v>
+        <v>42.74</v>
       </c>
       <c r="C47" t="n">
-        <v>42.94</v>
+        <v>43.16</v>
       </c>
       <c r="D47" t="n">
-        <v>43.04</v>
+        <v>43.16</v>
       </c>
       <c r="E47" t="n">
-        <v>42.94</v>
+        <v>42.74</v>
       </c>
       <c r="F47" t="n">
-        <v>209.6542378662714</v>
+        <v>1918</v>
       </c>
       <c r="G47" t="n">
-        <v>43.32499999999997</v>
+        <v>43.2968333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>42.94</v>
+        <v>43.04</v>
       </c>
       <c r="C48" t="n">
         <v>42.94</v>
       </c>
       <c r="D48" t="n">
-        <v>42.94</v>
+        <v>43.04</v>
       </c>
       <c r="E48" t="n">
         <v>42.94</v>
       </c>
       <c r="F48" t="n">
-        <v>433</v>
+        <v>209.6542378662714</v>
       </c>
       <c r="G48" t="n">
-        <v>43.34083333333331</v>
+        <v>43.32499999999997</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>43.04</v>
+        <v>42.94</v>
       </c>
       <c r="C49" t="n">
-        <v>43.04</v>
+        <v>42.94</v>
       </c>
       <c r="D49" t="n">
-        <v>43.04</v>
+        <v>42.94</v>
       </c>
       <c r="E49" t="n">
-        <v>43.04</v>
+        <v>42.94</v>
       </c>
       <c r="F49" t="n">
-        <v>618.121</v>
+        <v>433</v>
       </c>
       <c r="G49" t="n">
-        <v>43.35816666666664</v>
+        <v>43.34083333333331</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>42.97</v>
+        <v>43.04</v>
       </c>
       <c r="C50" t="n">
-        <v>42.97</v>
+        <v>43.04</v>
       </c>
       <c r="D50" t="n">
-        <v>42.97</v>
+        <v>43.04</v>
       </c>
       <c r="E50" t="n">
-        <v>42.97</v>
+        <v>43.04</v>
       </c>
       <c r="F50" t="n">
-        <v>529</v>
+        <v>618.121</v>
       </c>
       <c r="G50" t="n">
-        <v>43.3693333333333</v>
+        <v>43.35816666666664</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>42.69</v>
+        <v>42.97</v>
       </c>
       <c r="C51" t="n">
-        <v>42.69</v>
+        <v>42.97</v>
       </c>
       <c r="D51" t="n">
-        <v>42.69</v>
+        <v>42.97</v>
       </c>
       <c r="E51" t="n">
-        <v>42.69</v>
+        <v>42.97</v>
       </c>
       <c r="F51" t="n">
-        <v>594.5454999999999</v>
+        <v>529</v>
       </c>
       <c r="G51" t="n">
-        <v>43.3758333333333</v>
+        <v>43.3693333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>42.58</v>
+        <v>42.69</v>
       </c>
       <c r="C52" t="n">
-        <v>42.68</v>
+        <v>42.69</v>
       </c>
       <c r="D52" t="n">
-        <v>42.68</v>
+        <v>42.69</v>
       </c>
       <c r="E52" t="n">
-        <v>42.57</v>
+        <v>42.69</v>
       </c>
       <c r="F52" t="n">
-        <v>4470</v>
+        <v>594.5454999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>43.38216666666663</v>
+        <v>43.3758333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,32 +2218,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>42.6</v>
+        <v>42.58</v>
       </c>
       <c r="C53" t="n">
-        <v>41.61</v>
+        <v>42.68</v>
       </c>
       <c r="D53" t="n">
-        <v>42.6</v>
+        <v>42.68</v>
       </c>
       <c r="E53" t="n">
-        <v>41.61</v>
+        <v>42.57</v>
       </c>
       <c r="F53" t="n">
-        <v>29547.4839</v>
+        <v>4470</v>
       </c>
       <c r="G53" t="n">
-        <v>43.37066666666662</v>
+        <v>43.38216666666663</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>42.69</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2259,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>42</v>
+        <v>42.6</v>
       </c>
       <c r="C54" t="n">
-        <v>42</v>
+        <v>41.61</v>
       </c>
       <c r="D54" t="n">
-        <v>42</v>
+        <v>42.6</v>
       </c>
       <c r="E54" t="n">
-        <v>42</v>
+        <v>41.61</v>
       </c>
       <c r="F54" t="n">
-        <v>3316.275</v>
+        <v>29547.4839</v>
       </c>
       <c r="G54" t="n">
-        <v>43.36716666666663</v>
+        <v>43.37066666666662</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2284,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,32 +2298,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>42.6</v>
+        <v>42</v>
       </c>
       <c r="C55" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D55" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E55" t="n">
-        <v>42.6</v>
+        <v>42</v>
       </c>
       <c r="F55" t="n">
-        <v>2671</v>
+        <v>3316.275</v>
       </c>
       <c r="G55" t="n">
-        <v>43.38033333333329</v>
+        <v>43.36716666666663</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>41.61</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,32 +2339,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>42.99</v>
+        <v>42.6</v>
       </c>
       <c r="C56" t="n">
-        <v>42.7</v>
+        <v>43</v>
       </c>
       <c r="D56" t="n">
-        <v>42.99</v>
+        <v>43</v>
       </c>
       <c r="E56" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="F56" t="n">
-        <v>1255</v>
+        <v>2671</v>
       </c>
       <c r="G56" t="n">
-        <v>43.38849999999995</v>
+        <v>43.38033333333329</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>42</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,10 +2380,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="C57" t="n">
         <v>42.7</v>
-      </c>
-      <c r="C57" t="n">
-        <v>42.99</v>
       </c>
       <c r="D57" t="n">
         <v>42.99</v>
@@ -2370,20 +2392,26 @@
         <v>42.7</v>
       </c>
       <c r="F57" t="n">
-        <v>850</v>
+        <v>1255</v>
       </c>
       <c r="G57" t="n">
-        <v>43.39833333333328</v>
+        <v>43.38849999999995</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>43</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2421,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>42.2</v>
+        <v>42.7</v>
       </c>
       <c r="C58" t="n">
-        <v>42.5</v>
+        <v>42.99</v>
       </c>
       <c r="D58" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="E58" t="n">
         <v>42.7</v>
       </c>
-      <c r="E58" t="n">
-        <v>42.1</v>
-      </c>
       <c r="F58" t="n">
-        <v>13597.7597</v>
+        <v>850</v>
       </c>
       <c r="G58" t="n">
-        <v>43.39166666666662</v>
+        <v>43.39833333333328</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2446,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2460,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="C59" t="n">
-        <v>42.98</v>
+        <v>42.5</v>
       </c>
       <c r="D59" t="n">
-        <v>42.98</v>
+        <v>42.7</v>
       </c>
       <c r="E59" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="F59" t="n">
-        <v>1864</v>
+        <v>13597.7597</v>
       </c>
       <c r="G59" t="n">
-        <v>43.38199999999995</v>
+        <v>43.39166666666662</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2485,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2499,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="C60" t="n">
+        <v>42.98</v>
+      </c>
+      <c r="D60" t="n">
+        <v>42.98</v>
+      </c>
+      <c r="E60" t="n">
         <v>42.4</v>
       </c>
-      <c r="D60" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="E60" t="n">
-        <v>42.3</v>
-      </c>
       <c r="F60" t="n">
-        <v>3065</v>
+        <v>1864</v>
       </c>
       <c r="G60" t="n">
-        <v>43.36266666666662</v>
+        <v>43.38199999999995</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2524,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2538,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="C61" t="n">
         <v>42.4</v>
       </c>
-      <c r="C61" t="n">
-        <v>42.89</v>
-      </c>
       <c r="D61" t="n">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="E61" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="F61" t="n">
-        <v>4969</v>
+        <v>3065</v>
       </c>
       <c r="G61" t="n">
-        <v>43.35149999999995</v>
+        <v>43.36266666666662</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2563,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2577,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>42.85</v>
+        <v>42.4</v>
       </c>
       <c r="C62" t="n">
-        <v>42.64</v>
+        <v>42.89</v>
       </c>
       <c r="D62" t="n">
-        <v>43.07</v>
+        <v>43</v>
       </c>
       <c r="E62" t="n">
-        <v>42.64</v>
+        <v>42.4</v>
       </c>
       <c r="F62" t="n">
-        <v>4573</v>
+        <v>4969</v>
       </c>
       <c r="G62" t="n">
-        <v>43.33616666666661</v>
+        <v>43.35149999999995</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2602,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2616,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>42.57</v>
+        <v>42.85</v>
       </c>
       <c r="C63" t="n">
-        <v>42.56</v>
+        <v>42.64</v>
       </c>
       <c r="D63" t="n">
-        <v>42.78</v>
+        <v>43.07</v>
       </c>
       <c r="E63" t="n">
-        <v>42.56</v>
+        <v>42.64</v>
       </c>
       <c r="F63" t="n">
-        <v>1319</v>
+        <v>4573</v>
       </c>
       <c r="G63" t="n">
-        <v>43.31949999999995</v>
+        <v>43.33616666666661</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2641,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2655,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>42.66</v>
+        <v>42.57</v>
       </c>
       <c r="C64" t="n">
-        <v>42.79</v>
+        <v>42.56</v>
       </c>
       <c r="D64" t="n">
-        <v>42.89</v>
+        <v>42.78</v>
       </c>
       <c r="E64" t="n">
-        <v>42.66</v>
+        <v>42.56</v>
       </c>
       <c r="F64" t="n">
-        <v>1200</v>
+        <v>1319</v>
       </c>
       <c r="G64" t="n">
-        <v>43.30666666666662</v>
+        <v>43.31949999999995</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2680,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2694,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>43.08</v>
+        <v>42.66</v>
       </c>
       <c r="C65" t="n">
-        <v>42.9</v>
+        <v>42.79</v>
       </c>
       <c r="D65" t="n">
-        <v>43.08</v>
+        <v>42.89</v>
       </c>
       <c r="E65" t="n">
-        <v>42.89</v>
+        <v>42.66</v>
       </c>
       <c r="F65" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G65" t="n">
-        <v>43.29566666666662</v>
+        <v>43.30666666666662</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2719,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2733,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>42.1</v>
+        <v>43.08</v>
       </c>
       <c r="C66" t="n">
-        <v>43.06</v>
+        <v>42.9</v>
       </c>
       <c r="D66" t="n">
-        <v>43.06</v>
+        <v>43.08</v>
       </c>
       <c r="E66" t="n">
-        <v>42.1</v>
+        <v>42.89</v>
       </c>
       <c r="F66" t="n">
-        <v>1378.1419</v>
+        <v>2400</v>
       </c>
       <c r="G66" t="n">
-        <v>43.28733333333329</v>
+        <v>43.29566666666662</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2758,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2772,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>42.6</v>
+        <v>42.1</v>
       </c>
       <c r="C67" t="n">
-        <v>42.7</v>
+        <v>43.06</v>
       </c>
       <c r="D67" t="n">
-        <v>42.7</v>
+        <v>43.06</v>
       </c>
       <c r="E67" t="n">
-        <v>42.59</v>
+        <v>42.1</v>
       </c>
       <c r="F67" t="n">
-        <v>2400</v>
+        <v>1378.1419</v>
       </c>
       <c r="G67" t="n">
-        <v>43.27299999999995</v>
+        <v>43.28733333333329</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2797,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2811,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>42.99</v>
+        <v>42.6</v>
       </c>
       <c r="C68" t="n">
-        <v>42.99</v>
+        <v>42.7</v>
       </c>
       <c r="D68" t="n">
-        <v>42.99</v>
+        <v>42.7</v>
       </c>
       <c r="E68" t="n">
-        <v>42.99</v>
+        <v>42.59</v>
       </c>
       <c r="F68" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="G68" t="n">
-        <v>43.25783333333327</v>
+        <v>43.27299999999995</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2836,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2790,10 +2862,10 @@
         <v>42.99</v>
       </c>
       <c r="F69" t="n">
-        <v>46</v>
+        <v>800</v>
       </c>
       <c r="G69" t="n">
-        <v>43.24099999999994</v>
+        <v>43.25783333333327</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2875,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2889,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>42.1</v>
+        <v>42.99</v>
       </c>
       <c r="C70" t="n">
-        <v>42.1</v>
+        <v>42.99</v>
       </c>
       <c r="D70" t="n">
-        <v>42.1</v>
+        <v>42.99</v>
       </c>
       <c r="E70" t="n">
-        <v>42.1</v>
+        <v>42.99</v>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="G70" t="n">
-        <v>43.2091666666666</v>
+        <v>43.24099999999994</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +2914,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2928,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>42.89</v>
+        <v>42.1</v>
       </c>
       <c r="C71" t="n">
-        <v>42.89</v>
+        <v>42.1</v>
       </c>
       <c r="D71" t="n">
-        <v>42.89</v>
+        <v>42.1</v>
       </c>
       <c r="E71" t="n">
-        <v>42.89</v>
+        <v>42.1</v>
       </c>
       <c r="F71" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>43.1881666666666</v>
+        <v>43.2091666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +2953,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2895,24 +2979,24 @@
         <v>42.89</v>
       </c>
       <c r="F72" t="n">
-        <v>1200</v>
+        <v>55</v>
       </c>
       <c r="G72" t="n">
-        <v>43.16949999999993</v>
+        <v>43.1881666666666</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>42.89</v>
-      </c>
-      <c r="K72" t="n">
-        <v>42.89</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2925,35 +3009,31 @@
         <v>42.89</v>
       </c>
       <c r="C73" t="n">
-        <v>42.88</v>
+        <v>42.89</v>
       </c>
       <c r="D73" t="n">
         <v>42.89</v>
       </c>
       <c r="E73" t="n">
-        <v>42.88</v>
+        <v>42.89</v>
       </c>
       <c r="F73" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G73" t="n">
-        <v>43.15066666666659</v>
+        <v>43.16949999999993</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>42.89</v>
-      </c>
-      <c r="K73" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -2965,35 +3045,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>42.9</v>
+        <v>42.89</v>
       </c>
       <c r="C74" t="n">
-        <v>42.99</v>
+        <v>42.88</v>
       </c>
       <c r="D74" t="n">
-        <v>42.99</v>
+        <v>42.89</v>
       </c>
       <c r="E74" t="n">
-        <v>42.9</v>
+        <v>42.88</v>
       </c>
       <c r="F74" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G74" t="n">
-        <v>43.13349999999992</v>
+        <v>43.15066666666659</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>42.88</v>
-      </c>
-      <c r="K74" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3008,7 +3084,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>42.99</v>
+        <v>42.9</v>
       </c>
       <c r="C75" t="n">
         <v>42.99</v>
@@ -3017,13 +3093,13 @@
         <v>42.99</v>
       </c>
       <c r="E75" t="n">
-        <v>42.99</v>
+        <v>42.9</v>
       </c>
       <c r="F75" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G75" t="n">
-        <v>43.11649999999991</v>
+        <v>43.13349999999992</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3032,9 +3108,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3061,10 +3135,10 @@
         <v>42.99</v>
       </c>
       <c r="F76" t="n">
-        <v>860.706</v>
+        <v>397</v>
       </c>
       <c r="G76" t="n">
-        <v>43.09883333333324</v>
+        <v>43.11649999999991</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3073,9 +3147,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,7 +3162,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>42.51</v>
+        <v>42.99</v>
       </c>
       <c r="C77" t="n">
         <v>42.99</v>
@@ -3099,13 +3171,13 @@
         <v>42.99</v>
       </c>
       <c r="E77" t="n">
-        <v>42.51</v>
+        <v>42.99</v>
       </c>
       <c r="F77" t="n">
-        <v>2909.43</v>
+        <v>860.706</v>
       </c>
       <c r="G77" t="n">
-        <v>43.07866666666657</v>
+        <v>43.09883333333324</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3114,9 +3186,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3131,22 +3201,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>42.3</v>
+        <v>42.51</v>
       </c>
       <c r="C78" t="n">
-        <v>42.97</v>
+        <v>42.99</v>
       </c>
       <c r="D78" t="n">
-        <v>42.98</v>
+        <v>42.99</v>
       </c>
       <c r="E78" t="n">
-        <v>42.3</v>
+        <v>42.51</v>
       </c>
       <c r="F78" t="n">
-        <v>6534.4675</v>
+        <v>2909.43</v>
       </c>
       <c r="G78" t="n">
-        <v>43.0564999999999</v>
+        <v>43.07866666666657</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3155,9 +3225,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3172,35 +3240,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>42.36</v>
+        <v>42.3</v>
       </c>
       <c r="C79" t="n">
-        <v>42.99</v>
+        <v>42.97</v>
       </c>
       <c r="D79" t="n">
-        <v>42.99</v>
+        <v>42.98</v>
       </c>
       <c r="E79" t="n">
-        <v>42.36</v>
+        <v>42.3</v>
       </c>
       <c r="F79" t="n">
-        <v>7818</v>
+        <v>6534.4675</v>
       </c>
       <c r="G79" t="n">
-        <v>43.03633333333323</v>
+        <v>43.0564999999999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>42.97</v>
-      </c>
-      <c r="K79" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3215,7 +3279,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>42.99</v>
+        <v>42.36</v>
       </c>
       <c r="C80" t="n">
         <v>42.99</v>
@@ -3224,13 +3288,13 @@
         <v>42.99</v>
       </c>
       <c r="E80" t="n">
-        <v>42.99</v>
+        <v>42.36</v>
       </c>
       <c r="F80" t="n">
-        <v>155.809</v>
+        <v>7818</v>
       </c>
       <c r="G80" t="n">
-        <v>43.01783333333323</v>
+        <v>43.03633333333323</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3239,9 +3303,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3268,10 +3330,10 @@
         <v>42.99</v>
       </c>
       <c r="F81" t="n">
-        <v>4696</v>
+        <v>155.809</v>
       </c>
       <c r="G81" t="n">
-        <v>42.99766666666656</v>
+        <v>43.01783333333323</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3280,9 +3342,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3300,32 +3360,28 @@
         <v>42.99</v>
       </c>
       <c r="C82" t="n">
-        <v>43.55</v>
+        <v>42.99</v>
       </c>
       <c r="D82" t="n">
-        <v>43.55</v>
+        <v>42.99</v>
       </c>
       <c r="E82" t="n">
         <v>42.99</v>
       </c>
       <c r="F82" t="n">
-        <v>1870.645</v>
+        <v>4696</v>
       </c>
       <c r="G82" t="n">
-        <v>42.99016666666657</v>
+        <v>42.99766666666656</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="K82" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3340,35 +3396,31 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>43.53</v>
+        <v>42.99</v>
       </c>
       <c r="C83" t="n">
-        <v>43.53</v>
+        <v>43.55</v>
       </c>
       <c r="D83" t="n">
-        <v>43.53</v>
+        <v>43.55</v>
       </c>
       <c r="E83" t="n">
-        <v>43.53</v>
+        <v>42.99</v>
       </c>
       <c r="F83" t="n">
-        <v>800</v>
+        <v>1870.645</v>
       </c>
       <c r="G83" t="n">
-        <v>42.98233333333324</v>
+        <v>42.99016666666657</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>43.55</v>
-      </c>
-      <c r="K83" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3395,23 +3447,19 @@
         <v>43.53</v>
       </c>
       <c r="F84" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G84" t="n">
-        <v>42.97449999999991</v>
+        <v>42.98233333333324</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="K84" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3441,7 +3489,7 @@
         <v>400</v>
       </c>
       <c r="G85" t="n">
-        <v>42.96666666666658</v>
+        <v>42.97449999999991</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3450,9 +3498,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3470,19 +3516,19 @@
         <v>43.53</v>
       </c>
       <c r="C86" t="n">
-        <v>43.5</v>
+        <v>43.53</v>
       </c>
       <c r="D86" t="n">
         <v>43.53</v>
       </c>
       <c r="E86" t="n">
-        <v>43.5</v>
+        <v>43.53</v>
       </c>
       <c r="F86" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G86" t="n">
-        <v>42.95833333333324</v>
+        <v>42.96666666666658</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3491,9 +3537,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3508,22 +3552,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>43.48</v>
+        <v>43.53</v>
       </c>
       <c r="C87" t="n">
-        <v>43.48</v>
+        <v>43.5</v>
       </c>
       <c r="D87" t="n">
-        <v>43.48</v>
+        <v>43.53</v>
       </c>
       <c r="E87" t="n">
-        <v>43.48</v>
+        <v>43.5</v>
       </c>
       <c r="F87" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="G87" t="n">
-        <v>42.94983333333325</v>
+        <v>42.95833333333324</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3532,9 +3576,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3549,22 +3591,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>43.43</v>
+        <v>43.48</v>
       </c>
       <c r="C88" t="n">
-        <v>43.43</v>
+        <v>43.48</v>
       </c>
       <c r="D88" t="n">
-        <v>43.43</v>
+        <v>43.48</v>
       </c>
       <c r="E88" t="n">
-        <v>43.43</v>
+        <v>43.48</v>
       </c>
       <c r="F88" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G88" t="n">
-        <v>42.94049999999991</v>
+        <v>42.94983333333325</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3573,9 +3615,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3605,7 +3645,7 @@
         <v>800</v>
       </c>
       <c r="G89" t="n">
-        <v>42.93983333333325</v>
+        <v>42.94049999999991</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3614,9 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3631,22 +3669,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>42.81</v>
+        <v>43.43</v>
       </c>
       <c r="C90" t="n">
-        <v>43.33</v>
+        <v>43.43</v>
       </c>
       <c r="D90" t="n">
-        <v>43.33</v>
+        <v>43.43</v>
       </c>
       <c r="E90" t="n">
-        <v>42.81</v>
+        <v>43.43</v>
       </c>
       <c r="F90" t="n">
-        <v>7263.1824</v>
+        <v>800</v>
       </c>
       <c r="G90" t="n">
-        <v>42.93533333333325</v>
+        <v>42.93983333333325</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3655,9 +3693,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3672,22 +3708,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>43.4</v>
+        <v>42.81</v>
       </c>
       <c r="C91" t="n">
-        <v>43.4</v>
+        <v>43.33</v>
       </c>
       <c r="D91" t="n">
-        <v>43.4</v>
+        <v>43.33</v>
       </c>
       <c r="E91" t="n">
-        <v>43.4</v>
+        <v>42.81</v>
       </c>
       <c r="F91" t="n">
-        <v>1086</v>
+        <v>7263.1824</v>
       </c>
       <c r="G91" t="n">
-        <v>42.93149999999991</v>
+        <v>42.93533333333325</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3696,9 +3732,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3725,23 +3759,19 @@
         <v>43.4</v>
       </c>
       <c r="F92" t="n">
-        <v>1200</v>
+        <v>1086</v>
       </c>
       <c r="G92" t="n">
         <v>42.93149999999991</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K92" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3768,10 +3798,10 @@
         <v>43.4</v>
       </c>
       <c r="F93" t="n">
-        <v>1042</v>
+        <v>1200</v>
       </c>
       <c r="G93" t="n">
-        <v>42.93166666666659</v>
+        <v>42.93149999999991</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3780,9 +3810,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3797,22 +3825,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>43.39</v>
+        <v>43.4</v>
       </c>
       <c r="C94" t="n">
-        <v>43.39</v>
+        <v>43.4</v>
       </c>
       <c r="D94" t="n">
-        <v>43.39</v>
+        <v>43.4</v>
       </c>
       <c r="E94" t="n">
-        <v>43.39</v>
+        <v>43.4</v>
       </c>
       <c r="F94" t="n">
-        <v>2400</v>
+        <v>1042</v>
       </c>
       <c r="G94" t="n">
-        <v>42.93416666666658</v>
+        <v>42.93166666666659</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3821,9 +3849,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3841,19 +3867,19 @@
         <v>43.39</v>
       </c>
       <c r="C95" t="n">
-        <v>43.5</v>
+        <v>43.39</v>
       </c>
       <c r="D95" t="n">
-        <v>43.5</v>
+        <v>43.39</v>
       </c>
       <c r="E95" t="n">
         <v>43.39</v>
       </c>
       <c r="F95" t="n">
-        <v>4734.191</v>
+        <v>2400</v>
       </c>
       <c r="G95" t="n">
-        <v>42.93749999999991</v>
+        <v>42.93416666666658</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3862,9 +3888,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3879,22 +3903,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>43.49</v>
+        <v>43.39</v>
       </c>
       <c r="C96" t="n">
-        <v>43.49</v>
+        <v>43.5</v>
       </c>
       <c r="D96" t="n">
-        <v>43.49</v>
+        <v>43.5</v>
       </c>
       <c r="E96" t="n">
-        <v>43.49</v>
+        <v>43.39</v>
       </c>
       <c r="F96" t="n">
-        <v>529</v>
+        <v>4734.191</v>
       </c>
       <c r="G96" t="n">
-        <v>42.93616666666658</v>
+        <v>42.93749999999991</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3903,9 +3927,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3932,10 +3954,10 @@
         <v>43.49</v>
       </c>
       <c r="F97" t="n">
-        <v>562.799</v>
+        <v>529</v>
       </c>
       <c r="G97" t="n">
-        <v>42.9859999999999</v>
+        <v>42.93616666666658</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3944,9 +3966,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3961,22 +3981,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>43.5</v>
+        <v>43.49</v>
       </c>
       <c r="C98" t="n">
-        <v>43.5</v>
+        <v>43.49</v>
       </c>
       <c r="D98" t="n">
-        <v>43.5</v>
+        <v>43.49</v>
       </c>
       <c r="E98" t="n">
         <v>43.49</v>
       </c>
       <c r="F98" t="n">
-        <v>1979</v>
+        <v>562.799</v>
       </c>
       <c r="G98" t="n">
-        <v>42.9959999999999</v>
+        <v>42.9859999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3985,9 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4005,19 +4023,19 @@
         <v>43.5</v>
       </c>
       <c r="C99" t="n">
-        <v>43.56</v>
+        <v>43.5</v>
       </c>
       <c r="D99" t="n">
-        <v>43.56</v>
+        <v>43.5</v>
       </c>
       <c r="E99" t="n">
-        <v>43.5</v>
+        <v>43.49</v>
       </c>
       <c r="F99" t="n">
-        <v>5200</v>
+        <v>1979</v>
       </c>
       <c r="G99" t="n">
-        <v>43.00716666666657</v>
+        <v>42.9959999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4026,9 +4044,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,22 +4059,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="C100" t="n">
-        <v>43.66</v>
+        <v>43.56</v>
       </c>
       <c r="D100" t="n">
-        <v>43.66</v>
+        <v>43.56</v>
       </c>
       <c r="E100" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="F100" t="n">
-        <v>1145.680330187815</v>
+        <v>5200</v>
       </c>
       <c r="G100" t="n">
-        <v>43.02216666666656</v>
+        <v>43.00716666666657</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4067,9 +4083,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4084,7 +4098,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>43.66</v>
+        <v>43.6</v>
       </c>
       <c r="C101" t="n">
         <v>43.66</v>
@@ -4093,13 +4107,13 @@
         <v>43.66</v>
       </c>
       <c r="E101" t="n">
-        <v>43.66</v>
+        <v>43.6</v>
       </c>
       <c r="F101" t="n">
-        <v>400</v>
+        <v>1145.680330187815</v>
       </c>
       <c r="G101" t="n">
-        <v>43.0394999999999</v>
+        <v>43.02216666666656</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4108,9 +4122,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4128,19 +4140,19 @@
         <v>43.66</v>
       </c>
       <c r="C102" t="n">
-        <v>43.79</v>
+        <v>43.66</v>
       </c>
       <c r="D102" t="n">
-        <v>43.79</v>
+        <v>43.66</v>
       </c>
       <c r="E102" t="n">
         <v>43.66</v>
       </c>
       <c r="F102" t="n">
-        <v>5339.92</v>
+        <v>400</v>
       </c>
       <c r="G102" t="n">
-        <v>43.05016666666656</v>
+        <v>43.0394999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4149,9 +4161,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,22 +4176,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>43.1</v>
+        <v>43.66</v>
       </c>
       <c r="C103" t="n">
-        <v>43.1</v>
+        <v>43.79</v>
       </c>
       <c r="D103" t="n">
-        <v>43.1</v>
+        <v>43.79</v>
       </c>
       <c r="E103" t="n">
-        <v>43.1</v>
+        <v>43.66</v>
       </c>
       <c r="F103" t="n">
-        <v>412.3902</v>
+        <v>5339.92</v>
       </c>
       <c r="G103" t="n">
-        <v>43.0504999999999</v>
+        <v>43.05016666666656</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4190,9 +4200,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4207,22 +4215,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>43.6</v>
+        <v>43.1</v>
       </c>
       <c r="C104" t="n">
-        <v>43.6</v>
+        <v>43.1</v>
       </c>
       <c r="D104" t="n">
-        <v>43.6</v>
+        <v>43.1</v>
       </c>
       <c r="E104" t="n">
-        <v>43.6</v>
+        <v>43.1</v>
       </c>
       <c r="F104" t="n">
-        <v>412</v>
+        <v>412.3902</v>
       </c>
       <c r="G104" t="n">
-        <v>43.06283333333322</v>
+        <v>43.0504999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4231,9 +4239,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,19 +4257,19 @@
         <v>43.6</v>
       </c>
       <c r="C105" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="D105" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="E105" t="n">
         <v>43.6</v>
       </c>
       <c r="F105" t="n">
-        <v>4194</v>
+        <v>412</v>
       </c>
       <c r="G105" t="n">
-        <v>43.07883333333323</v>
+        <v>43.06283333333322</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4272,9 +4278,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4289,22 +4293,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>42.9</v>
+        <v>43.6</v>
       </c>
       <c r="C106" t="n">
-        <v>42.72</v>
+        <v>43.7</v>
       </c>
       <c r="D106" t="n">
-        <v>42.9</v>
+        <v>43.7</v>
       </c>
       <c r="E106" t="n">
-        <v>42.72</v>
+        <v>43.6</v>
       </c>
       <c r="F106" t="n">
-        <v>3947.3868</v>
+        <v>4194</v>
       </c>
       <c r="G106" t="n">
-        <v>43.07149999999989</v>
+        <v>43.07883333333323</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4313,9 +4317,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,22 +4332,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>43.6</v>
+        <v>42.9</v>
       </c>
       <c r="C107" t="n">
-        <v>43.6</v>
+        <v>42.72</v>
       </c>
       <c r="D107" t="n">
-        <v>43.6</v>
+        <v>42.9</v>
       </c>
       <c r="E107" t="n">
-        <v>43.5</v>
+        <v>42.72</v>
       </c>
       <c r="F107" t="n">
-        <v>7380</v>
+        <v>3947.3868</v>
       </c>
       <c r="G107" t="n">
-        <v>43.08249999999989</v>
+        <v>43.07149999999989</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4354,9 +4356,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4380,13 +4380,13 @@
         <v>43.6</v>
       </c>
       <c r="E108" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="F108" t="n">
-        <v>800</v>
+        <v>7380</v>
       </c>
       <c r="G108" t="n">
-        <v>43.09349999999989</v>
+        <v>43.08249999999989</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4395,9 +4395,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4412,22 +4410,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>43.59</v>
+        <v>43.6</v>
       </c>
       <c r="C109" t="n">
-        <v>43.58</v>
+        <v>43.6</v>
       </c>
       <c r="D109" t="n">
-        <v>43.59</v>
+        <v>43.6</v>
       </c>
       <c r="E109" t="n">
-        <v>43.58</v>
+        <v>43.6</v>
       </c>
       <c r="F109" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G109" t="n">
-        <v>43.10249999999989</v>
+        <v>43.09349999999989</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4436,9 +4434,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4453,22 +4449,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>43.58</v>
+        <v>43.59</v>
       </c>
       <c r="C110" t="n">
         <v>43.58</v>
       </c>
       <c r="D110" t="n">
-        <v>43.58</v>
+        <v>43.59</v>
       </c>
       <c r="E110" t="n">
         <v>43.58</v>
       </c>
       <c r="F110" t="n">
-        <v>296.637</v>
+        <v>1600</v>
       </c>
       <c r="G110" t="n">
-        <v>43.11266666666656</v>
+        <v>43.10249999999989</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4477,9 +4473,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,22 +4488,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>43.57</v>
+        <v>43.58</v>
       </c>
       <c r="C111" t="n">
-        <v>43.57</v>
+        <v>43.58</v>
       </c>
       <c r="D111" t="n">
-        <v>43.57</v>
+        <v>43.58</v>
       </c>
       <c r="E111" t="n">
-        <v>43.57</v>
+        <v>43.58</v>
       </c>
       <c r="F111" t="n">
-        <v>800</v>
+        <v>296.637</v>
       </c>
       <c r="G111" t="n">
-        <v>43.12733333333323</v>
+        <v>43.11266666666656</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4518,9 +4512,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4538,19 +4530,19 @@
         <v>43.57</v>
       </c>
       <c r="C112" t="n">
-        <v>43.58</v>
+        <v>43.57</v>
       </c>
       <c r="D112" t="n">
-        <v>43.58</v>
+        <v>43.57</v>
       </c>
       <c r="E112" t="n">
         <v>43.57</v>
       </c>
       <c r="F112" t="n">
-        <v>1232.6</v>
+        <v>800</v>
       </c>
       <c r="G112" t="n">
-        <v>43.14233333333323</v>
+        <v>43.12733333333323</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4559,9 +4551,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,7 +4566,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>43.58</v>
+        <v>43.57</v>
       </c>
       <c r="C113" t="n">
         <v>43.58</v>
@@ -4585,13 +4575,13 @@
         <v>43.58</v>
       </c>
       <c r="E113" t="n">
-        <v>43.58</v>
+        <v>43.57</v>
       </c>
       <c r="F113" t="n">
-        <v>800</v>
+        <v>1232.6</v>
       </c>
       <c r="G113" t="n">
-        <v>43.17516666666656</v>
+        <v>43.14233333333323</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4600,9 +4590,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4620,19 +4608,19 @@
         <v>43.58</v>
       </c>
       <c r="C114" t="n">
-        <v>43.6</v>
+        <v>43.58</v>
       </c>
       <c r="D114" t="n">
-        <v>43.6</v>
+        <v>43.58</v>
       </c>
       <c r="E114" t="n">
         <v>43.58</v>
       </c>
       <c r="F114" t="n">
-        <v>933.359</v>
+        <v>800</v>
       </c>
       <c r="G114" t="n">
-        <v>43.20183333333322</v>
+        <v>43.17516666666656</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4641,9 +4629,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4658,7 +4644,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>43.6</v>
+        <v>43.58</v>
       </c>
       <c r="C115" t="n">
         <v>43.6</v>
@@ -4667,13 +4653,13 @@
         <v>43.6</v>
       </c>
       <c r="E115" t="n">
-        <v>43.6</v>
+        <v>43.58</v>
       </c>
       <c r="F115" t="n">
-        <v>486.8366</v>
+        <v>933.359</v>
       </c>
       <c r="G115" t="n">
-        <v>43.21183333333322</v>
+        <v>43.20183333333322</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4682,9 +4668,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4711,10 +4695,10 @@
         <v>43.6</v>
       </c>
       <c r="F116" t="n">
-        <v>1200</v>
+        <v>486.8366</v>
       </c>
       <c r="G116" t="n">
-        <v>43.22683333333323</v>
+        <v>43.21183333333322</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4723,9 +4707,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4752,10 +4734,10 @@
         <v>43.6</v>
       </c>
       <c r="F117" t="n">
-        <v>3966.6052</v>
+        <v>1200</v>
       </c>
       <c r="G117" t="n">
-        <v>43.23699999999989</v>
+        <v>43.22683333333323</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4764,9 +4746,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4781,22 +4761,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>43.59</v>
+        <v>43.6</v>
       </c>
       <c r="C118" t="n">
-        <v>43.59</v>
+        <v>43.6</v>
       </c>
       <c r="D118" t="n">
-        <v>43.59</v>
+        <v>43.6</v>
       </c>
       <c r="E118" t="n">
-        <v>43.59</v>
+        <v>43.6</v>
       </c>
       <c r="F118" t="n">
-        <v>12.8236</v>
+        <v>3966.6052</v>
       </c>
       <c r="G118" t="n">
-        <v>43.25516666666656</v>
+        <v>43.23699999999989</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4805,9 +4785,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4822,22 +4800,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>43.58</v>
+        <v>43.59</v>
       </c>
       <c r="C119" t="n">
         <v>43.59</v>
       </c>
       <c r="D119" t="n">
-        <v>43.6</v>
+        <v>43.59</v>
       </c>
       <c r="E119" t="n">
-        <v>43.57</v>
+        <v>43.59</v>
       </c>
       <c r="F119" t="n">
-        <v>2400</v>
+        <v>12.8236</v>
       </c>
       <c r="G119" t="n">
-        <v>43.26533333333323</v>
+        <v>43.25516666666656</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4846,9 +4824,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4863,22 +4839,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="C120" t="n">
         <v>43.59</v>
-      </c>
-      <c r="C120" t="n">
-        <v>43.6</v>
       </c>
       <c r="D120" t="n">
         <v>43.6</v>
       </c>
       <c r="E120" t="n">
-        <v>43.59</v>
+        <v>43.57</v>
       </c>
       <c r="F120" t="n">
-        <v>1058</v>
+        <v>2400</v>
       </c>
       <c r="G120" t="n">
-        <v>43.28533333333323</v>
+        <v>43.26533333333323</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4887,9 +4863,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4904,22 +4878,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C121" t="n">
         <v>43.6</v>
       </c>
-      <c r="C121" t="n">
-        <v>43.7</v>
-      </c>
       <c r="D121" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="E121" t="n">
-        <v>43.6</v>
+        <v>43.59</v>
       </c>
       <c r="F121" t="n">
-        <v>800</v>
+        <v>1058</v>
       </c>
       <c r="G121" t="n">
-        <v>43.29883333333323</v>
+        <v>43.28533333333323</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4928,9 +4902,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4945,7 +4917,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="C122" t="n">
         <v>43.7</v>
@@ -4954,13 +4926,13 @@
         <v>43.7</v>
       </c>
       <c r="E122" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="F122" t="n">
-        <v>5576.8</v>
+        <v>800</v>
       </c>
       <c r="G122" t="n">
-        <v>43.31649999999989</v>
+        <v>43.29883333333323</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4969,9 +4941,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>42.89</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4989,36 +4959,73 @@
         <v>43.7</v>
       </c>
       <c r="C123" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="D123" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="E123" t="n">
         <v>43.7</v>
       </c>
       <c r="F123" t="n">
+        <v>5576.8</v>
+      </c>
+      <c r="G123" t="n">
+        <v>43.31649999999989</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C124" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="F124" t="n">
         <v>400</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G124" t="n">
         <v>43.33716666666656</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>42.89</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest PAY.xlsx
+++ b/BackTest/2020-01-16 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>125.4279</v>
       </c>
       <c r="G2" t="n">
+        <v>42.47</v>
+      </c>
+      <c r="H2" t="n">
         <v>41.68249999999998</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>209.0465</v>
       </c>
       <c r="G3" t="n">
+        <v>42.624</v>
+      </c>
+      <c r="H3" t="n">
         <v>41.70566666666664</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="L3" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>167.2372</v>
       </c>
       <c r="G4" t="n">
+        <v>42.72866666666665</v>
+      </c>
+      <c r="H4" t="n">
         <v>41.72866666666664</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>459.9023</v>
       </c>
       <c r="G5" t="n">
+        <v>42.83266666666665</v>
+      </c>
+      <c r="H5" t="n">
         <v>41.7518333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="L5" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>41.8093</v>
       </c>
       <c r="G6" t="n">
+        <v>42.91666666666665</v>
+      </c>
+      <c r="H6" t="n">
         <v>41.7753333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="L6" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>4398.0291</v>
       </c>
       <c r="G7" t="n">
+        <v>43.00066666666665</v>
+      </c>
+      <c r="H7" t="n">
         <v>41.80949999999996</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>123.632</v>
       </c>
       <c r="G8" t="n">
+        <v>43.08466666666665</v>
+      </c>
+      <c r="H8" t="n">
         <v>41.8438333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,21 @@
         <v>7533</v>
       </c>
       <c r="G9" t="n">
+        <v>43.19133333333332</v>
+      </c>
+      <c r="H9" t="n">
         <v>41.86283333333329</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +793,21 @@
         <v>43486.651</v>
       </c>
       <c r="G10" t="n">
+        <v>43.31066666666665</v>
+      </c>
+      <c r="H10" t="n">
         <v>41.89949999999996</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +831,21 @@
         <v>368.3802</v>
       </c>
       <c r="G11" t="n">
+        <v>43.43066666666665</v>
+      </c>
+      <c r="H11" t="n">
         <v>41.93799999999997</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +869,21 @@
         <v>2935.43</v>
       </c>
       <c r="G12" t="n">
+        <v>43.55999999999997</v>
+      </c>
+      <c r="H12" t="n">
         <v>41.96716666666664</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +907,21 @@
         <v>5309.283843035108</v>
       </c>
       <c r="G13" t="n">
+        <v>43.66733333333331</v>
+      </c>
+      <c r="H13" t="n">
         <v>42.01399999999997</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +945,21 @@
         <v>5000</v>
       </c>
       <c r="G14" t="n">
+        <v>43.74133333333331</v>
+      </c>
+      <c r="H14" t="n">
         <v>42.05749999999998</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +983,21 @@
         <v>1057.214</v>
       </c>
       <c r="G15" t="n">
+        <v>43.77199999999998</v>
+      </c>
+      <c r="H15" t="n">
         <v>42.09716666666665</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1021,21 @@
         <v>9366.672200000001</v>
       </c>
       <c r="G16" t="n">
+        <v>43.80199999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>42.13733333333332</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1059,21 @@
         <v>400</v>
       </c>
       <c r="G17" t="n">
+        <v>43.83466666666665</v>
+      </c>
+      <c r="H17" t="n">
         <v>42.17816666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1097,21 @@
         <v>400</v>
       </c>
       <c r="G18" t="n">
+        <v>43.87733333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>42.22449999999998</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1135,21 @@
         <v>800</v>
       </c>
       <c r="G19" t="n">
+        <v>43.92666666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>42.27249999999999</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1173,21 @@
         <v>6253</v>
       </c>
       <c r="G20" t="n">
+        <v>43.96933333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>42.32049999999997</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1211,21 @@
         <v>11113.69</v>
       </c>
       <c r="G21" t="n">
+        <v>44.00533333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>42.3668333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1249,21 @@
         <v>15165.2619</v>
       </c>
       <c r="G22" t="n">
+        <v>44.048</v>
+      </c>
+      <c r="H22" t="n">
         <v>42.41516666666664</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1287,21 @@
         <v>49912.6404</v>
       </c>
       <c r="G23" t="n">
+        <v>44.07733333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>42.46016666666663</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1325,21 @@
         <v>1308.6503</v>
       </c>
       <c r="G24" t="n">
+        <v>44.08400000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>42.50316666666663</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1363,21 @@
         <v>13603.4422</v>
       </c>
       <c r="G25" t="n">
+        <v>44.08400000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>42.54483333333329</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1401,21 @@
         <v>5959.936103349934</v>
       </c>
       <c r="G26" t="n">
+        <v>44.08333333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>42.58783333333329</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1439,21 @@
         <v>2949.022727272727</v>
       </c>
       <c r="G27" t="n">
+        <v>44.07333333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>42.63449999999997</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1477,21 @@
         <v>4361.991361673107</v>
       </c>
       <c r="G28" t="n">
+        <v>44.07200000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>42.68099999999996</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1515,21 @@
         <v>233.5602</v>
       </c>
       <c r="G29" t="n">
+        <v>44.07066666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>42.72616666666662</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1553,21 @@
         <v>3514.9785</v>
       </c>
       <c r="G30" t="n">
+        <v>44.03400000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>42.76266666666662</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1591,21 @@
         <v>527.1754</v>
       </c>
       <c r="G31" t="n">
+        <v>44.00666666666668</v>
+      </c>
+      <c r="H31" t="n">
         <v>42.80133333333328</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1629,21 @@
         <v>9373.65</v>
       </c>
       <c r="G32" t="n">
+        <v>43.97866666666668</v>
+      </c>
+      <c r="H32" t="n">
         <v>42.83683333333328</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1667,21 @@
         <v>4670.889</v>
       </c>
       <c r="G33" t="n">
+        <v>43.92533333333335</v>
+      </c>
+      <c r="H33" t="n">
         <v>42.87483333333329</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1705,21 @@
         <v>6833.5019</v>
       </c>
       <c r="G34" t="n">
+        <v>43.86466666666669</v>
+      </c>
+      <c r="H34" t="n">
         <v>42.90633333333328</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1743,21 @@
         <v>20522.731</v>
       </c>
       <c r="G35" t="n">
+        <v>43.80066666666668</v>
+      </c>
+      <c r="H35" t="n">
         <v>42.94366666666661</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1781,21 @@
         <v>28.7844</v>
       </c>
       <c r="G36" t="n">
+        <v>43.74733333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>42.99483333333328</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1819,21 @@
         <v>2117.84</v>
       </c>
       <c r="G37" t="n">
+        <v>43.70533333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>43.05049999999995</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1857,21 @@
         <v>63249.5158</v>
       </c>
       <c r="G38" t="n">
+        <v>43.47200000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>43.03833333333328</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1895,21 @@
         <v>572</v>
       </c>
       <c r="G39" t="n">
+        <v>43.39866666666668</v>
+      </c>
+      <c r="H39" t="n">
         <v>43.06783333333328</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1933,21 @@
         <v>2926</v>
       </c>
       <c r="G40" t="n">
+        <v>43.32466666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>43.09699999999995</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1971,21 @@
         <v>996.4728</v>
       </c>
       <c r="G41" t="n">
+        <v>43.242</v>
+      </c>
+      <c r="H41" t="n">
         <v>43.12399999999995</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2009,21 @@
         <v>1276</v>
       </c>
       <c r="G42" t="n">
+        <v>43.15000000000001</v>
+      </c>
+      <c r="H42" t="n">
         <v>43.14866666666662</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2047,21 @@
         <v>1600</v>
       </c>
       <c r="G43" t="n">
+        <v>43.09400000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>43.18216666666662</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2085,21 @@
         <v>2908</v>
       </c>
       <c r="G44" t="n">
+        <v>43.03333333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>43.21283333333329</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2123,21 @@
         <v>4108</v>
       </c>
       <c r="G45" t="n">
+        <v>42.99266666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>43.2398333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2161,21 @@
         <v>2000</v>
       </c>
       <c r="G46" t="n">
+        <v>42.93533333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>43.2648333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2199,21 @@
         <v>1918</v>
       </c>
       <c r="G47" t="n">
+        <v>42.904</v>
+      </c>
+      <c r="H47" t="n">
         <v>43.2968333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2237,21 @@
         <v>209.6542378662714</v>
       </c>
       <c r="G48" t="n">
+        <v>42.87333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>43.32499999999997</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2275,21 @@
         <v>433</v>
       </c>
       <c r="G49" t="n">
+        <v>42.84333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>43.34083333333331</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2313,21 @@
         <v>618.121</v>
       </c>
       <c r="G50" t="n">
+        <v>42.83</v>
+      </c>
+      <c r="H50" t="n">
         <v>43.35816666666664</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2351,21 @@
         <v>529</v>
       </c>
       <c r="G51" t="n">
+        <v>42.808</v>
+      </c>
+      <c r="H51" t="n">
         <v>43.3693333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2389,21 @@
         <v>594.5454999999999</v>
       </c>
       <c r="G52" t="n">
+        <v>42.74933333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>43.3758333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,24 +2427,21 @@
         <v>4470</v>
       </c>
       <c r="G53" t="n">
+        <v>42.89466666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>43.38216666666663</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>42.69</v>
+        <v>0</v>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2274,22 +2465,21 @@
         <v>29547.4839</v>
       </c>
       <c r="G54" t="n">
+        <v>42.80866666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>43.37066666666662</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2313,24 +2503,21 @@
         <v>3316.275</v>
       </c>
       <c r="G55" t="n">
+        <v>42.74933333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>43.36716666666663</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>41.61</v>
+        <v>0</v>
       </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,24 +2541,21 @@
         <v>2671</v>
       </c>
       <c r="G56" t="n">
+        <v>42.76533333333332</v>
+      </c>
+      <c r="H56" t="n">
         <v>43.38033333333329</v>
       </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2395,24 +2579,21 @@
         <v>1255</v>
       </c>
       <c r="G57" t="n">
+        <v>42.77066666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>43.38849999999995</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2436,22 +2617,21 @@
         <v>850</v>
       </c>
       <c r="G58" t="n">
+        <v>42.76</v>
+      </c>
+      <c r="H58" t="n">
         <v>43.39833333333328</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2475,22 +2655,21 @@
         <v>13597.7597</v>
       </c>
       <c r="G59" t="n">
+        <v>42.72133333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>43.39166666666662</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,22 +2693,21 @@
         <v>1864</v>
       </c>
       <c r="G60" t="n">
+        <v>42.72933333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>43.38199999999995</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2553,22 +2731,21 @@
         <v>3065</v>
       </c>
       <c r="G61" t="n">
+        <v>42.70666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>43.36266666666662</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2592,22 +2769,21 @@
         <v>4969</v>
       </c>
       <c r="G62" t="n">
+        <v>42.68866666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>43.35149999999995</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2631,22 +2807,21 @@
         <v>4573</v>
       </c>
       <c r="G63" t="n">
+        <v>42.66866666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>43.33616666666661</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,22 +2845,21 @@
         <v>1319</v>
       </c>
       <c r="G64" t="n">
+        <v>42.64333333333332</v>
+      </c>
+      <c r="H64" t="n">
         <v>43.31949999999995</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2709,22 +2883,21 @@
         <v>1200</v>
       </c>
       <c r="G65" t="n">
+        <v>42.62666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>43.30666666666662</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2748,22 +2921,21 @@
         <v>2400</v>
       </c>
       <c r="G66" t="n">
+        <v>42.62199999999999</v>
+      </c>
+      <c r="H66" t="n">
         <v>43.29566666666662</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2787,22 +2959,21 @@
         <v>1378.1419</v>
       </c>
       <c r="G67" t="n">
+        <v>42.64666666666665</v>
+      </c>
+      <c r="H67" t="n">
         <v>43.28733333333329</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2826,22 +2997,21 @@
         <v>2400</v>
       </c>
       <c r="G68" t="n">
+        <v>42.648</v>
+      </c>
+      <c r="H68" t="n">
         <v>43.27299999999995</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2865,22 +3035,21 @@
         <v>800</v>
       </c>
       <c r="G69" t="n">
+        <v>42.73999999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>43.25783333333327</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2904,22 +3073,21 @@
         <v>46</v>
       </c>
       <c r="G70" t="n">
+        <v>42.806</v>
+      </c>
+      <c r="H70" t="n">
         <v>43.24099999999994</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2943,22 +3111,21 @@
         <v>100</v>
       </c>
       <c r="G71" t="n">
+        <v>42.746</v>
+      </c>
+      <c r="H71" t="n">
         <v>43.2091666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2982,22 +3149,21 @@
         <v>55</v>
       </c>
       <c r="G72" t="n">
+        <v>42.75866666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>43.1881666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,22 +3187,21 @@
         <v>1200</v>
       </c>
       <c r="G73" t="n">
+        <v>42.75199999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>43.16949999999993</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,22 +3225,21 @@
         <v>800</v>
       </c>
       <c r="G74" t="n">
+        <v>42.77733333333332</v>
+      </c>
+      <c r="H74" t="n">
         <v>43.15066666666659</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3099,22 +3263,21 @@
         <v>400</v>
       </c>
       <c r="G75" t="n">
+        <v>42.77799999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>43.13349999999992</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3138,22 +3301,21 @@
         <v>397</v>
       </c>
       <c r="G76" t="n">
+        <v>42.81733333333332</v>
+      </c>
+      <c r="H76" t="n">
         <v>43.11649999999991</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3177,22 +3339,21 @@
         <v>860.706</v>
       </c>
       <c r="G77" t="n">
+        <v>42.82399999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>43.09883333333324</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,22 +3377,21 @@
         <v>2909.43</v>
       </c>
       <c r="G78" t="n">
+        <v>42.84733333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>43.07866666666657</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3255,22 +3415,21 @@
         <v>6534.4675</v>
       </c>
       <c r="G79" t="n">
+        <v>42.87466666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>43.0564999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3294,22 +3453,21 @@
         <v>7818</v>
       </c>
       <c r="G80" t="n">
+        <v>42.888</v>
+      </c>
+      <c r="H80" t="n">
         <v>43.03633333333323</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3333,22 +3491,25 @@
         <v>155.809</v>
       </c>
       <c r="G81" t="n">
+        <v>42.894</v>
+      </c>
+      <c r="H81" t="n">
         <v>43.01783333333323</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="L81" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3372,22 +3533,29 @@
         <v>4696</v>
       </c>
       <c r="G82" t="n">
+        <v>42.88933333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>42.99766666666656</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="L82" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3411,22 +3579,29 @@
         <v>1870.645</v>
       </c>
       <c r="G83" t="n">
+        <v>42.94599999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>42.99016666666657</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="L83" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3450,22 +3625,27 @@
         <v>800</v>
       </c>
       <c r="G84" t="n">
+        <v>42.98199999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>42.98233333333324</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3489,22 +3669,27 @@
         <v>400</v>
       </c>
       <c r="G85" t="n">
+        <v>43.01799999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>42.97449999999991</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,22 +3713,27 @@
         <v>400</v>
       </c>
       <c r="G86" t="n">
+        <v>43.11333333333332</v>
+      </c>
+      <c r="H86" t="n">
         <v>42.96666666666658</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3567,22 +3757,27 @@
         <v>1200</v>
       </c>
       <c r="G87" t="n">
+        <v>43.15399999999998</v>
+      </c>
+      <c r="H87" t="n">
         <v>42.95833333333324</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3606,22 +3801,27 @@
         <v>1600</v>
       </c>
       <c r="G88" t="n">
+        <v>43.19333333333331</v>
+      </c>
+      <c r="H88" t="n">
         <v>42.94983333333325</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3645,22 +3845,27 @@
         <v>800</v>
       </c>
       <c r="G89" t="n">
+        <v>43.22999999999998</v>
+      </c>
+      <c r="H89" t="n">
         <v>42.94049999999991</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,22 +3889,27 @@
         <v>800</v>
       </c>
       <c r="G90" t="n">
+        <v>43.25933333333331</v>
+      </c>
+      <c r="H90" t="n">
         <v>42.93983333333325</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,22 +3933,27 @@
         <v>7263.1824</v>
       </c>
       <c r="G91" t="n">
+        <v>43.28199999999998</v>
+      </c>
+      <c r="H91" t="n">
         <v>42.93533333333325</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,22 +3977,29 @@
         <v>1086</v>
       </c>
       <c r="G92" t="n">
+        <v>43.30933333333331</v>
+      </c>
+      <c r="H92" t="n">
         <v>42.93149999999991</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="L92" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3801,22 +4023,29 @@
         <v>1200</v>
       </c>
       <c r="G93" t="n">
+        <v>43.33666666666664</v>
+      </c>
+      <c r="H93" t="n">
         <v>42.93149999999991</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="L93" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3840,22 +4069,29 @@
         <v>1042</v>
       </c>
       <c r="G94" t="n">
+        <v>43.3653333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>42.93166666666659</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="L94" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3879,22 +4115,29 @@
         <v>2400</v>
       </c>
       <c r="G95" t="n">
+        <v>43.39199999999997</v>
+      </c>
+      <c r="H95" t="n">
         <v>42.93416666666658</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="L95" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,22 +4161,29 @@
         <v>4734.191</v>
       </c>
       <c r="G96" t="n">
+        <v>43.42599999999997</v>
+      </c>
+      <c r="H96" t="n">
         <v>42.93749999999991</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="L96" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3957,22 +4207,29 @@
         <v>529</v>
       </c>
       <c r="G97" t="n">
+        <v>43.4593333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>42.93616666666658</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="L97" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3996,22 +4253,29 @@
         <v>562.799</v>
       </c>
       <c r="G98" t="n">
+        <v>43.45533333333331</v>
+      </c>
+      <c r="H98" t="n">
         <v>42.9859999999999</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="L98" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4035,22 +4299,27 @@
         <v>1979</v>
       </c>
       <c r="G99" t="n">
+        <v>43.4533333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>42.9959999999999</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4074,22 +4343,27 @@
         <v>5200</v>
       </c>
       <c r="G100" t="n">
+        <v>43.45533333333331</v>
+      </c>
+      <c r="H100" t="n">
         <v>43.00716666666657</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4113,22 +4387,27 @@
         <v>1145.680330187815</v>
       </c>
       <c r="G101" t="n">
+        <v>43.46399999999998</v>
+      </c>
+      <c r="H101" t="n">
         <v>43.02216666666656</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4152,22 +4431,27 @@
         <v>400</v>
       </c>
       <c r="G102" t="n">
+        <v>43.47466666666664</v>
+      </c>
+      <c r="H102" t="n">
         <v>43.0394999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4191,22 +4475,27 @@
         <v>5339.92</v>
       </c>
       <c r="G103" t="n">
+        <v>43.49533333333331</v>
+      </c>
+      <c r="H103" t="n">
         <v>43.05016666666656</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4230,22 +4519,27 @@
         <v>412.3902</v>
       </c>
       <c r="G104" t="n">
+        <v>43.47333333333331</v>
+      </c>
+      <c r="H104" t="n">
         <v>43.0504999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="L104" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4269,22 +4563,27 @@
         <v>412</v>
       </c>
       <c r="G105" t="n">
+        <v>43.48466666666665</v>
+      </c>
+      <c r="H105" t="n">
         <v>43.06283333333322</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="L105" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4308,22 +4607,27 @@
         <v>4194</v>
       </c>
       <c r="G106" t="n">
+        <v>43.50933333333332</v>
+      </c>
+      <c r="H106" t="n">
         <v>43.07883333333323</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="L106" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4347,22 +4651,27 @@
         <v>3947.3868</v>
       </c>
       <c r="G107" t="n">
+        <v>43.46399999999998</v>
+      </c>
+      <c r="H107" t="n">
         <v>43.07149999999989</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="L107" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,22 +4695,27 @@
         <v>7380</v>
       </c>
       <c r="G108" t="n">
+        <v>43.47733333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>43.08249999999989</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4425,22 +4739,27 @@
         <v>800</v>
       </c>
       <c r="G109" t="n">
+        <v>43.49066666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>43.09349999999989</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="L109" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4464,22 +4783,27 @@
         <v>1600</v>
       </c>
       <c r="G110" t="n">
+        <v>43.50333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>43.10249999999989</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="L110" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4503,22 +4827,27 @@
         <v>296.637</v>
       </c>
       <c r="G111" t="n">
+        <v>43.50866666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>43.11266666666656</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,22 +4871,27 @@
         <v>800</v>
       </c>
       <c r="G112" t="n">
+        <v>43.514</v>
+      </c>
+      <c r="H112" t="n">
         <v>43.12733333333323</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="L112" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4581,22 +4915,27 @@
         <v>1232.6</v>
       </c>
       <c r="G113" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="H113" t="n">
         <v>43.14233333333323</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="L113" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,22 +4959,27 @@
         <v>800</v>
       </c>
       <c r="G114" t="n">
+        <v>43.52533333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>43.17516666666656</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="L114" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4659,22 +5003,27 @@
         <v>933.359</v>
       </c>
       <c r="G115" t="n">
+        <v>43.52800000000001</v>
+      </c>
+      <c r="H115" t="n">
         <v>43.20183333333322</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="L115" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,22 +5047,27 @@
         <v>486.8366</v>
       </c>
       <c r="G116" t="n">
+        <v>43.52400000000001</v>
+      </c>
+      <c r="H116" t="n">
         <v>43.21183333333322</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,22 +5091,27 @@
         <v>1200</v>
       </c>
       <c r="G117" t="n">
+        <v>43.52000000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>43.22683333333323</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="L117" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4776,22 +5135,27 @@
         <v>3966.6052</v>
       </c>
       <c r="G118" t="n">
+        <v>43.50733333333335</v>
+      </c>
+      <c r="H118" t="n">
         <v>43.23699999999989</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="L118" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4815,22 +5179,27 @@
         <v>12.8236</v>
       </c>
       <c r="G119" t="n">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>43.25516666666656</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="L119" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4854,22 +5223,27 @@
         <v>2400</v>
       </c>
       <c r="G120" t="n">
+        <v>43.53933333333335</v>
+      </c>
+      <c r="H120" t="n">
         <v>43.26533333333323</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="L120" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,22 +5267,27 @@
         <v>1058</v>
       </c>
       <c r="G121" t="n">
+        <v>43.53266666666669</v>
+      </c>
+      <c r="H121" t="n">
         <v>43.28533333333323</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="L121" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4932,22 +5311,27 @@
         <v>800</v>
       </c>
       <c r="G122" t="n">
+        <v>43.59800000000002</v>
+      </c>
+      <c r="H122" t="n">
         <v>43.29883333333323</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="L122" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4971,22 +5355,27 @@
         <v>5576.8</v>
       </c>
       <c r="G123" t="n">
+        <v>43.60466666666669</v>
+      </c>
+      <c r="H123" t="n">
         <v>43.31649999999989</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="L123" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5010,22 +5399,467 @@
         <v>400</v>
       </c>
       <c r="G124" t="n">
+        <v>43.61800000000002</v>
+      </c>
+      <c r="H124" t="n">
         <v>43.33716666666656</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="L124" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G125" t="n">
+        <v>43.63266666666667</v>
+      </c>
+      <c r="H125" t="n">
+        <v>43.3539999999999</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C126" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="E126" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>12803.4011</v>
+      </c>
+      <c r="G126" t="n">
+        <v>43.60733333333334</v>
+      </c>
+      <c r="H126" t="n">
+        <v>43.3589999999999</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5542</v>
+      </c>
+      <c r="G127" t="n">
+        <v>43.58266666666668</v>
+      </c>
+      <c r="H127" t="n">
+        <v>43.36133333333323</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>43.55733333333334</v>
+      </c>
+      <c r="H128" t="n">
+        <v>43.36966666666656</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>43.53200000000001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>43.37316666666656</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C130" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3623</v>
+      </c>
+      <c r="G130" t="n">
+        <v>43.50533333333335</v>
+      </c>
+      <c r="H130" t="n">
+        <v>43.37666666666656</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C131" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3011</v>
+      </c>
+      <c r="G131" t="n">
+        <v>43.47866666666668</v>
+      </c>
+      <c r="H131" t="n">
+        <v>43.39499999999989</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2115.8333</v>
+      </c>
+      <c r="G132" t="n">
+        <v>43.45200000000001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>43.40016666666656</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>43.42533333333335</v>
+      </c>
+      <c r="H133" t="n">
+        <v>43.40533333333322</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G134" t="n">
+        <v>43.39933333333335</v>
+      </c>
+      <c r="H134" t="n">
+        <v>43.41066666666655</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest PAY.xlsx
+++ b/BackTest/2020-01-16 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>43.56</v>
+        <v>41.21</v>
       </c>
       <c r="C2" t="n">
-        <v>43.56</v>
+        <v>41.12</v>
       </c>
       <c r="D2" t="n">
-        <v>43.56</v>
+        <v>41.21</v>
       </c>
       <c r="E2" t="n">
-        <v>43.56</v>
+        <v>41.12</v>
       </c>
       <c r="F2" t="n">
-        <v>125.4279</v>
+        <v>2832.1357</v>
       </c>
       <c r="G2" t="n">
-        <v>42.47</v>
+        <v>81874.44195231787</v>
       </c>
       <c r="H2" t="n">
-        <v>41.68249999999998</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>43.56</v>
+        <v>41.12</v>
       </c>
       <c r="C3" t="n">
-        <v>43.56</v>
+        <v>41.5</v>
       </c>
       <c r="D3" t="n">
-        <v>43.56</v>
+        <v>41.5</v>
       </c>
       <c r="E3" t="n">
-        <v>43.56</v>
+        <v>41.12</v>
       </c>
       <c r="F3" t="n">
-        <v>209.0465</v>
+        <v>2800</v>
       </c>
       <c r="G3" t="n">
-        <v>42.624</v>
+        <v>84674.44195231787</v>
       </c>
       <c r="H3" t="n">
-        <v>41.70566666666664</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="L3" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>41.12</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +509,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>43.56</v>
+        <v>41.1</v>
       </c>
       <c r="C4" t="n">
-        <v>43.56</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>43.56</v>
+        <v>41.1</v>
       </c>
       <c r="E4" t="n">
-        <v>43.56</v>
+        <v>41</v>
       </c>
       <c r="F4" t="n">
-        <v>167.2372</v>
+        <v>1904.0781</v>
       </c>
       <c r="G4" t="n">
-        <v>42.72866666666665</v>
+        <v>82770.36385231787</v>
       </c>
       <c r="H4" t="n">
-        <v>41.72866666666664</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="M4" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +550,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43.56</v>
+        <v>40.34</v>
       </c>
       <c r="C5" t="n">
-        <v>43.56</v>
+        <v>40.23</v>
       </c>
       <c r="D5" t="n">
-        <v>43.56</v>
+        <v>40.34</v>
       </c>
       <c r="E5" t="n">
-        <v>43.56</v>
+        <v>40.23</v>
       </c>
       <c r="F5" t="n">
-        <v>459.9023</v>
+        <v>16686</v>
       </c>
       <c r="G5" t="n">
-        <v>42.83266666666665</v>
+        <v>66084.36385231787</v>
       </c>
       <c r="H5" t="n">
-        <v>41.7518333333333</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="L5" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="M5" t="inlineStr">
+        <v>41</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,40 +591,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43.56</v>
+        <v>40.23</v>
       </c>
       <c r="C6" t="n">
-        <v>43.56</v>
+        <v>40.23</v>
       </c>
       <c r="D6" t="n">
-        <v>43.56</v>
+        <v>40.23</v>
       </c>
       <c r="E6" t="n">
-        <v>43.56</v>
+        <v>40.1</v>
       </c>
       <c r="F6" t="n">
-        <v>41.8093</v>
+        <v>26652.7346</v>
       </c>
       <c r="G6" t="n">
-        <v>42.91666666666665</v>
+        <v>66084.36385231787</v>
       </c>
       <c r="H6" t="n">
-        <v>41.7753333333333</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="L6" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +632,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43.56</v>
+        <v>40.23</v>
       </c>
       <c r="C7" t="n">
-        <v>43.56</v>
+        <v>41.23</v>
       </c>
       <c r="D7" t="n">
-        <v>43.56</v>
+        <v>41.24</v>
       </c>
       <c r="E7" t="n">
-        <v>43.56</v>
+        <v>40.23</v>
       </c>
       <c r="F7" t="n">
-        <v>4398.0291</v>
+        <v>15285</v>
       </c>
       <c r="G7" t="n">
-        <v>43.00066666666665</v>
+        <v>81369.36385231787</v>
       </c>
       <c r="H7" t="n">
-        <v>41.80949999999996</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>40.23</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -696,42 +673,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.56</v>
+        <v>41.13</v>
       </c>
       <c r="C8" t="n">
-        <v>43.56</v>
+        <v>41.13</v>
       </c>
       <c r="D8" t="n">
-        <v>43.56</v>
+        <v>41.13</v>
       </c>
       <c r="E8" t="n">
-        <v>43.56</v>
+        <v>41.13</v>
       </c>
       <c r="F8" t="n">
-        <v>123.632</v>
+        <v>4699.253</v>
       </c>
       <c r="G8" t="n">
-        <v>43.08466666666665</v>
+        <v>76670.11085231787</v>
       </c>
       <c r="H8" t="n">
-        <v>41.8438333333333</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>41.23</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,36 +714,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.57</v>
+        <v>41.14</v>
       </c>
       <c r="C9" t="n">
-        <v>43.9</v>
+        <v>41.14</v>
       </c>
       <c r="D9" t="n">
-        <v>43.9</v>
+        <v>41.14</v>
       </c>
       <c r="E9" t="n">
-        <v>43.57</v>
+        <v>41.14</v>
       </c>
       <c r="F9" t="n">
-        <v>7533</v>
+        <v>110</v>
       </c>
       <c r="G9" t="n">
-        <v>43.19133333333332</v>
+        <v>76780.11085231787</v>
       </c>
       <c r="H9" t="n">
-        <v>41.86283333333329</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>41.13</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,36 +755,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>41.14</v>
       </c>
       <c r="C10" t="n">
-        <v>44</v>
+        <v>41.14</v>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>41.24</v>
       </c>
       <c r="E10" t="n">
-        <v>44</v>
+        <v>41.14</v>
       </c>
       <c r="F10" t="n">
-        <v>43486.651</v>
+        <v>2775</v>
       </c>
       <c r="G10" t="n">
-        <v>43.31066666666665</v>
+        <v>76780.11085231787</v>
       </c>
       <c r="H10" t="n">
-        <v>41.89949999999996</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.14</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -816,36 +796,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44.01</v>
+        <v>41.14</v>
       </c>
       <c r="C11" t="n">
-        <v>44.01</v>
+        <v>41.14</v>
       </c>
       <c r="D11" t="n">
-        <v>44.01</v>
+        <v>41.14</v>
       </c>
       <c r="E11" t="n">
-        <v>44.01</v>
+        <v>41.14</v>
       </c>
       <c r="F11" t="n">
-        <v>368.3802</v>
+        <v>38.0773</v>
       </c>
       <c r="G11" t="n">
-        <v>43.43066666666665</v>
+        <v>76780.11085231787</v>
       </c>
       <c r="H11" t="n">
-        <v>41.93799999999997</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -854,36 +835,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44.15</v>
+        <v>41.14</v>
       </c>
       <c r="C12" t="n">
-        <v>44.15</v>
+        <v>41.14</v>
       </c>
       <c r="D12" t="n">
-        <v>44.15</v>
+        <v>41.24</v>
       </c>
       <c r="E12" t="n">
-        <v>44.15</v>
+        <v>41.14</v>
       </c>
       <c r="F12" t="n">
-        <v>2935.43</v>
+        <v>1600</v>
       </c>
       <c r="G12" t="n">
-        <v>43.55999999999997</v>
+        <v>76780.11085231787</v>
       </c>
       <c r="H12" t="n">
-        <v>41.96716666666664</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -892,36 +874,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44.15</v>
+        <v>41.14</v>
       </c>
       <c r="C13" t="n">
-        <v>44.01</v>
+        <v>41.24</v>
       </c>
       <c r="D13" t="n">
-        <v>44.15</v>
+        <v>41.24</v>
       </c>
       <c r="E13" t="n">
-        <v>44.01</v>
+        <v>41.14</v>
       </c>
       <c r="F13" t="n">
-        <v>5309.283843035108</v>
+        <v>2161</v>
       </c>
       <c r="G13" t="n">
-        <v>43.66733333333331</v>
+        <v>78941.11085231787</v>
       </c>
       <c r="H13" t="n">
-        <v>42.01399999999997</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -930,36 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>44.01</v>
+        <v>41.24</v>
       </c>
       <c r="C14" t="n">
-        <v>44.01</v>
+        <v>41.24</v>
       </c>
       <c r="D14" t="n">
-        <v>44.01</v>
+        <v>41.24</v>
       </c>
       <c r="E14" t="n">
-        <v>44.01</v>
+        <v>41.24</v>
       </c>
       <c r="F14" t="n">
-        <v>5000</v>
+        <v>1564</v>
       </c>
       <c r="G14" t="n">
-        <v>43.74133333333331</v>
+        <v>78941.11085231787</v>
       </c>
       <c r="H14" t="n">
-        <v>42.05749999999998</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -968,36 +952,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>44.02</v>
+        <v>41.24</v>
       </c>
       <c r="C15" t="n">
-        <v>44.02</v>
+        <v>41.24</v>
       </c>
       <c r="D15" t="n">
-        <v>44.02</v>
+        <v>41.24</v>
       </c>
       <c r="E15" t="n">
-        <v>44.02</v>
+        <v>41.24</v>
       </c>
       <c r="F15" t="n">
-        <v>1057.214</v>
+        <v>8898.3385</v>
       </c>
       <c r="G15" t="n">
-        <v>43.77199999999998</v>
+        <v>78941.11085231787</v>
       </c>
       <c r="H15" t="n">
-        <v>42.09716666666665</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,36 +991,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>44.01</v>
+        <v>41.24</v>
       </c>
       <c r="C16" t="n">
-        <v>44.01</v>
+        <v>41.24</v>
       </c>
       <c r="D16" t="n">
-        <v>44.01</v>
+        <v>41.25</v>
       </c>
       <c r="E16" t="n">
-        <v>44.01</v>
+        <v>41.24</v>
       </c>
       <c r="F16" t="n">
-        <v>9366.672200000001</v>
+        <v>11342</v>
       </c>
       <c r="G16" t="n">
-        <v>43.80199999999999</v>
+        <v>78941.11085231787</v>
       </c>
       <c r="H16" t="n">
-        <v>42.13733333333332</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,36 +1030,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>44.05</v>
+        <v>41.24</v>
       </c>
       <c r="C17" t="n">
-        <v>44.05</v>
+        <v>41.25</v>
       </c>
       <c r="D17" t="n">
-        <v>44.05</v>
+        <v>41.25</v>
       </c>
       <c r="E17" t="n">
-        <v>44.05</v>
+        <v>41.24</v>
       </c>
       <c r="F17" t="n">
-        <v>400</v>
+        <v>11185</v>
       </c>
       <c r="G17" t="n">
-        <v>43.83466666666665</v>
+        <v>90126.11085231787</v>
       </c>
       <c r="H17" t="n">
-        <v>42.17816666666666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1082,36 +1069,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>44.2</v>
+        <v>41.25</v>
       </c>
       <c r="C18" t="n">
-        <v>44.2</v>
+        <v>41.99</v>
       </c>
       <c r="D18" t="n">
-        <v>44.2</v>
+        <v>41.99</v>
       </c>
       <c r="E18" t="n">
-        <v>44.2</v>
+        <v>41.25</v>
       </c>
       <c r="F18" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G18" t="n">
-        <v>43.87733333333333</v>
+        <v>90926.11085231787</v>
       </c>
       <c r="H18" t="n">
-        <v>42.22449999999998</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1120,36 +1108,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.2</v>
+        <v>42</v>
       </c>
       <c r="C19" t="n">
-        <v>44.3</v>
+        <v>42</v>
       </c>
       <c r="D19" t="n">
-        <v>44.3</v>
+        <v>42</v>
       </c>
       <c r="E19" t="n">
-        <v>44.2</v>
+        <v>42</v>
       </c>
       <c r="F19" t="n">
-        <v>800</v>
+        <v>97.59439999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>43.92666666666666</v>
+        <v>91023.70525231787</v>
       </c>
       <c r="H19" t="n">
-        <v>42.27249999999999</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1158,36 +1147,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.2</v>
+        <v>42.29</v>
       </c>
       <c r="C20" t="n">
-        <v>44.2</v>
+        <v>42.3</v>
       </c>
       <c r="D20" t="n">
-        <v>44.2</v>
+        <v>42.3</v>
       </c>
       <c r="E20" t="n">
-        <v>44.2</v>
+        <v>42.29</v>
       </c>
       <c r="F20" t="n">
-        <v>6253</v>
+        <v>32719.6802</v>
       </c>
       <c r="G20" t="n">
-        <v>43.96933333333333</v>
+        <v>123743.3854523179</v>
       </c>
       <c r="H20" t="n">
-        <v>42.32049999999997</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,36 +1186,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.3</v>
+        <v>42.3</v>
       </c>
       <c r="C21" t="n">
-        <v>44.1</v>
+        <v>42.3</v>
       </c>
       <c r="D21" t="n">
-        <v>44.41</v>
+        <v>42.3</v>
       </c>
       <c r="E21" t="n">
-        <v>44.1</v>
+        <v>42.3</v>
       </c>
       <c r="F21" t="n">
-        <v>11113.69</v>
+        <v>4758.5962</v>
       </c>
       <c r="G21" t="n">
-        <v>44.00533333333333</v>
+        <v>123743.3854523179</v>
       </c>
       <c r="H21" t="n">
-        <v>42.3668333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,36 +1225,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44.2</v>
+        <v>42.3</v>
       </c>
       <c r="C22" t="n">
-        <v>44.2</v>
+        <v>42.3</v>
       </c>
       <c r="D22" t="n">
-        <v>44.2</v>
+        <v>42.3</v>
       </c>
       <c r="E22" t="n">
-        <v>44.2</v>
+        <v>42.3</v>
       </c>
       <c r="F22" t="n">
-        <v>15165.2619</v>
+        <v>381.386</v>
       </c>
       <c r="G22" t="n">
-        <v>44.048</v>
+        <v>123743.3854523179</v>
       </c>
       <c r="H22" t="n">
-        <v>42.41516666666664</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1272,36 +1264,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>44.2</v>
+        <v>42.3</v>
       </c>
       <c r="C23" t="n">
-        <v>44</v>
+        <v>42.3</v>
       </c>
       <c r="D23" t="n">
-        <v>44.2</v>
+        <v>42.3</v>
       </c>
       <c r="E23" t="n">
-        <v>44</v>
+        <v>42.3</v>
       </c>
       <c r="F23" t="n">
-        <v>49912.6404</v>
+        <v>1355.7412</v>
       </c>
       <c r="G23" t="n">
-        <v>44.07733333333334</v>
+        <v>123743.3854523179</v>
       </c>
       <c r="H23" t="n">
-        <v>42.46016666666663</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1310,36 +1303,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>43.9</v>
+        <v>42.21</v>
       </c>
       <c r="C24" t="n">
-        <v>44</v>
+        <v>42.21</v>
       </c>
       <c r="D24" t="n">
-        <v>44</v>
+        <v>42.21</v>
       </c>
       <c r="E24" t="n">
-        <v>43.9</v>
+        <v>42.21</v>
       </c>
       <c r="F24" t="n">
-        <v>1308.6503</v>
+        <v>20139</v>
       </c>
       <c r="G24" t="n">
-        <v>44.08400000000001</v>
+        <v>103604.3854523179</v>
       </c>
       <c r="H24" t="n">
-        <v>42.50316666666663</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1348,36 +1342,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>44</v>
+        <v>42.21</v>
       </c>
       <c r="C25" t="n">
-        <v>44</v>
+        <v>42.21</v>
       </c>
       <c r="D25" t="n">
-        <v>44</v>
+        <v>42.21</v>
       </c>
       <c r="E25" t="n">
-        <v>44</v>
+        <v>42.21</v>
       </c>
       <c r="F25" t="n">
-        <v>13603.4422</v>
+        <v>1600</v>
       </c>
       <c r="G25" t="n">
-        <v>44.08400000000001</v>
+        <v>103604.3854523179</v>
       </c>
       <c r="H25" t="n">
-        <v>42.54483333333329</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,36 +1381,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>43.95</v>
+        <v>42.21</v>
       </c>
       <c r="C26" t="n">
-        <v>44</v>
+        <v>42.21</v>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>42.21</v>
       </c>
       <c r="E26" t="n">
-        <v>43.95</v>
+        <v>42.21</v>
       </c>
       <c r="F26" t="n">
-        <v>5959.936103349934</v>
+        <v>9000</v>
       </c>
       <c r="G26" t="n">
-        <v>44.08333333333334</v>
+        <v>103604.3854523179</v>
       </c>
       <c r="H26" t="n">
-        <v>42.58783333333329</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1424,36 +1420,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>44</v>
+        <v>42.21</v>
       </c>
       <c r="C27" t="n">
-        <v>44</v>
+        <v>42.4</v>
       </c>
       <c r="D27" t="n">
-        <v>44</v>
+        <v>42.4</v>
       </c>
       <c r="E27" t="n">
-        <v>44</v>
+        <v>42.21</v>
       </c>
       <c r="F27" t="n">
-        <v>2949.022727272727</v>
+        <v>313.62</v>
       </c>
       <c r="G27" t="n">
-        <v>44.07333333333334</v>
+        <v>103918.0054523179</v>
       </c>
       <c r="H27" t="n">
-        <v>42.63449999999997</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,36 +1459,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>43.99</v>
+        <v>42.4</v>
       </c>
       <c r="C28" t="n">
-        <v>43.99</v>
+        <v>42.9</v>
       </c>
       <c r="D28" t="n">
-        <v>43.99</v>
+        <v>42.9</v>
       </c>
       <c r="E28" t="n">
-        <v>43.99</v>
+        <v>42.4</v>
       </c>
       <c r="F28" t="n">
-        <v>4361.991361673107</v>
+        <v>22409.9085</v>
       </c>
       <c r="G28" t="n">
-        <v>44.07200000000001</v>
+        <v>126327.9139523179</v>
       </c>
       <c r="H28" t="n">
-        <v>42.68099999999996</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1500,36 +1498,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>43.99</v>
+        <v>42.9</v>
       </c>
       <c r="C29" t="n">
-        <v>43.99</v>
+        <v>43.56</v>
       </c>
       <c r="D29" t="n">
-        <v>43.99</v>
+        <v>43.56</v>
       </c>
       <c r="E29" t="n">
-        <v>43.99</v>
+        <v>42.9</v>
       </c>
       <c r="F29" t="n">
-        <v>233.5602</v>
+        <v>3844.9829</v>
       </c>
       <c r="G29" t="n">
-        <v>44.07066666666667</v>
+        <v>130172.8968523179</v>
       </c>
       <c r="H29" t="n">
-        <v>42.72616666666662</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1538,36 +1537,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>43.47</v>
+        <v>43.56</v>
       </c>
       <c r="C30" t="n">
-        <v>43.47</v>
+        <v>43.56</v>
       </c>
       <c r="D30" t="n">
-        <v>43.47</v>
+        <v>43.56</v>
       </c>
       <c r="E30" t="n">
-        <v>43.47</v>
+        <v>43.56</v>
       </c>
       <c r="F30" t="n">
-        <v>3514.9785</v>
+        <v>239.6097</v>
       </c>
       <c r="G30" t="n">
-        <v>44.03400000000001</v>
+        <v>130172.8968523179</v>
       </c>
       <c r="H30" t="n">
-        <v>42.76266666666662</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1576,36 +1576,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>43.6</v>
+        <v>43.56</v>
       </c>
       <c r="C31" t="n">
-        <v>43.6</v>
+        <v>43.56</v>
       </c>
       <c r="D31" t="n">
-        <v>43.6</v>
+        <v>43.56</v>
       </c>
       <c r="E31" t="n">
-        <v>43.6</v>
+        <v>43.56</v>
       </c>
       <c r="F31" t="n">
-        <v>527.1754</v>
+        <v>125.4279</v>
       </c>
       <c r="G31" t="n">
-        <v>44.00666666666668</v>
+        <v>130172.8968523179</v>
       </c>
       <c r="H31" t="n">
-        <v>42.80133333333328</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1614,36 +1615,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>43.63</v>
+        <v>43.56</v>
       </c>
       <c r="C32" t="n">
-        <v>43.63</v>
+        <v>43.56</v>
       </c>
       <c r="D32" t="n">
-        <v>43.63</v>
+        <v>43.56</v>
       </c>
       <c r="E32" t="n">
-        <v>43.63</v>
+        <v>43.56</v>
       </c>
       <c r="F32" t="n">
-        <v>9373.65</v>
+        <v>209.0465</v>
       </c>
       <c r="G32" t="n">
-        <v>43.97866666666668</v>
+        <v>130172.8968523179</v>
       </c>
       <c r="H32" t="n">
-        <v>42.83683333333328</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1652,36 +1654,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>43.41</v>
+        <v>43.56</v>
       </c>
       <c r="C33" t="n">
-        <v>43.4</v>
+        <v>43.56</v>
       </c>
       <c r="D33" t="n">
-        <v>43.41</v>
+        <v>43.56</v>
       </c>
       <c r="E33" t="n">
-        <v>43.4</v>
+        <v>43.56</v>
       </c>
       <c r="F33" t="n">
-        <v>4670.889</v>
+        <v>167.2372</v>
       </c>
       <c r="G33" t="n">
-        <v>43.92533333333335</v>
+        <v>130172.8968523179</v>
       </c>
       <c r="H33" t="n">
-        <v>42.87483333333329</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1690,36 +1693,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>43.4</v>
+        <v>43.56</v>
       </c>
       <c r="C34" t="n">
-        <v>43.39</v>
+        <v>43.56</v>
       </c>
       <c r="D34" t="n">
-        <v>43.4</v>
+        <v>43.56</v>
       </c>
       <c r="E34" t="n">
-        <v>43.39</v>
+        <v>43.56</v>
       </c>
       <c r="F34" t="n">
-        <v>6833.5019</v>
+        <v>459.9023</v>
       </c>
       <c r="G34" t="n">
-        <v>43.86466666666669</v>
+        <v>130172.8968523179</v>
       </c>
       <c r="H34" t="n">
-        <v>42.90633333333328</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,36 +1732,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>43.79</v>
+        <v>43.56</v>
       </c>
       <c r="C35" t="n">
-        <v>43.24</v>
+        <v>43.56</v>
       </c>
       <c r="D35" t="n">
-        <v>43.79</v>
+        <v>43.56</v>
       </c>
       <c r="E35" t="n">
-        <v>43.24</v>
+        <v>43.56</v>
       </c>
       <c r="F35" t="n">
-        <v>20522.731</v>
+        <v>41.8093</v>
       </c>
       <c r="G35" t="n">
-        <v>43.80066666666668</v>
+        <v>130172.8968523179</v>
       </c>
       <c r="H35" t="n">
-        <v>42.94366666666661</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1766,36 +1771,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>43.3</v>
+        <v>43.56</v>
       </c>
       <c r="C36" t="n">
-        <v>43.3</v>
+        <v>43.56</v>
       </c>
       <c r="D36" t="n">
-        <v>43.3</v>
+        <v>43.56</v>
       </c>
       <c r="E36" t="n">
-        <v>43.3</v>
+        <v>43.56</v>
       </c>
       <c r="F36" t="n">
-        <v>28.7844</v>
+        <v>4398.0291</v>
       </c>
       <c r="G36" t="n">
-        <v>43.74733333333334</v>
+        <v>130172.8968523179</v>
       </c>
       <c r="H36" t="n">
-        <v>42.99483333333328</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,36 +1810,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>43.57</v>
+        <v>43.56</v>
       </c>
       <c r="C37" t="n">
-        <v>43.57</v>
+        <v>43.56</v>
       </c>
       <c r="D37" t="n">
-        <v>43.57</v>
+        <v>43.56</v>
       </c>
       <c r="E37" t="n">
-        <v>43.57</v>
+        <v>43.56</v>
       </c>
       <c r="F37" t="n">
-        <v>2117.84</v>
+        <v>123.632</v>
       </c>
       <c r="G37" t="n">
-        <v>43.70533333333334</v>
+        <v>130172.8968523179</v>
       </c>
       <c r="H37" t="n">
-        <v>43.05049999999995</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,36 +1849,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>42.82</v>
+        <v>43.57</v>
       </c>
       <c r="C38" t="n">
-        <v>40.5</v>
+        <v>43.9</v>
       </c>
       <c r="D38" t="n">
-        <v>42.82</v>
+        <v>43.9</v>
       </c>
       <c r="E38" t="n">
-        <v>40.5</v>
+        <v>43.57</v>
       </c>
       <c r="F38" t="n">
-        <v>63249.5158</v>
+        <v>7533</v>
       </c>
       <c r="G38" t="n">
-        <v>43.47200000000001</v>
+        <v>137705.8968523179</v>
       </c>
       <c r="H38" t="n">
-        <v>43.03833333333328</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1880,36 +1888,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>42.9</v>
+        <v>44</v>
       </c>
       <c r="C39" t="n">
-        <v>42.9</v>
+        <v>44</v>
       </c>
       <c r="D39" t="n">
-        <v>42.9</v>
+        <v>44</v>
       </c>
       <c r="E39" t="n">
-        <v>42.9</v>
+        <v>44</v>
       </c>
       <c r="F39" t="n">
-        <v>572</v>
+        <v>43486.651</v>
       </c>
       <c r="G39" t="n">
-        <v>43.39866666666668</v>
+        <v>181192.5478523179</v>
       </c>
       <c r="H39" t="n">
-        <v>43.06783333333328</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,36 +1927,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>42.6</v>
+        <v>44.01</v>
       </c>
       <c r="C40" t="n">
-        <v>42.89</v>
+        <v>44.01</v>
       </c>
       <c r="D40" t="n">
-        <v>42.89</v>
+        <v>44.01</v>
       </c>
       <c r="E40" t="n">
-        <v>42.6</v>
+        <v>44.01</v>
       </c>
       <c r="F40" t="n">
-        <v>2926</v>
+        <v>368.3802</v>
       </c>
       <c r="G40" t="n">
-        <v>43.32466666666667</v>
+        <v>181560.9280523179</v>
       </c>
       <c r="H40" t="n">
-        <v>43.09699999999995</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1956,36 +1966,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>42.52</v>
+        <v>44.15</v>
       </c>
       <c r="C41" t="n">
-        <v>42.76</v>
+        <v>44.15</v>
       </c>
       <c r="D41" t="n">
-        <v>42.76</v>
+        <v>44.15</v>
       </c>
       <c r="E41" t="n">
-        <v>42.52</v>
+        <v>44.15</v>
       </c>
       <c r="F41" t="n">
-        <v>996.4728</v>
+        <v>2935.43</v>
       </c>
       <c r="G41" t="n">
-        <v>43.242</v>
+        <v>184496.3580523179</v>
       </c>
       <c r="H41" t="n">
-        <v>43.12399999999995</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1994,36 +2005,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>42.63</v>
+        <v>44.15</v>
       </c>
       <c r="C42" t="n">
-        <v>42.62</v>
+        <v>44.01</v>
       </c>
       <c r="D42" t="n">
-        <v>42.85</v>
+        <v>44.15</v>
       </c>
       <c r="E42" t="n">
-        <v>42.62</v>
+        <v>44.01</v>
       </c>
       <c r="F42" t="n">
-        <v>1276</v>
+        <v>5309.283843035108</v>
       </c>
       <c r="G42" t="n">
-        <v>43.15000000000001</v>
+        <v>179187.0742092828</v>
       </c>
       <c r="H42" t="n">
-        <v>43.14866666666662</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2032,36 +2044,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>42.77</v>
+        <v>44.01</v>
       </c>
       <c r="C43" t="n">
-        <v>43.15</v>
+        <v>44.01</v>
       </c>
       <c r="D43" t="n">
-        <v>43.15</v>
+        <v>44.01</v>
       </c>
       <c r="E43" t="n">
-        <v>42.76</v>
+        <v>44.01</v>
       </c>
       <c r="F43" t="n">
-        <v>1600</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="n">
-        <v>43.09400000000001</v>
+        <v>179187.0742092828</v>
       </c>
       <c r="H43" t="n">
-        <v>43.18216666666662</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2070,36 +2083,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>42.76</v>
+        <v>44.02</v>
       </c>
       <c r="C44" t="n">
-        <v>43.08</v>
+        <v>44.02</v>
       </c>
       <c r="D44" t="n">
-        <v>43.08</v>
+        <v>44.02</v>
       </c>
       <c r="E44" t="n">
-        <v>42.75</v>
+        <v>44.02</v>
       </c>
       <c r="F44" t="n">
-        <v>2908</v>
+        <v>1057.214</v>
       </c>
       <c r="G44" t="n">
-        <v>43.03333333333334</v>
+        <v>180244.2882092828</v>
       </c>
       <c r="H44" t="n">
-        <v>43.21283333333329</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2108,36 +2122,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>42.86</v>
+        <v>44.01</v>
       </c>
       <c r="C45" t="n">
-        <v>42.86</v>
+        <v>44.01</v>
       </c>
       <c r="D45" t="n">
-        <v>42.88</v>
+        <v>44.01</v>
       </c>
       <c r="E45" t="n">
-        <v>42.86</v>
+        <v>44.01</v>
       </c>
       <c r="F45" t="n">
-        <v>4108</v>
+        <v>9366.672200000001</v>
       </c>
       <c r="G45" t="n">
-        <v>42.99266666666667</v>
+        <v>170877.6160092828</v>
       </c>
       <c r="H45" t="n">
-        <v>43.2398333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,36 +2161,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>42.74</v>
+        <v>44.05</v>
       </c>
       <c r="C46" t="n">
-        <v>42.74</v>
+        <v>44.05</v>
       </c>
       <c r="D46" t="n">
-        <v>42.74</v>
+        <v>44.05</v>
       </c>
       <c r="E46" t="n">
-        <v>42.74</v>
+        <v>44.05</v>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="G46" t="n">
-        <v>42.93533333333334</v>
+        <v>171277.6160092828</v>
       </c>
       <c r="H46" t="n">
-        <v>43.2648333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2184,36 +2200,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>42.74</v>
+        <v>44.2</v>
       </c>
       <c r="C47" t="n">
-        <v>43.16</v>
+        <v>44.2</v>
       </c>
       <c r="D47" t="n">
-        <v>43.16</v>
+        <v>44.2</v>
       </c>
       <c r="E47" t="n">
-        <v>42.74</v>
+        <v>44.2</v>
       </c>
       <c r="F47" t="n">
-        <v>1918</v>
+        <v>400</v>
       </c>
       <c r="G47" t="n">
-        <v>42.904</v>
+        <v>171677.6160092828</v>
       </c>
       <c r="H47" t="n">
-        <v>43.2968333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2222,74 +2239,70 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>43.04</v>
+        <v>44.2</v>
       </c>
       <c r="C48" t="n">
-        <v>42.94</v>
+        <v>44.3</v>
       </c>
       <c r="D48" t="n">
-        <v>43.04</v>
+        <v>44.3</v>
       </c>
       <c r="E48" t="n">
-        <v>42.94</v>
+        <v>44.2</v>
       </c>
       <c r="F48" t="n">
-        <v>209.6542378662714</v>
+        <v>800</v>
       </c>
       <c r="G48" t="n">
-        <v>42.87333333333333</v>
+        <v>172477.6160092828</v>
       </c>
       <c r="H48" t="n">
-        <v>43.32499999999997</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>42.94</v>
+        <v>44.2</v>
       </c>
       <c r="C49" t="n">
-        <v>42.94</v>
+        <v>44.2</v>
       </c>
       <c r="D49" t="n">
-        <v>42.94</v>
+        <v>44.2</v>
       </c>
       <c r="E49" t="n">
-        <v>42.94</v>
+        <v>44.2</v>
       </c>
       <c r="F49" t="n">
-        <v>433</v>
+        <v>6253</v>
       </c>
       <c r="G49" t="n">
-        <v>42.84333333333333</v>
+        <v>166224.6160092828</v>
       </c>
       <c r="H49" t="n">
-        <v>43.34083333333331</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2298,36 +2311,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>43.04</v>
+        <v>44.3</v>
       </c>
       <c r="C50" t="n">
-        <v>43.04</v>
+        <v>44.1</v>
       </c>
       <c r="D50" t="n">
-        <v>43.04</v>
+        <v>44.41</v>
       </c>
       <c r="E50" t="n">
-        <v>43.04</v>
+        <v>44.1</v>
       </c>
       <c r="F50" t="n">
-        <v>618.121</v>
+        <v>11113.69</v>
       </c>
       <c r="G50" t="n">
-        <v>42.83</v>
+        <v>155110.9260092828</v>
       </c>
       <c r="H50" t="n">
-        <v>43.35816666666664</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2336,36 +2346,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>42.97</v>
+        <v>44.2</v>
       </c>
       <c r="C51" t="n">
-        <v>42.97</v>
+        <v>44.2</v>
       </c>
       <c r="D51" t="n">
-        <v>42.97</v>
+        <v>44.2</v>
       </c>
       <c r="E51" t="n">
-        <v>42.97</v>
+        <v>44.2</v>
       </c>
       <c r="F51" t="n">
-        <v>529</v>
+        <v>15165.2619</v>
       </c>
       <c r="G51" t="n">
-        <v>42.808</v>
+        <v>170276.1879092828</v>
       </c>
       <c r="H51" t="n">
-        <v>43.3693333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2374,36 +2381,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>42.69</v>
+        <v>44.2</v>
       </c>
       <c r="C52" t="n">
-        <v>42.69</v>
+        <v>44</v>
       </c>
       <c r="D52" t="n">
-        <v>42.69</v>
+        <v>44.2</v>
       </c>
       <c r="E52" t="n">
-        <v>42.69</v>
+        <v>44</v>
       </c>
       <c r="F52" t="n">
-        <v>594.5454999999999</v>
+        <v>49912.6404</v>
       </c>
       <c r="G52" t="n">
-        <v>42.74933333333333</v>
+        <v>120363.5475092828</v>
       </c>
       <c r="H52" t="n">
-        <v>43.3758333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2412,36 +2416,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>42.58</v>
+        <v>43.9</v>
       </c>
       <c r="C53" t="n">
-        <v>42.68</v>
+        <v>44</v>
       </c>
       <c r="D53" t="n">
-        <v>42.68</v>
+        <v>44</v>
       </c>
       <c r="E53" t="n">
-        <v>42.57</v>
+        <v>43.9</v>
       </c>
       <c r="F53" t="n">
-        <v>4470</v>
+        <v>1308.6503</v>
       </c>
       <c r="G53" t="n">
-        <v>42.89466666666666</v>
+        <v>120363.5475092828</v>
       </c>
       <c r="H53" t="n">
-        <v>43.38216666666663</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2450,36 +2451,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>42.6</v>
+        <v>44</v>
       </c>
       <c r="C54" t="n">
-        <v>41.61</v>
+        <v>44</v>
       </c>
       <c r="D54" t="n">
-        <v>42.6</v>
+        <v>44</v>
       </c>
       <c r="E54" t="n">
-        <v>41.61</v>
+        <v>44</v>
       </c>
       <c r="F54" t="n">
-        <v>29547.4839</v>
+        <v>13603.4422</v>
       </c>
       <c r="G54" t="n">
-        <v>42.80866666666666</v>
+        <v>120363.5475092828</v>
       </c>
       <c r="H54" t="n">
-        <v>43.37066666666662</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,36 +2486,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>42</v>
+        <v>43.95</v>
       </c>
       <c r="C55" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E55" t="n">
-        <v>42</v>
+        <v>43.95</v>
       </c>
       <c r="F55" t="n">
-        <v>3316.275</v>
+        <v>5959.936103349934</v>
       </c>
       <c r="G55" t="n">
-        <v>42.74933333333333</v>
+        <v>120363.5475092828</v>
       </c>
       <c r="H55" t="n">
-        <v>43.36716666666663</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,36 +2521,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>42.6</v>
+        <v>44</v>
       </c>
       <c r="C56" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D56" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E56" t="n">
-        <v>42.6</v>
+        <v>44</v>
       </c>
       <c r="F56" t="n">
-        <v>2671</v>
+        <v>2949.022727272727</v>
       </c>
       <c r="G56" t="n">
-        <v>42.76533333333332</v>
+        <v>120363.5475092828</v>
       </c>
       <c r="H56" t="n">
-        <v>43.38033333333329</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,36 +2556,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>42.99</v>
+        <v>43.99</v>
       </c>
       <c r="C57" t="n">
-        <v>42.7</v>
+        <v>43.99</v>
       </c>
       <c r="D57" t="n">
-        <v>42.99</v>
+        <v>43.99</v>
       </c>
       <c r="E57" t="n">
-        <v>42.7</v>
+        <v>43.99</v>
       </c>
       <c r="F57" t="n">
-        <v>1255</v>
+        <v>4361.991361673107</v>
       </c>
       <c r="G57" t="n">
-        <v>42.77066666666666</v>
+        <v>116001.5561476097</v>
       </c>
       <c r="H57" t="n">
-        <v>43.38849999999995</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2602,36 +2591,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>42.7</v>
+        <v>43.99</v>
       </c>
       <c r="C58" t="n">
-        <v>42.99</v>
+        <v>43.99</v>
       </c>
       <c r="D58" t="n">
-        <v>42.99</v>
+        <v>43.99</v>
       </c>
       <c r="E58" t="n">
-        <v>42.7</v>
+        <v>43.99</v>
       </c>
       <c r="F58" t="n">
-        <v>850</v>
+        <v>233.5602</v>
       </c>
       <c r="G58" t="n">
-        <v>42.76</v>
+        <v>116001.5561476097</v>
       </c>
       <c r="H58" t="n">
-        <v>43.39833333333328</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2640,36 +2626,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>42.2</v>
+        <v>43.47</v>
       </c>
       <c r="C59" t="n">
-        <v>42.5</v>
+        <v>43.47</v>
       </c>
       <c r="D59" t="n">
-        <v>42.7</v>
+        <v>43.47</v>
       </c>
       <c r="E59" t="n">
-        <v>42.1</v>
+        <v>43.47</v>
       </c>
       <c r="F59" t="n">
-        <v>13597.7597</v>
+        <v>3514.9785</v>
       </c>
       <c r="G59" t="n">
-        <v>42.72133333333333</v>
+        <v>112486.5776476097</v>
       </c>
       <c r="H59" t="n">
-        <v>43.39166666666662</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2678,36 +2661,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>42.4</v>
+        <v>43.6</v>
       </c>
       <c r="C60" t="n">
-        <v>42.98</v>
+        <v>43.6</v>
       </c>
       <c r="D60" t="n">
-        <v>42.98</v>
+        <v>43.6</v>
       </c>
       <c r="E60" t="n">
-        <v>42.4</v>
+        <v>43.6</v>
       </c>
       <c r="F60" t="n">
-        <v>1864</v>
+        <v>527.1754</v>
       </c>
       <c r="G60" t="n">
-        <v>42.72933333333333</v>
+        <v>113013.7530476097</v>
       </c>
       <c r="H60" t="n">
-        <v>43.38199999999995</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2716,36 +2696,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>42.5</v>
+        <v>43.63</v>
       </c>
       <c r="C61" t="n">
-        <v>42.4</v>
+        <v>43.63</v>
       </c>
       <c r="D61" t="n">
-        <v>42.5</v>
+        <v>43.63</v>
       </c>
       <c r="E61" t="n">
-        <v>42.3</v>
+        <v>43.63</v>
       </c>
       <c r="F61" t="n">
-        <v>3065</v>
+        <v>9373.65</v>
       </c>
       <c r="G61" t="n">
-        <v>42.70666666666666</v>
+        <v>122387.4030476097</v>
       </c>
       <c r="H61" t="n">
-        <v>43.36266666666662</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2754,36 +2731,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>42.4</v>
+        <v>43.41</v>
       </c>
       <c r="C62" t="n">
-        <v>42.89</v>
+        <v>43.4</v>
       </c>
       <c r="D62" t="n">
-        <v>43</v>
+        <v>43.41</v>
       </c>
       <c r="E62" t="n">
-        <v>42.4</v>
+        <v>43.4</v>
       </c>
       <c r="F62" t="n">
-        <v>4969</v>
+        <v>4670.889</v>
       </c>
       <c r="G62" t="n">
-        <v>42.68866666666666</v>
+        <v>117716.5140476097</v>
       </c>
       <c r="H62" t="n">
-        <v>43.35149999999995</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,36 +2766,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>42.85</v>
+        <v>43.4</v>
       </c>
       <c r="C63" t="n">
-        <v>42.64</v>
+        <v>43.39</v>
       </c>
       <c r="D63" t="n">
-        <v>43.07</v>
+        <v>43.4</v>
       </c>
       <c r="E63" t="n">
-        <v>42.64</v>
+        <v>43.39</v>
       </c>
       <c r="F63" t="n">
-        <v>4573</v>
+        <v>6833.5019</v>
       </c>
       <c r="G63" t="n">
-        <v>42.66866666666667</v>
+        <v>110883.0121476097</v>
       </c>
       <c r="H63" t="n">
-        <v>43.33616666666661</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2830,36 +2801,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>42.57</v>
+        <v>43.79</v>
       </c>
       <c r="C64" t="n">
-        <v>42.56</v>
+        <v>43.24</v>
       </c>
       <c r="D64" t="n">
-        <v>42.78</v>
+        <v>43.79</v>
       </c>
       <c r="E64" t="n">
-        <v>42.56</v>
+        <v>43.24</v>
       </c>
       <c r="F64" t="n">
-        <v>1319</v>
+        <v>20522.731</v>
       </c>
       <c r="G64" t="n">
-        <v>42.64333333333332</v>
+        <v>90360.28114760965</v>
       </c>
       <c r="H64" t="n">
-        <v>43.31949999999995</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2868,36 +2836,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>42.66</v>
+        <v>43.3</v>
       </c>
       <c r="C65" t="n">
-        <v>42.79</v>
+        <v>43.3</v>
       </c>
       <c r="D65" t="n">
-        <v>42.89</v>
+        <v>43.3</v>
       </c>
       <c r="E65" t="n">
-        <v>42.66</v>
+        <v>43.3</v>
       </c>
       <c r="F65" t="n">
-        <v>1200</v>
+        <v>28.7844</v>
       </c>
       <c r="G65" t="n">
-        <v>42.62666666666666</v>
+        <v>90389.06554760966</v>
       </c>
       <c r="H65" t="n">
-        <v>43.30666666666662</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2906,36 +2871,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>43.08</v>
+        <v>43.57</v>
       </c>
       <c r="C66" t="n">
-        <v>42.9</v>
+        <v>43.57</v>
       </c>
       <c r="D66" t="n">
-        <v>43.08</v>
+        <v>43.57</v>
       </c>
       <c r="E66" t="n">
-        <v>42.89</v>
+        <v>43.57</v>
       </c>
       <c r="F66" t="n">
-        <v>2400</v>
+        <v>2117.84</v>
       </c>
       <c r="G66" t="n">
-        <v>42.62199999999999</v>
+        <v>92506.90554760965</v>
       </c>
       <c r="H66" t="n">
-        <v>43.29566666666662</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,36 +2906,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>42.1</v>
+        <v>42.82</v>
       </c>
       <c r="C67" t="n">
-        <v>43.06</v>
+        <v>40.5</v>
       </c>
       <c r="D67" t="n">
-        <v>43.06</v>
+        <v>42.82</v>
       </c>
       <c r="E67" t="n">
-        <v>42.1</v>
+        <v>40.5</v>
       </c>
       <c r="F67" t="n">
-        <v>1378.1419</v>
+        <v>63249.5158</v>
       </c>
       <c r="G67" t="n">
-        <v>42.64666666666665</v>
+        <v>29257.38974760965</v>
       </c>
       <c r="H67" t="n">
-        <v>43.28733333333329</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2982,36 +2941,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>42.6</v>
+        <v>42.9</v>
       </c>
       <c r="C68" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="D68" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="E68" t="n">
-        <v>42.59</v>
+        <v>42.9</v>
       </c>
       <c r="F68" t="n">
-        <v>2400</v>
+        <v>572</v>
       </c>
       <c r="G68" t="n">
-        <v>42.648</v>
+        <v>29829.38974760965</v>
       </c>
       <c r="H68" t="n">
-        <v>43.27299999999995</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,36 +2976,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>42.99</v>
+        <v>42.6</v>
       </c>
       <c r="C69" t="n">
-        <v>42.99</v>
+        <v>42.89</v>
       </c>
       <c r="D69" t="n">
-        <v>42.99</v>
+        <v>42.89</v>
       </c>
       <c r="E69" t="n">
-        <v>42.99</v>
+        <v>42.6</v>
       </c>
       <c r="F69" t="n">
-        <v>800</v>
+        <v>2926</v>
       </c>
       <c r="G69" t="n">
-        <v>42.73999999999999</v>
+        <v>26903.38974760965</v>
       </c>
       <c r="H69" t="n">
-        <v>43.25783333333327</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,36 +3011,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>42.99</v>
+        <v>42.52</v>
       </c>
       <c r="C70" t="n">
-        <v>42.99</v>
+        <v>42.76</v>
       </c>
       <c r="D70" t="n">
-        <v>42.99</v>
+        <v>42.76</v>
       </c>
       <c r="E70" t="n">
-        <v>42.99</v>
+        <v>42.52</v>
       </c>
       <c r="F70" t="n">
-        <v>46</v>
+        <v>996.4728</v>
       </c>
       <c r="G70" t="n">
-        <v>42.806</v>
+        <v>25906.91694760965</v>
       </c>
       <c r="H70" t="n">
-        <v>43.24099999999994</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3096,36 +3046,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>42.1</v>
+        <v>42.63</v>
       </c>
       <c r="C71" t="n">
-        <v>42.1</v>
+        <v>42.62</v>
       </c>
       <c r="D71" t="n">
-        <v>42.1</v>
+        <v>42.85</v>
       </c>
       <c r="E71" t="n">
-        <v>42.1</v>
+        <v>42.62</v>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>1276</v>
       </c>
       <c r="G71" t="n">
-        <v>42.746</v>
+        <v>24630.91694760965</v>
       </c>
       <c r="H71" t="n">
-        <v>43.2091666666666</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,36 +3081,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>42.89</v>
+        <v>42.77</v>
       </c>
       <c r="C72" t="n">
-        <v>42.89</v>
+        <v>43.15</v>
       </c>
       <c r="D72" t="n">
-        <v>42.89</v>
+        <v>43.15</v>
       </c>
       <c r="E72" t="n">
-        <v>42.89</v>
+        <v>42.76</v>
       </c>
       <c r="F72" t="n">
-        <v>55</v>
+        <v>1600</v>
       </c>
       <c r="G72" t="n">
-        <v>42.75866666666666</v>
+        <v>26230.91694760965</v>
       </c>
       <c r="H72" t="n">
-        <v>43.1881666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3172,36 +3116,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>42.89</v>
+        <v>42.76</v>
       </c>
       <c r="C73" t="n">
-        <v>42.89</v>
+        <v>43.08</v>
       </c>
       <c r="D73" t="n">
-        <v>42.89</v>
+        <v>43.08</v>
       </c>
       <c r="E73" t="n">
-        <v>42.89</v>
+        <v>42.75</v>
       </c>
       <c r="F73" t="n">
-        <v>1200</v>
+        <v>2908</v>
       </c>
       <c r="G73" t="n">
-        <v>42.75199999999999</v>
+        <v>23322.91694760965</v>
       </c>
       <c r="H73" t="n">
-        <v>43.16949999999993</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3210,36 +3151,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>42.89</v>
+        <v>42.86</v>
       </c>
       <c r="C74" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="D74" t="n">
         <v>42.88</v>
       </c>
-      <c r="D74" t="n">
-        <v>42.89</v>
-      </c>
       <c r="E74" t="n">
-        <v>42.88</v>
+        <v>42.86</v>
       </c>
       <c r="F74" t="n">
-        <v>800</v>
+        <v>4108</v>
       </c>
       <c r="G74" t="n">
-        <v>42.77733333333332</v>
+        <v>19214.91694760965</v>
       </c>
       <c r="H74" t="n">
-        <v>43.15066666666659</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,36 +3186,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>42.9</v>
+        <v>42.74</v>
       </c>
       <c r="C75" t="n">
-        <v>42.99</v>
+        <v>42.74</v>
       </c>
       <c r="D75" t="n">
-        <v>42.99</v>
+        <v>42.74</v>
       </c>
       <c r="E75" t="n">
-        <v>42.9</v>
+        <v>42.74</v>
       </c>
       <c r="F75" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="G75" t="n">
-        <v>42.77799999999999</v>
+        <v>17214.91694760965</v>
       </c>
       <c r="H75" t="n">
-        <v>43.13349999999992</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,36 +3221,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>42.99</v>
+        <v>42.74</v>
       </c>
       <c r="C76" t="n">
-        <v>42.99</v>
+        <v>43.16</v>
       </c>
       <c r="D76" t="n">
-        <v>42.99</v>
+        <v>43.16</v>
       </c>
       <c r="E76" t="n">
-        <v>42.99</v>
+        <v>42.74</v>
       </c>
       <c r="F76" t="n">
-        <v>397</v>
+        <v>1918</v>
       </c>
       <c r="G76" t="n">
-        <v>42.81733333333332</v>
+        <v>19132.91694760965</v>
       </c>
       <c r="H76" t="n">
-        <v>43.11649999999991</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3324,36 +3256,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>42.99</v>
+        <v>43.04</v>
       </c>
       <c r="C77" t="n">
-        <v>42.99</v>
+        <v>42.94</v>
       </c>
       <c r="D77" t="n">
-        <v>42.99</v>
+        <v>43.04</v>
       </c>
       <c r="E77" t="n">
-        <v>42.99</v>
+        <v>42.94</v>
       </c>
       <c r="F77" t="n">
-        <v>860.706</v>
+        <v>209.6542378662714</v>
       </c>
       <c r="G77" t="n">
-        <v>42.82399999999999</v>
+        <v>18923.26270974338</v>
       </c>
       <c r="H77" t="n">
-        <v>43.09883333333324</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3362,36 +3291,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>42.51</v>
+        <v>42.94</v>
       </c>
       <c r="C78" t="n">
-        <v>42.99</v>
+        <v>42.94</v>
       </c>
       <c r="D78" t="n">
-        <v>42.99</v>
+        <v>42.94</v>
       </c>
       <c r="E78" t="n">
-        <v>42.51</v>
+        <v>42.94</v>
       </c>
       <c r="F78" t="n">
-        <v>2909.43</v>
+        <v>433</v>
       </c>
       <c r="G78" t="n">
-        <v>42.84733333333333</v>
+        <v>18923.26270974338</v>
       </c>
       <c r="H78" t="n">
-        <v>43.07866666666657</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3400,36 +3326,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>42.3</v>
+        <v>43.04</v>
       </c>
       <c r="C79" t="n">
-        <v>42.97</v>
+        <v>43.04</v>
       </c>
       <c r="D79" t="n">
-        <v>42.98</v>
+        <v>43.04</v>
       </c>
       <c r="E79" t="n">
-        <v>42.3</v>
+        <v>43.04</v>
       </c>
       <c r="F79" t="n">
-        <v>6534.4675</v>
+        <v>618.121</v>
       </c>
       <c r="G79" t="n">
-        <v>42.87466666666666</v>
+        <v>19541.38370974338</v>
       </c>
       <c r="H79" t="n">
-        <v>43.0564999999999</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,36 +3361,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>42.36</v>
+        <v>42.97</v>
       </c>
       <c r="C80" t="n">
-        <v>42.99</v>
+        <v>42.97</v>
       </c>
       <c r="D80" t="n">
-        <v>42.99</v>
+        <v>42.97</v>
       </c>
       <c r="E80" t="n">
-        <v>42.36</v>
+        <v>42.97</v>
       </c>
       <c r="F80" t="n">
-        <v>7818</v>
+        <v>529</v>
       </c>
       <c r="G80" t="n">
-        <v>42.888</v>
+        <v>19012.38370974338</v>
       </c>
       <c r="H80" t="n">
-        <v>43.03633333333323</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,40 +3396,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>42.99</v>
+        <v>42.69</v>
       </c>
       <c r="C81" t="n">
-        <v>42.99</v>
+        <v>42.69</v>
       </c>
       <c r="D81" t="n">
-        <v>42.99</v>
+        <v>42.69</v>
       </c>
       <c r="E81" t="n">
-        <v>42.99</v>
+        <v>42.69</v>
       </c>
       <c r="F81" t="n">
-        <v>155.809</v>
+        <v>594.5454999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>42.894</v>
+        <v>18417.83820974338</v>
       </c>
       <c r="H81" t="n">
-        <v>43.01783333333323</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="L81" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3518,44 +3431,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>42.99</v>
+        <v>42.58</v>
       </c>
       <c r="C82" t="n">
-        <v>42.99</v>
+        <v>42.68</v>
       </c>
       <c r="D82" t="n">
-        <v>42.99</v>
+        <v>42.68</v>
       </c>
       <c r="E82" t="n">
-        <v>42.99</v>
+        <v>42.57</v>
       </c>
       <c r="F82" t="n">
-        <v>4696</v>
+        <v>4470</v>
       </c>
       <c r="G82" t="n">
-        <v>42.88933333333333</v>
+        <v>13947.83820974338</v>
       </c>
       <c r="H82" t="n">
-        <v>42.99766666666656</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="L82" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,44 +3466,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>42.99</v>
+        <v>42.6</v>
       </c>
       <c r="C83" t="n">
-        <v>43.55</v>
+        <v>41.61</v>
       </c>
       <c r="D83" t="n">
-        <v>43.55</v>
+        <v>42.6</v>
       </c>
       <c r="E83" t="n">
-        <v>42.99</v>
+        <v>41.61</v>
       </c>
       <c r="F83" t="n">
-        <v>1870.645</v>
+        <v>29547.4839</v>
       </c>
       <c r="G83" t="n">
-        <v>42.94599999999999</v>
+        <v>-15599.64569025662</v>
       </c>
       <c r="H83" t="n">
-        <v>42.99016666666657</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="L83" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,42 +3501,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>43.53</v>
+        <v>42</v>
       </c>
       <c r="C84" t="n">
-        <v>43.53</v>
+        <v>42</v>
       </c>
       <c r="D84" t="n">
-        <v>43.53</v>
+        <v>42</v>
       </c>
       <c r="E84" t="n">
-        <v>43.53</v>
+        <v>42</v>
       </c>
       <c r="F84" t="n">
-        <v>800</v>
+        <v>3316.275</v>
       </c>
       <c r="G84" t="n">
-        <v>42.98199999999999</v>
+        <v>-12283.37069025662</v>
       </c>
       <c r="H84" t="n">
-        <v>42.98233333333324</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3654,42 +3536,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>43.53</v>
+        <v>42.6</v>
       </c>
       <c r="C85" t="n">
-        <v>43.53</v>
+        <v>43</v>
       </c>
       <c r="D85" t="n">
-        <v>43.53</v>
+        <v>43</v>
       </c>
       <c r="E85" t="n">
-        <v>43.53</v>
+        <v>42.6</v>
       </c>
       <c r="F85" t="n">
-        <v>400</v>
+        <v>2671</v>
       </c>
       <c r="G85" t="n">
-        <v>43.01799999999999</v>
+        <v>-9612.370690256617</v>
       </c>
       <c r="H85" t="n">
-        <v>42.97449999999991</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3698,42 +3571,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>43.53</v>
+        <v>42.99</v>
       </c>
       <c r="C86" t="n">
-        <v>43.53</v>
+        <v>42.7</v>
       </c>
       <c r="D86" t="n">
-        <v>43.53</v>
+        <v>42.99</v>
       </c>
       <c r="E86" t="n">
-        <v>43.53</v>
+        <v>42.7</v>
       </c>
       <c r="F86" t="n">
-        <v>400</v>
+        <v>1255</v>
       </c>
       <c r="G86" t="n">
-        <v>43.11333333333332</v>
+        <v>-10867.37069025662</v>
       </c>
       <c r="H86" t="n">
-        <v>42.96666666666658</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,42 +3606,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>43.53</v>
+        <v>42.7</v>
       </c>
       <c r="C87" t="n">
-        <v>43.5</v>
+        <v>42.99</v>
       </c>
       <c r="D87" t="n">
-        <v>43.53</v>
+        <v>42.99</v>
       </c>
       <c r="E87" t="n">
-        <v>43.5</v>
+        <v>42.7</v>
       </c>
       <c r="F87" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="G87" t="n">
-        <v>43.15399999999998</v>
+        <v>-10017.37069025662</v>
       </c>
       <c r="H87" t="n">
-        <v>42.95833333333324</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3786,42 +3641,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>43.48</v>
+        <v>42.2</v>
       </c>
       <c r="C88" t="n">
-        <v>43.48</v>
+        <v>42.5</v>
       </c>
       <c r="D88" t="n">
-        <v>43.48</v>
+        <v>42.7</v>
       </c>
       <c r="E88" t="n">
-        <v>43.48</v>
+        <v>42.1</v>
       </c>
       <c r="F88" t="n">
-        <v>1600</v>
+        <v>13597.7597</v>
       </c>
       <c r="G88" t="n">
-        <v>43.19333333333331</v>
+        <v>-23615.13039025662</v>
       </c>
       <c r="H88" t="n">
-        <v>42.94983333333325</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3830,42 +3676,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>43.43</v>
+        <v>42.4</v>
       </c>
       <c r="C89" t="n">
-        <v>43.43</v>
+        <v>42.98</v>
       </c>
       <c r="D89" t="n">
-        <v>43.43</v>
+        <v>42.98</v>
       </c>
       <c r="E89" t="n">
-        <v>43.43</v>
+        <v>42.4</v>
       </c>
       <c r="F89" t="n">
-        <v>800</v>
+        <v>1864</v>
       </c>
       <c r="G89" t="n">
-        <v>43.22999999999998</v>
+        <v>-21751.13039025662</v>
       </c>
       <c r="H89" t="n">
-        <v>42.94049999999991</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,42 +3711,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>43.43</v>
+        <v>42.5</v>
       </c>
       <c r="C90" t="n">
-        <v>43.43</v>
+        <v>42.4</v>
       </c>
       <c r="D90" t="n">
-        <v>43.43</v>
+        <v>42.5</v>
       </c>
       <c r="E90" t="n">
-        <v>43.43</v>
+        <v>42.3</v>
       </c>
       <c r="F90" t="n">
-        <v>800</v>
+        <v>3065</v>
       </c>
       <c r="G90" t="n">
-        <v>43.25933333333331</v>
+        <v>-24816.13039025662</v>
       </c>
       <c r="H90" t="n">
-        <v>42.93983333333325</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,42 +3746,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>42.81</v>
+        <v>42.4</v>
       </c>
       <c r="C91" t="n">
-        <v>43.33</v>
+        <v>42.89</v>
       </c>
       <c r="D91" t="n">
-        <v>43.33</v>
+        <v>43</v>
       </c>
       <c r="E91" t="n">
-        <v>42.81</v>
+        <v>42.4</v>
       </c>
       <c r="F91" t="n">
-        <v>7263.1824</v>
+        <v>4969</v>
       </c>
       <c r="G91" t="n">
-        <v>43.28199999999998</v>
+        <v>-19847.13039025662</v>
       </c>
       <c r="H91" t="n">
-        <v>42.93533333333325</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3962,44 +3781,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>43.4</v>
+        <v>42.85</v>
       </c>
       <c r="C92" t="n">
-        <v>43.4</v>
+        <v>42.64</v>
       </c>
       <c r="D92" t="n">
-        <v>43.4</v>
+        <v>43.07</v>
       </c>
       <c r="E92" t="n">
-        <v>43.4</v>
+        <v>42.64</v>
       </c>
       <c r="F92" t="n">
-        <v>1086</v>
+        <v>4573</v>
       </c>
       <c r="G92" t="n">
-        <v>43.30933333333331</v>
+        <v>-24420.13039025662</v>
       </c>
       <c r="H92" t="n">
-        <v>42.93149999999991</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>43.33</v>
-      </c>
-      <c r="L92" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4008,44 +3816,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>43.4</v>
+        <v>42.57</v>
       </c>
       <c r="C93" t="n">
-        <v>43.4</v>
+        <v>42.56</v>
       </c>
       <c r="D93" t="n">
-        <v>43.4</v>
+        <v>42.78</v>
       </c>
       <c r="E93" t="n">
-        <v>43.4</v>
+        <v>42.56</v>
       </c>
       <c r="F93" t="n">
-        <v>1200</v>
+        <v>1319</v>
       </c>
       <c r="G93" t="n">
-        <v>43.33666666666664</v>
+        <v>-25739.13039025662</v>
       </c>
       <c r="H93" t="n">
-        <v>42.93149999999991</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="L93" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,44 +3851,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>43.4</v>
+        <v>42.66</v>
       </c>
       <c r="C94" t="n">
-        <v>43.4</v>
+        <v>42.79</v>
       </c>
       <c r="D94" t="n">
-        <v>43.4</v>
+        <v>42.89</v>
       </c>
       <c r="E94" t="n">
-        <v>43.4</v>
+        <v>42.66</v>
       </c>
       <c r="F94" t="n">
-        <v>1042</v>
+        <v>1200</v>
       </c>
       <c r="G94" t="n">
-        <v>43.3653333333333</v>
+        <v>-24539.13039025662</v>
       </c>
       <c r="H94" t="n">
-        <v>42.93166666666659</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="L94" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4100,44 +3886,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>43.39</v>
+        <v>43.08</v>
       </c>
       <c r="C95" t="n">
-        <v>43.39</v>
+        <v>42.9</v>
       </c>
       <c r="D95" t="n">
-        <v>43.39</v>
+        <v>43.08</v>
       </c>
       <c r="E95" t="n">
-        <v>43.39</v>
+        <v>42.89</v>
       </c>
       <c r="F95" t="n">
         <v>2400</v>
       </c>
       <c r="G95" t="n">
-        <v>43.39199999999997</v>
+        <v>-22139.13039025662</v>
       </c>
       <c r="H95" t="n">
-        <v>42.93416666666658</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="L95" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4146,44 +3921,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>43.39</v>
+        <v>42.1</v>
       </c>
       <c r="C96" t="n">
-        <v>43.5</v>
+        <v>43.06</v>
       </c>
       <c r="D96" t="n">
-        <v>43.5</v>
+        <v>43.06</v>
       </c>
       <c r="E96" t="n">
-        <v>43.39</v>
+        <v>42.1</v>
       </c>
       <c r="F96" t="n">
-        <v>4734.191</v>
+        <v>1378.1419</v>
       </c>
       <c r="G96" t="n">
-        <v>43.42599999999997</v>
+        <v>-20760.98849025662</v>
       </c>
       <c r="H96" t="n">
-        <v>42.93749999999991</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>43.39</v>
-      </c>
-      <c r="L96" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,44 +3956,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>43.49</v>
+        <v>42.6</v>
       </c>
       <c r="C97" t="n">
-        <v>43.49</v>
+        <v>42.7</v>
       </c>
       <c r="D97" t="n">
-        <v>43.49</v>
+        <v>42.7</v>
       </c>
       <c r="E97" t="n">
-        <v>43.49</v>
+        <v>42.59</v>
       </c>
       <c r="F97" t="n">
-        <v>529</v>
+        <v>2400</v>
       </c>
       <c r="G97" t="n">
-        <v>43.4593333333333</v>
+        <v>-23160.98849025662</v>
       </c>
       <c r="H97" t="n">
-        <v>42.93616666666658</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="L97" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,44 +3991,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>43.49</v>
+        <v>42.99</v>
       </c>
       <c r="C98" t="n">
-        <v>43.49</v>
+        <v>42.99</v>
       </c>
       <c r="D98" t="n">
-        <v>43.49</v>
+        <v>42.99</v>
       </c>
       <c r="E98" t="n">
-        <v>43.49</v>
+        <v>42.99</v>
       </c>
       <c r="F98" t="n">
-        <v>562.799</v>
+        <v>800</v>
       </c>
       <c r="G98" t="n">
-        <v>43.45533333333331</v>
+        <v>-22360.98849025662</v>
       </c>
       <c r="H98" t="n">
-        <v>42.9859999999999</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="L98" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4284,42 +4026,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>43.5</v>
+        <v>42.99</v>
       </c>
       <c r="C99" t="n">
-        <v>43.5</v>
+        <v>42.99</v>
       </c>
       <c r="D99" t="n">
-        <v>43.5</v>
+        <v>42.99</v>
       </c>
       <c r="E99" t="n">
-        <v>43.49</v>
+        <v>42.99</v>
       </c>
       <c r="F99" t="n">
-        <v>1979</v>
+        <v>46</v>
       </c>
       <c r="G99" t="n">
-        <v>43.4533333333333</v>
+        <v>-22360.98849025662</v>
       </c>
       <c r="H99" t="n">
-        <v>42.9959999999999</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4328,42 +4061,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>43.5</v>
+        <v>42.1</v>
       </c>
       <c r="C100" t="n">
-        <v>43.56</v>
+        <v>42.1</v>
       </c>
       <c r="D100" t="n">
-        <v>43.56</v>
+        <v>42.1</v>
       </c>
       <c r="E100" t="n">
-        <v>43.5</v>
+        <v>42.1</v>
       </c>
       <c r="F100" t="n">
-        <v>5200</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>43.45533333333331</v>
+        <v>-22460.98849025662</v>
       </c>
       <c r="H100" t="n">
-        <v>43.00716666666657</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,42 +4096,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>43.6</v>
+        <v>42.89</v>
       </c>
       <c r="C101" t="n">
-        <v>43.66</v>
+        <v>42.89</v>
       </c>
       <c r="D101" t="n">
-        <v>43.66</v>
+        <v>42.89</v>
       </c>
       <c r="E101" t="n">
-        <v>43.6</v>
+        <v>42.89</v>
       </c>
       <c r="F101" t="n">
-        <v>1145.680330187815</v>
+        <v>55</v>
       </c>
       <c r="G101" t="n">
-        <v>43.46399999999998</v>
+        <v>-22405.98849025662</v>
       </c>
       <c r="H101" t="n">
-        <v>43.02216666666656</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,42 +4131,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>43.66</v>
+        <v>42.89</v>
       </c>
       <c r="C102" t="n">
-        <v>43.66</v>
+        <v>42.89</v>
       </c>
       <c r="D102" t="n">
-        <v>43.66</v>
+        <v>42.89</v>
       </c>
       <c r="E102" t="n">
-        <v>43.66</v>
+        <v>42.89</v>
       </c>
       <c r="F102" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="n">
-        <v>43.47466666666664</v>
+        <v>-22405.98849025662</v>
       </c>
       <c r="H102" t="n">
-        <v>43.0394999999999</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4460,42 +4166,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>43.66</v>
+        <v>42.89</v>
       </c>
       <c r="C103" t="n">
-        <v>43.79</v>
+        <v>42.88</v>
       </c>
       <c r="D103" t="n">
-        <v>43.79</v>
+        <v>42.89</v>
       </c>
       <c r="E103" t="n">
-        <v>43.66</v>
+        <v>42.88</v>
       </c>
       <c r="F103" t="n">
-        <v>5339.92</v>
+        <v>800</v>
       </c>
       <c r="G103" t="n">
-        <v>43.49533333333331</v>
+        <v>-23205.98849025662</v>
       </c>
       <c r="H103" t="n">
-        <v>43.05016666666656</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,42 +4201,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="C104" t="n">
-        <v>43.1</v>
+        <v>42.99</v>
       </c>
       <c r="D104" t="n">
-        <v>43.1</v>
+        <v>42.99</v>
       </c>
       <c r="E104" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="F104" t="n">
-        <v>412.3902</v>
+        <v>400</v>
       </c>
       <c r="G104" t="n">
-        <v>43.47333333333331</v>
+        <v>-22805.98849025662</v>
       </c>
       <c r="H104" t="n">
-        <v>43.0504999999999</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4548,42 +4236,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>43.6</v>
+        <v>42.99</v>
       </c>
       <c r="C105" t="n">
-        <v>43.6</v>
+        <v>42.99</v>
       </c>
       <c r="D105" t="n">
-        <v>43.6</v>
+        <v>42.99</v>
       </c>
       <c r="E105" t="n">
-        <v>43.6</v>
+        <v>42.99</v>
       </c>
       <c r="F105" t="n">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="G105" t="n">
-        <v>43.48466666666665</v>
+        <v>-22805.98849025662</v>
       </c>
       <c r="H105" t="n">
-        <v>43.06283333333322</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4592,42 +4271,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>43.6</v>
+        <v>42.99</v>
       </c>
       <c r="C106" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="D106" t="n">
-        <v>43.7</v>
+        <v>42.99</v>
       </c>
       <c r="E106" t="n">
-        <v>43.6</v>
+        <v>42.99</v>
       </c>
       <c r="F106" t="n">
-        <v>4194</v>
+        <v>860.706</v>
       </c>
       <c r="G106" t="n">
-        <v>43.50933333333332</v>
+        <v>-22805.98849025662</v>
       </c>
       <c r="H106" t="n">
-        <v>43.07883333333323</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4636,42 +4306,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>42.9</v>
+        <v>42.51</v>
       </c>
       <c r="C107" t="n">
-        <v>42.72</v>
+        <v>42.99</v>
       </c>
       <c r="D107" t="n">
-        <v>42.9</v>
+        <v>42.99</v>
       </c>
       <c r="E107" t="n">
-        <v>42.72</v>
+        <v>42.51</v>
       </c>
       <c r="F107" t="n">
-        <v>3947.3868</v>
+        <v>2909.43</v>
       </c>
       <c r="G107" t="n">
-        <v>43.46399999999998</v>
+        <v>-22805.98849025662</v>
       </c>
       <c r="H107" t="n">
-        <v>43.07149999999989</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4680,42 +4341,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>43.6</v>
+        <v>42.3</v>
       </c>
       <c r="C108" t="n">
-        <v>43.6</v>
+        <v>42.97</v>
       </c>
       <c r="D108" t="n">
-        <v>43.6</v>
+        <v>42.98</v>
       </c>
       <c r="E108" t="n">
-        <v>43.5</v>
+        <v>42.3</v>
       </c>
       <c r="F108" t="n">
-        <v>7380</v>
+        <v>6534.4675</v>
       </c>
       <c r="G108" t="n">
-        <v>43.47733333333333</v>
+        <v>-29340.45599025662</v>
       </c>
       <c r="H108" t="n">
-        <v>43.08249999999989</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4724,42 +4376,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>43.6</v>
+        <v>42.36</v>
       </c>
       <c r="C109" t="n">
-        <v>43.6</v>
+        <v>42.99</v>
       </c>
       <c r="D109" t="n">
-        <v>43.6</v>
+        <v>42.99</v>
       </c>
       <c r="E109" t="n">
-        <v>43.6</v>
+        <v>42.36</v>
       </c>
       <c r="F109" t="n">
-        <v>800</v>
+        <v>7818</v>
       </c>
       <c r="G109" t="n">
-        <v>43.49066666666666</v>
+        <v>-21522.45599025662</v>
       </c>
       <c r="H109" t="n">
-        <v>43.09349999999989</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4768,42 +4411,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>43.59</v>
+        <v>42.99</v>
       </c>
       <c r="C110" t="n">
-        <v>43.58</v>
+        <v>42.99</v>
       </c>
       <c r="D110" t="n">
-        <v>43.59</v>
+        <v>42.99</v>
       </c>
       <c r="E110" t="n">
-        <v>43.58</v>
+        <v>42.99</v>
       </c>
       <c r="F110" t="n">
-        <v>1600</v>
+        <v>155.809</v>
       </c>
       <c r="G110" t="n">
-        <v>43.50333333333333</v>
+        <v>-21522.45599025662</v>
       </c>
       <c r="H110" t="n">
-        <v>43.10249999999989</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4812,42 +4446,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>43.58</v>
+        <v>42.99</v>
       </c>
       <c r="C111" t="n">
-        <v>43.58</v>
+        <v>42.99</v>
       </c>
       <c r="D111" t="n">
-        <v>43.58</v>
+        <v>42.99</v>
       </c>
       <c r="E111" t="n">
-        <v>43.58</v>
+        <v>42.99</v>
       </c>
       <c r="F111" t="n">
-        <v>296.637</v>
+        <v>4696</v>
       </c>
       <c r="G111" t="n">
-        <v>43.50866666666666</v>
+        <v>-21522.45599025662</v>
       </c>
       <c r="H111" t="n">
-        <v>43.11266666666656</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,42 +4481,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>43.57</v>
+        <v>42.99</v>
       </c>
       <c r="C112" t="n">
-        <v>43.57</v>
+        <v>43.55</v>
       </c>
       <c r="D112" t="n">
-        <v>43.57</v>
+        <v>43.55</v>
       </c>
       <c r="E112" t="n">
-        <v>43.57</v>
+        <v>42.99</v>
       </c>
       <c r="F112" t="n">
-        <v>800</v>
+        <v>1870.645</v>
       </c>
       <c r="G112" t="n">
-        <v>43.514</v>
+        <v>-19651.81099025662</v>
       </c>
       <c r="H112" t="n">
-        <v>43.12733333333323</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,42 +4516,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>43.57</v>
+        <v>43.53</v>
       </c>
       <c r="C113" t="n">
-        <v>43.58</v>
+        <v>43.53</v>
       </c>
       <c r="D113" t="n">
-        <v>43.58</v>
+        <v>43.53</v>
       </c>
       <c r="E113" t="n">
-        <v>43.57</v>
+        <v>43.53</v>
       </c>
       <c r="F113" t="n">
-        <v>1232.6</v>
+        <v>800</v>
       </c>
       <c r="G113" t="n">
-        <v>43.52</v>
+        <v>-20451.81099025662</v>
       </c>
       <c r="H113" t="n">
-        <v>43.14233333333323</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,42 +4551,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>43.58</v>
+        <v>43.53</v>
       </c>
       <c r="C114" t="n">
-        <v>43.58</v>
+        <v>43.53</v>
       </c>
       <c r="D114" t="n">
-        <v>43.58</v>
+        <v>43.53</v>
       </c>
       <c r="E114" t="n">
-        <v>43.58</v>
+        <v>43.53</v>
       </c>
       <c r="F114" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G114" t="n">
-        <v>43.52533333333334</v>
+        <v>-20451.81099025662</v>
       </c>
       <c r="H114" t="n">
-        <v>43.17516666666656</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,42 +4586,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>43.58</v>
+        <v>43.53</v>
       </c>
       <c r="C115" t="n">
-        <v>43.6</v>
+        <v>43.53</v>
       </c>
       <c r="D115" t="n">
-        <v>43.6</v>
+        <v>43.53</v>
       </c>
       <c r="E115" t="n">
-        <v>43.58</v>
+        <v>43.53</v>
       </c>
       <c r="F115" t="n">
-        <v>933.359</v>
+        <v>400</v>
       </c>
       <c r="G115" t="n">
-        <v>43.52800000000001</v>
+        <v>-20451.81099025662</v>
       </c>
       <c r="H115" t="n">
-        <v>43.20183333333322</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,42 +4621,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>43.6</v>
+        <v>43.53</v>
       </c>
       <c r="C116" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="D116" t="n">
-        <v>43.6</v>
+        <v>43.53</v>
       </c>
       <c r="E116" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="F116" t="n">
-        <v>486.8366</v>
+        <v>1200</v>
       </c>
       <c r="G116" t="n">
-        <v>43.52400000000001</v>
+        <v>-21651.81099025662</v>
       </c>
       <c r="H116" t="n">
-        <v>43.21183333333322</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5076,42 +4656,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>43.6</v>
+        <v>43.48</v>
       </c>
       <c r="C117" t="n">
-        <v>43.6</v>
+        <v>43.48</v>
       </c>
       <c r="D117" t="n">
-        <v>43.6</v>
+        <v>43.48</v>
       </c>
       <c r="E117" t="n">
-        <v>43.6</v>
+        <v>43.48</v>
       </c>
       <c r="F117" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="G117" t="n">
-        <v>43.52000000000001</v>
+        <v>-23251.81099025662</v>
       </c>
       <c r="H117" t="n">
-        <v>43.22683333333323</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,42 +4691,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>43.6</v>
+        <v>43.43</v>
       </c>
       <c r="C118" t="n">
-        <v>43.6</v>
+        <v>43.43</v>
       </c>
       <c r="D118" t="n">
-        <v>43.6</v>
+        <v>43.43</v>
       </c>
       <c r="E118" t="n">
-        <v>43.6</v>
+        <v>43.43</v>
       </c>
       <c r="F118" t="n">
-        <v>3966.6052</v>
+        <v>800</v>
       </c>
       <c r="G118" t="n">
-        <v>43.50733333333335</v>
+        <v>-24051.81099025662</v>
       </c>
       <c r="H118" t="n">
-        <v>43.23699999999989</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,42 +4726,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>43.59</v>
+        <v>43.43</v>
       </c>
       <c r="C119" t="n">
-        <v>43.59</v>
+        <v>43.43</v>
       </c>
       <c r="D119" t="n">
-        <v>43.59</v>
+        <v>43.43</v>
       </c>
       <c r="E119" t="n">
-        <v>43.59</v>
+        <v>43.43</v>
       </c>
       <c r="F119" t="n">
-        <v>12.8236</v>
+        <v>800</v>
       </c>
       <c r="G119" t="n">
-        <v>43.54000000000001</v>
+        <v>-24051.81099025662</v>
       </c>
       <c r="H119" t="n">
-        <v>43.25516666666656</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,42 +4761,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>43.58</v>
+        <v>42.81</v>
       </c>
       <c r="C120" t="n">
-        <v>43.59</v>
+        <v>43.33</v>
       </c>
       <c r="D120" t="n">
-        <v>43.6</v>
+        <v>43.33</v>
       </c>
       <c r="E120" t="n">
-        <v>43.57</v>
+        <v>42.81</v>
       </c>
       <c r="F120" t="n">
-        <v>2400</v>
+        <v>7263.1824</v>
       </c>
       <c r="G120" t="n">
-        <v>43.53933333333335</v>
+        <v>-31314.99339025662</v>
       </c>
       <c r="H120" t="n">
-        <v>43.26533333333323</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,42 +4796,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>43.59</v>
+        <v>43.4</v>
       </c>
       <c r="C121" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="D121" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="E121" t="n">
-        <v>43.59</v>
+        <v>43.4</v>
       </c>
       <c r="F121" t="n">
-        <v>1058</v>
+        <v>1086</v>
       </c>
       <c r="G121" t="n">
-        <v>43.53266666666669</v>
+        <v>-30228.99339025662</v>
       </c>
       <c r="H121" t="n">
-        <v>43.28533333333323</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,42 +4831,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="C122" t="n">
-        <v>43.7</v>
+        <v>43.4</v>
       </c>
       <c r="D122" t="n">
-        <v>43.7</v>
+        <v>43.4</v>
       </c>
       <c r="E122" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="F122" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G122" t="n">
-        <v>43.59800000000002</v>
+        <v>-30228.99339025662</v>
       </c>
       <c r="H122" t="n">
-        <v>43.29883333333323</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,42 +4866,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>43.7</v>
+        <v>43.4</v>
       </c>
       <c r="C123" t="n">
-        <v>43.7</v>
+        <v>43.4</v>
       </c>
       <c r="D123" t="n">
-        <v>43.7</v>
+        <v>43.4</v>
       </c>
       <c r="E123" t="n">
-        <v>43.7</v>
+        <v>43.4</v>
       </c>
       <c r="F123" t="n">
-        <v>5576.8</v>
+        <v>1042</v>
       </c>
       <c r="G123" t="n">
-        <v>43.60466666666669</v>
+        <v>-30228.99339025662</v>
       </c>
       <c r="H123" t="n">
-        <v>43.31649999999989</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,42 +4901,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>43.7</v>
+        <v>43.39</v>
       </c>
       <c r="C124" t="n">
-        <v>43.8</v>
+        <v>43.39</v>
       </c>
       <c r="D124" t="n">
-        <v>43.8</v>
+        <v>43.39</v>
       </c>
       <c r="E124" t="n">
-        <v>43.7</v>
+        <v>43.39</v>
       </c>
       <c r="F124" t="n">
-        <v>400</v>
+        <v>2400</v>
       </c>
       <c r="G124" t="n">
-        <v>43.61800000000002</v>
+        <v>-32628.99339025662</v>
       </c>
       <c r="H124" t="n">
-        <v>43.33716666666656</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5428,42 +4936,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>43.8</v>
+        <v>43.39</v>
       </c>
       <c r="C125" t="n">
-        <v>43.8</v>
+        <v>43.5</v>
       </c>
       <c r="D125" t="n">
-        <v>43.8</v>
+        <v>43.5</v>
       </c>
       <c r="E125" t="n">
-        <v>43.8</v>
+        <v>43.39</v>
       </c>
       <c r="F125" t="n">
-        <v>1999</v>
+        <v>4734.191</v>
       </c>
       <c r="G125" t="n">
-        <v>43.63266666666667</v>
+        <v>-27894.80239025662</v>
       </c>
       <c r="H125" t="n">
-        <v>43.3539999999999</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5472,42 +4971,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>43.8</v>
+        <v>43.49</v>
       </c>
       <c r="C126" t="n">
-        <v>43.2</v>
+        <v>43.49</v>
       </c>
       <c r="D126" t="n">
-        <v>43.8</v>
+        <v>43.49</v>
       </c>
       <c r="E126" t="n">
-        <v>43.2</v>
+        <v>43.49</v>
       </c>
       <c r="F126" t="n">
-        <v>12803.4011</v>
+        <v>529</v>
       </c>
       <c r="G126" t="n">
-        <v>43.60733333333334</v>
+        <v>-28423.80239025662</v>
       </c>
       <c r="H126" t="n">
-        <v>43.3589999999999</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5516,42 +5006,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>43.2</v>
+        <v>43.49</v>
       </c>
       <c r="C127" t="n">
-        <v>43.2</v>
+        <v>43.49</v>
       </c>
       <c r="D127" t="n">
-        <v>43.2</v>
+        <v>43.49</v>
       </c>
       <c r="E127" t="n">
-        <v>43.2</v>
+        <v>43.49</v>
       </c>
       <c r="F127" t="n">
-        <v>5542</v>
+        <v>562.799</v>
       </c>
       <c r="G127" t="n">
-        <v>43.58266666666668</v>
+        <v>-28423.80239025662</v>
       </c>
       <c r="H127" t="n">
-        <v>43.36133333333323</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5560,42 +5041,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="C128" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="D128" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="E128" t="n">
-        <v>43.2</v>
+        <v>43.49</v>
       </c>
       <c r="F128" t="n">
-        <v>2000</v>
+        <v>1979</v>
       </c>
       <c r="G128" t="n">
-        <v>43.55733333333334</v>
+        <v>-26444.80239025662</v>
       </c>
       <c r="H128" t="n">
-        <v>43.36966666666656</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5604,42 +5076,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="C129" t="n">
-        <v>43.2</v>
+        <v>43.56</v>
       </c>
       <c r="D129" t="n">
-        <v>43.2</v>
+        <v>43.56</v>
       </c>
       <c r="E129" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="F129" t="n">
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G129" t="n">
-        <v>43.53200000000001</v>
+        <v>-21244.80239025662</v>
       </c>
       <c r="H129" t="n">
-        <v>43.37316666666656</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,42 +5111,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>43.2</v>
+        <v>43.6</v>
       </c>
       <c r="C130" t="n">
-        <v>43.2</v>
+        <v>43.66</v>
       </c>
       <c r="D130" t="n">
-        <v>43.2</v>
+        <v>43.66</v>
       </c>
       <c r="E130" t="n">
-        <v>43.2</v>
+        <v>43.6</v>
       </c>
       <c r="F130" t="n">
-        <v>3623</v>
+        <v>1145.680330187815</v>
       </c>
       <c r="G130" t="n">
-        <v>43.50533333333335</v>
+        <v>-20099.12206006881</v>
       </c>
       <c r="H130" t="n">
-        <v>43.37666666666656</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5692,42 +5146,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>43.2</v>
+        <v>43.66</v>
       </c>
       <c r="C131" t="n">
-        <v>43.2</v>
+        <v>43.66</v>
       </c>
       <c r="D131" t="n">
-        <v>43.2</v>
+        <v>43.66</v>
       </c>
       <c r="E131" t="n">
-        <v>43.2</v>
+        <v>43.66</v>
       </c>
       <c r="F131" t="n">
-        <v>3011</v>
+        <v>400</v>
       </c>
       <c r="G131" t="n">
-        <v>43.47866666666668</v>
+        <v>-20099.12206006881</v>
       </c>
       <c r="H131" t="n">
-        <v>43.39499999999989</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,42 +5181,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>43.2</v>
+        <v>43.66</v>
       </c>
       <c r="C132" t="n">
-        <v>43.2</v>
+        <v>43.79</v>
       </c>
       <c r="D132" t="n">
-        <v>43.2</v>
+        <v>43.79</v>
       </c>
       <c r="E132" t="n">
-        <v>43.2</v>
+        <v>43.66</v>
       </c>
       <c r="F132" t="n">
-        <v>2115.8333</v>
+        <v>5339.92</v>
       </c>
       <c r="G132" t="n">
-        <v>43.45200000000001</v>
+        <v>-14759.20206006881</v>
       </c>
       <c r="H132" t="n">
-        <v>43.40016666666656</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5780,42 +5216,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="C133" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="D133" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="E133" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="F133" t="n">
-        <v>2000</v>
+        <v>412.3902</v>
       </c>
       <c r="G133" t="n">
-        <v>43.42533333333335</v>
+        <v>-15171.59226006881</v>
       </c>
       <c r="H133" t="n">
-        <v>43.40533333333322</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,42 +5251,1048 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>412</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-14759.59226006881</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C135" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4194</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-10565.59226006881</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="D136" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3947.3868</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-14512.97906006881</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>7380</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-7132.979060068807</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>800</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-7132.979060068807</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C139" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="D139" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="E139" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-8732.979060068807</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="C140" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="D140" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="E140" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="F140" t="n">
+        <v>296.637</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-8732.979060068807</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="C141" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="D141" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="E141" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="F141" t="n">
+        <v>800</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-9532.979060068807</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="C142" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="D142" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="E142" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1232.6</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-8300.379060068806</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="C143" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="D143" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="E143" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="F143" t="n">
+        <v>800</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-8300.379060068806</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="C144" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="F144" t="n">
+        <v>933.359</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-7367.020060068806</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C145" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F145" t="n">
+        <v>486.8366</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-7367.020060068806</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E146" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-7367.020060068806</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3966.6052</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-7367.020060068806</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C148" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="D148" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="E148" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F148" t="n">
+        <v>12.8236</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-7379.843660068806</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="C149" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="D149" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E149" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-7379.843660068806</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C150" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1058</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-6321.843660068806</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F151" t="n">
+        <v>800</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-5521.843660068806</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5576.8</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-5521.843660068806</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="D153" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="E153" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>400</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-5121.843660068806</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-5121.843660068806</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C155" t="n">
         <v>43.2</v>
       </c>
-      <c r="C134" t="n">
+      <c r="D155" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="E155" t="n">
         <v>43.2</v>
       </c>
-      <c r="D134" t="n">
+      <c r="F155" t="n">
+        <v>12803.4011</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-17925.2447600688</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
         <v>43.2</v>
       </c>
-      <c r="E134" t="n">
+      <c r="C156" t="n">
         <v>43.2</v>
       </c>
-      <c r="F134" t="n">
+      <c r="D156" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5542</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-17925.2447600688</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-17925.2447600688</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C158" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-17925.2447600688</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3623</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-17925.2447600688</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C160" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D160" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3011</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-17925.2447600688</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2115.8333</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-17925.2447600688</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E162" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-17925.2447600688</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D163" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F163" t="n">
         <v>1600</v>
       </c>
-      <c r="G134" t="n">
-        <v>43.39933333333335</v>
-      </c>
-      <c r="H134" t="n">
-        <v>43.41066666666655</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="G163" t="n">
+        <v>-17925.2447600688</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest PAY.xlsx
+++ b/BackTest/2020-01-16 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>41.21</v>
+        <v>44.02</v>
       </c>
       <c r="C2" t="n">
-        <v>41.12</v>
+        <v>44.02</v>
       </c>
       <c r="D2" t="n">
-        <v>41.21</v>
+        <v>44.02</v>
       </c>
       <c r="E2" t="n">
-        <v>41.12</v>
+        <v>44.02</v>
       </c>
       <c r="F2" t="n">
-        <v>2832.1357</v>
+        <v>1057.214</v>
       </c>
       <c r="G2" t="n">
-        <v>81874.44195231787</v>
+        <v>180244.2882092828</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,629 +467,569 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>41.12</v>
+        <v>44.01</v>
       </c>
       <c r="C3" t="n">
-        <v>41.5</v>
+        <v>44.01</v>
       </c>
       <c r="D3" t="n">
-        <v>41.5</v>
+        <v>44.01</v>
       </c>
       <c r="E3" t="n">
-        <v>41.12</v>
+        <v>44.01</v>
       </c>
       <c r="F3" t="n">
-        <v>2800</v>
+        <v>9366.672200000001</v>
       </c>
       <c r="G3" t="n">
-        <v>84674.44195231787</v>
+        <v>170877.6160092828</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>41.12</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41.1</v>
+        <v>44.05</v>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>44.05</v>
       </c>
       <c r="D4" t="n">
-        <v>41.1</v>
+        <v>44.05</v>
       </c>
       <c r="E4" t="n">
-        <v>41</v>
+        <v>44.05</v>
       </c>
       <c r="F4" t="n">
-        <v>1904.0781</v>
+        <v>400</v>
       </c>
       <c r="G4" t="n">
-        <v>82770.36385231787</v>
+        <v>171277.6160092828</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.34</v>
+        <v>44.2</v>
       </c>
       <c r="C5" t="n">
-        <v>40.23</v>
+        <v>44.2</v>
       </c>
       <c r="D5" t="n">
-        <v>40.34</v>
+        <v>44.2</v>
       </c>
       <c r="E5" t="n">
-        <v>40.23</v>
+        <v>44.2</v>
       </c>
       <c r="F5" t="n">
-        <v>16686</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>66084.36385231787</v>
+        <v>171677.6160092828</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40.23</v>
+        <v>44.2</v>
       </c>
       <c r="C6" t="n">
-        <v>40.23</v>
+        <v>44.3</v>
       </c>
       <c r="D6" t="n">
-        <v>40.23</v>
+        <v>44.3</v>
       </c>
       <c r="E6" t="n">
-        <v>40.1</v>
+        <v>44.2</v>
       </c>
       <c r="F6" t="n">
-        <v>26652.7346</v>
+        <v>800</v>
       </c>
       <c r="G6" t="n">
-        <v>66084.36385231787</v>
+        <v>172477.6160092828</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>40.23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40.23</v>
+        <v>44.2</v>
       </c>
       <c r="C7" t="n">
-        <v>41.23</v>
+        <v>44.2</v>
       </c>
       <c r="D7" t="n">
-        <v>41.24</v>
+        <v>44.2</v>
       </c>
       <c r="E7" t="n">
-        <v>40.23</v>
+        <v>44.2</v>
       </c>
       <c r="F7" t="n">
-        <v>15285</v>
+        <v>6253</v>
       </c>
       <c r="G7" t="n">
-        <v>81369.36385231787</v>
+        <v>166224.6160092828</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>40.23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.13</v>
+        <v>44.3</v>
       </c>
       <c r="C8" t="n">
-        <v>41.13</v>
+        <v>44.1</v>
       </c>
       <c r="D8" t="n">
-        <v>41.13</v>
+        <v>44.41</v>
       </c>
       <c r="E8" t="n">
-        <v>41.13</v>
+        <v>44.1</v>
       </c>
       <c r="F8" t="n">
-        <v>4699.253</v>
+        <v>11113.69</v>
       </c>
       <c r="G8" t="n">
-        <v>76670.11085231787</v>
+        <v>155110.9260092828</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>41.23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41.14</v>
+        <v>44.2</v>
       </c>
       <c r="C9" t="n">
-        <v>41.14</v>
+        <v>44.2</v>
       </c>
       <c r="D9" t="n">
-        <v>41.14</v>
+        <v>44.2</v>
       </c>
       <c r="E9" t="n">
-        <v>41.14</v>
+        <v>44.2</v>
       </c>
       <c r="F9" t="n">
-        <v>110</v>
+        <v>15165.2619</v>
       </c>
       <c r="G9" t="n">
-        <v>76780.11085231787</v>
+        <v>170276.1879092828</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>41.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41.14</v>
+        <v>44.2</v>
       </c>
       <c r="C10" t="n">
-        <v>41.14</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>41.24</v>
+        <v>44.2</v>
       </c>
       <c r="E10" t="n">
-        <v>41.14</v>
+        <v>44</v>
       </c>
       <c r="F10" t="n">
-        <v>2775</v>
+        <v>49912.6404</v>
       </c>
       <c r="G10" t="n">
-        <v>76780.11085231787</v>
+        <v>120363.5475092828</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>41.14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>41.14</v>
+        <v>43.9</v>
       </c>
       <c r="C11" t="n">
-        <v>41.14</v>
+        <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>41.14</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
-        <v>41.14</v>
+        <v>43.9</v>
       </c>
       <c r="F11" t="n">
-        <v>38.0773</v>
+        <v>1308.6503</v>
       </c>
       <c r="G11" t="n">
-        <v>76780.11085231787</v>
+        <v>120363.5475092828</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41.14</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
-        <v>41.14</v>
+        <v>44</v>
       </c>
       <c r="D12" t="n">
-        <v>41.24</v>
+        <v>44</v>
       </c>
       <c r="E12" t="n">
-        <v>41.14</v>
+        <v>44</v>
       </c>
       <c r="F12" t="n">
-        <v>1600</v>
+        <v>13603.4422</v>
       </c>
       <c r="G12" t="n">
-        <v>76780.11085231787</v>
+        <v>120363.5475092828</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>41.14</v>
+        <v>43.95</v>
       </c>
       <c r="C13" t="n">
-        <v>41.24</v>
+        <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>41.24</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
-        <v>41.14</v>
+        <v>43.95</v>
       </c>
       <c r="F13" t="n">
-        <v>2161</v>
+        <v>5959.936103349934</v>
       </c>
       <c r="G13" t="n">
-        <v>78941.11085231787</v>
+        <v>120363.5475092828</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41.24</v>
+        <v>44</v>
       </c>
       <c r="C14" t="n">
-        <v>41.24</v>
+        <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>41.24</v>
+        <v>44</v>
       </c>
       <c r="E14" t="n">
-        <v>41.24</v>
+        <v>44</v>
       </c>
       <c r="F14" t="n">
-        <v>1564</v>
+        <v>2949.022727272727</v>
       </c>
       <c r="G14" t="n">
-        <v>78941.11085231787</v>
+        <v>120363.5475092828</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>41.24</v>
+        <v>43.99</v>
       </c>
       <c r="C15" t="n">
-        <v>41.24</v>
+        <v>43.99</v>
       </c>
       <c r="D15" t="n">
-        <v>41.24</v>
+        <v>43.99</v>
       </c>
       <c r="E15" t="n">
-        <v>41.24</v>
+        <v>43.99</v>
       </c>
       <c r="F15" t="n">
-        <v>8898.3385</v>
+        <v>4361.991361673107</v>
       </c>
       <c r="G15" t="n">
-        <v>78941.11085231787</v>
+        <v>116001.5561476097</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>41.24</v>
+        <v>43.99</v>
       </c>
       <c r="C16" t="n">
-        <v>41.24</v>
+        <v>43.99</v>
       </c>
       <c r="D16" t="n">
-        <v>41.25</v>
+        <v>43.99</v>
       </c>
       <c r="E16" t="n">
-        <v>41.24</v>
+        <v>43.99</v>
       </c>
       <c r="F16" t="n">
-        <v>11342</v>
+        <v>233.5602</v>
       </c>
       <c r="G16" t="n">
-        <v>78941.11085231787</v>
+        <v>116001.5561476097</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>41.24</v>
+        <v>43.47</v>
       </c>
       <c r="C17" t="n">
-        <v>41.25</v>
+        <v>43.47</v>
       </c>
       <c r="D17" t="n">
-        <v>41.25</v>
+        <v>43.47</v>
       </c>
       <c r="E17" t="n">
-        <v>41.24</v>
+        <v>43.47</v>
       </c>
       <c r="F17" t="n">
-        <v>11185</v>
+        <v>3514.9785</v>
       </c>
       <c r="G17" t="n">
-        <v>90126.11085231787</v>
+        <v>112486.5776476097</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>41.25</v>
+        <v>43.6</v>
       </c>
       <c r="C18" t="n">
-        <v>41.99</v>
+        <v>43.6</v>
       </c>
       <c r="D18" t="n">
-        <v>41.99</v>
+        <v>43.6</v>
       </c>
       <c r="E18" t="n">
-        <v>41.25</v>
+        <v>43.6</v>
       </c>
       <c r="F18" t="n">
-        <v>800</v>
+        <v>527.1754</v>
       </c>
       <c r="G18" t="n">
-        <v>90926.11085231787</v>
+        <v>113013.7530476097</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1094,36 +1039,33 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>42</v>
+        <v>43.63</v>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>43.63</v>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>43.63</v>
       </c>
       <c r="E19" t="n">
-        <v>42</v>
+        <v>43.63</v>
       </c>
       <c r="F19" t="n">
-        <v>97.59439999999999</v>
+        <v>9373.65</v>
       </c>
       <c r="G19" t="n">
-        <v>91023.70525231787</v>
+        <v>122387.4030476097</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1133,36 +1075,33 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>42.29</v>
+        <v>43.41</v>
       </c>
       <c r="C20" t="n">
-        <v>42.3</v>
+        <v>43.4</v>
       </c>
       <c r="D20" t="n">
-        <v>42.3</v>
+        <v>43.41</v>
       </c>
       <c r="E20" t="n">
-        <v>42.29</v>
+        <v>43.4</v>
       </c>
       <c r="F20" t="n">
-        <v>32719.6802</v>
+        <v>4670.889</v>
       </c>
       <c r="G20" t="n">
-        <v>123743.3854523179</v>
+        <v>117716.5140476097</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1172,36 +1111,33 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>42.3</v>
+        <v>43.4</v>
       </c>
       <c r="C21" t="n">
-        <v>42.3</v>
+        <v>43.39</v>
       </c>
       <c r="D21" t="n">
-        <v>42.3</v>
+        <v>43.4</v>
       </c>
       <c r="E21" t="n">
-        <v>42.3</v>
+        <v>43.39</v>
       </c>
       <c r="F21" t="n">
-        <v>4758.5962</v>
+        <v>6833.5019</v>
       </c>
       <c r="G21" t="n">
-        <v>123743.3854523179</v>
+        <v>110883.0121476097</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1211,36 +1147,33 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>42.3</v>
+        <v>43.79</v>
       </c>
       <c r="C22" t="n">
-        <v>42.3</v>
+        <v>43.24</v>
       </c>
       <c r="D22" t="n">
-        <v>42.3</v>
+        <v>43.79</v>
       </c>
       <c r="E22" t="n">
-        <v>42.3</v>
+        <v>43.24</v>
       </c>
       <c r="F22" t="n">
-        <v>381.386</v>
+        <v>20522.731</v>
       </c>
       <c r="G22" t="n">
-        <v>123743.3854523179</v>
+        <v>90360.28114760965</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1250,36 +1183,33 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.3</v>
+        <v>43.3</v>
       </c>
       <c r="C23" t="n">
-        <v>42.3</v>
+        <v>43.3</v>
       </c>
       <c r="D23" t="n">
-        <v>42.3</v>
+        <v>43.3</v>
       </c>
       <c r="E23" t="n">
-        <v>42.3</v>
+        <v>43.3</v>
       </c>
       <c r="F23" t="n">
-        <v>1355.7412</v>
+        <v>28.7844</v>
       </c>
       <c r="G23" t="n">
-        <v>123743.3854523179</v>
+        <v>90389.06554760966</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1289,36 +1219,33 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.21</v>
+        <v>43.57</v>
       </c>
       <c r="C24" t="n">
-        <v>42.21</v>
+        <v>43.57</v>
       </c>
       <c r="D24" t="n">
-        <v>42.21</v>
+        <v>43.57</v>
       </c>
       <c r="E24" t="n">
-        <v>42.21</v>
+        <v>43.57</v>
       </c>
       <c r="F24" t="n">
-        <v>20139</v>
+        <v>2117.84</v>
       </c>
       <c r="G24" t="n">
-        <v>103604.3854523179</v>
+        <v>92506.90554760965</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1328,36 +1255,33 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>42.21</v>
+        <v>42.82</v>
       </c>
       <c r="C25" t="n">
-        <v>42.21</v>
+        <v>40.5</v>
       </c>
       <c r="D25" t="n">
-        <v>42.21</v>
+        <v>42.82</v>
       </c>
       <c r="E25" t="n">
-        <v>42.21</v>
+        <v>40.5</v>
       </c>
       <c r="F25" t="n">
-        <v>1600</v>
+        <v>63249.5158</v>
       </c>
       <c r="G25" t="n">
-        <v>103604.3854523179</v>
+        <v>29257.38974760965</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1367,36 +1291,33 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>42.21</v>
+        <v>42.9</v>
       </c>
       <c r="C26" t="n">
-        <v>42.21</v>
+        <v>42.9</v>
       </c>
       <c r="D26" t="n">
-        <v>42.21</v>
+        <v>42.9</v>
       </c>
       <c r="E26" t="n">
-        <v>42.21</v>
+        <v>42.9</v>
       </c>
       <c r="F26" t="n">
-        <v>9000</v>
+        <v>572</v>
       </c>
       <c r="G26" t="n">
-        <v>103604.3854523179</v>
+        <v>29829.38974760965</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1406,36 +1327,33 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>42.21</v>
+        <v>42.6</v>
       </c>
       <c r="C27" t="n">
-        <v>42.4</v>
+        <v>42.89</v>
       </c>
       <c r="D27" t="n">
-        <v>42.4</v>
+        <v>42.89</v>
       </c>
       <c r="E27" t="n">
-        <v>42.21</v>
+        <v>42.6</v>
       </c>
       <c r="F27" t="n">
-        <v>313.62</v>
+        <v>2926</v>
       </c>
       <c r="G27" t="n">
-        <v>103918.0054523179</v>
+        <v>26903.38974760965</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1445,36 +1363,33 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>42.4</v>
+        <v>42.52</v>
       </c>
       <c r="C28" t="n">
-        <v>42.9</v>
+        <v>42.76</v>
       </c>
       <c r="D28" t="n">
-        <v>42.9</v>
+        <v>42.76</v>
       </c>
       <c r="E28" t="n">
-        <v>42.4</v>
+        <v>42.52</v>
       </c>
       <c r="F28" t="n">
-        <v>22409.9085</v>
+        <v>996.4728</v>
       </c>
       <c r="G28" t="n">
-        <v>126327.9139523179</v>
+        <v>25906.91694760965</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1484,36 +1399,33 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>42.9</v>
+        <v>42.63</v>
       </c>
       <c r="C29" t="n">
-        <v>43.56</v>
+        <v>42.62</v>
       </c>
       <c r="D29" t="n">
-        <v>43.56</v>
+        <v>42.85</v>
       </c>
       <c r="E29" t="n">
-        <v>42.9</v>
+        <v>42.62</v>
       </c>
       <c r="F29" t="n">
-        <v>3844.9829</v>
+        <v>1276</v>
       </c>
       <c r="G29" t="n">
-        <v>130172.8968523179</v>
+        <v>24630.91694760965</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1523,36 +1435,33 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>43.56</v>
+        <v>42.77</v>
       </c>
       <c r="C30" t="n">
-        <v>43.56</v>
+        <v>43.15</v>
       </c>
       <c r="D30" t="n">
-        <v>43.56</v>
+        <v>43.15</v>
       </c>
       <c r="E30" t="n">
-        <v>43.56</v>
+        <v>42.76</v>
       </c>
       <c r="F30" t="n">
-        <v>239.6097</v>
+        <v>1600</v>
       </c>
       <c r="G30" t="n">
-        <v>130172.8968523179</v>
+        <v>26230.91694760965</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1562,36 +1471,33 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>43.56</v>
+        <v>42.76</v>
       </c>
       <c r="C31" t="n">
-        <v>43.56</v>
+        <v>43.08</v>
       </c>
       <c r="D31" t="n">
-        <v>43.56</v>
+        <v>43.08</v>
       </c>
       <c r="E31" t="n">
-        <v>43.56</v>
+        <v>42.75</v>
       </c>
       <c r="F31" t="n">
-        <v>125.4279</v>
+        <v>2908</v>
       </c>
       <c r="G31" t="n">
-        <v>130172.8968523179</v>
+        <v>23322.91694760965</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1601,36 +1507,33 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>43.56</v>
+        <v>42.86</v>
       </c>
       <c r="C32" t="n">
-        <v>43.56</v>
+        <v>42.86</v>
       </c>
       <c r="D32" t="n">
-        <v>43.56</v>
+        <v>42.88</v>
       </c>
       <c r="E32" t="n">
-        <v>43.56</v>
+        <v>42.86</v>
       </c>
       <c r="F32" t="n">
-        <v>209.0465</v>
+        <v>4108</v>
       </c>
       <c r="G32" t="n">
-        <v>130172.8968523179</v>
+        <v>19214.91694760965</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1640,36 +1543,33 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>43.56</v>
+        <v>42.74</v>
       </c>
       <c r="C33" t="n">
-        <v>43.56</v>
+        <v>42.74</v>
       </c>
       <c r="D33" t="n">
-        <v>43.56</v>
+        <v>42.74</v>
       </c>
       <c r="E33" t="n">
-        <v>43.56</v>
+        <v>42.74</v>
       </c>
       <c r="F33" t="n">
-        <v>167.2372</v>
+        <v>2000</v>
       </c>
       <c r="G33" t="n">
-        <v>130172.8968523179</v>
+        <v>17214.91694760965</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1679,36 +1579,33 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>43.56</v>
+        <v>42.74</v>
       </c>
       <c r="C34" t="n">
-        <v>43.56</v>
+        <v>43.16</v>
       </c>
       <c r="D34" t="n">
-        <v>43.56</v>
+        <v>43.16</v>
       </c>
       <c r="E34" t="n">
-        <v>43.56</v>
+        <v>42.74</v>
       </c>
       <c r="F34" t="n">
-        <v>459.9023</v>
+        <v>1918</v>
       </c>
       <c r="G34" t="n">
-        <v>130172.8968523179</v>
+        <v>19132.91694760965</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1718,36 +1615,33 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>43.56</v>
+        <v>43.04</v>
       </c>
       <c r="C35" t="n">
-        <v>43.56</v>
+        <v>42.94</v>
       </c>
       <c r="D35" t="n">
-        <v>43.56</v>
+        <v>43.04</v>
       </c>
       <c r="E35" t="n">
-        <v>43.56</v>
+        <v>42.94</v>
       </c>
       <c r="F35" t="n">
-        <v>41.8093</v>
+        <v>209.6542378662714</v>
       </c>
       <c r="G35" t="n">
-        <v>130172.8968523179</v>
+        <v>18923.26270974338</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1757,36 +1651,33 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>43.56</v>
+        <v>42.94</v>
       </c>
       <c r="C36" t="n">
-        <v>43.56</v>
+        <v>42.94</v>
       </c>
       <c r="D36" t="n">
-        <v>43.56</v>
+        <v>42.94</v>
       </c>
       <c r="E36" t="n">
-        <v>43.56</v>
+        <v>42.94</v>
       </c>
       <c r="F36" t="n">
-        <v>4398.0291</v>
+        <v>433</v>
       </c>
       <c r="G36" t="n">
-        <v>130172.8968523179</v>
+        <v>18923.26270974338</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1796,36 +1687,33 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>43.56</v>
+        <v>43.04</v>
       </c>
       <c r="C37" t="n">
-        <v>43.56</v>
+        <v>43.04</v>
       </c>
       <c r="D37" t="n">
-        <v>43.56</v>
+        <v>43.04</v>
       </c>
       <c r="E37" t="n">
-        <v>43.56</v>
+        <v>43.04</v>
       </c>
       <c r="F37" t="n">
-        <v>123.632</v>
+        <v>618.121</v>
       </c>
       <c r="G37" t="n">
-        <v>130172.8968523179</v>
+        <v>19541.38370974338</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1835,36 +1723,33 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>43.57</v>
+        <v>42.97</v>
       </c>
       <c r="C38" t="n">
-        <v>43.9</v>
+        <v>42.97</v>
       </c>
       <c r="D38" t="n">
-        <v>43.9</v>
+        <v>42.97</v>
       </c>
       <c r="E38" t="n">
-        <v>43.57</v>
+        <v>42.97</v>
       </c>
       <c r="F38" t="n">
-        <v>7533</v>
+        <v>529</v>
       </c>
       <c r="G38" t="n">
-        <v>137705.8968523179</v>
+        <v>19012.38370974338</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1874,36 +1759,33 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>44</v>
+        <v>42.69</v>
       </c>
       <c r="C39" t="n">
-        <v>44</v>
+        <v>42.69</v>
       </c>
       <c r="D39" t="n">
-        <v>44</v>
+        <v>42.69</v>
       </c>
       <c r="E39" t="n">
-        <v>44</v>
+        <v>42.69</v>
       </c>
       <c r="F39" t="n">
-        <v>43486.651</v>
+        <v>594.5454999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>181192.5478523179</v>
+        <v>18417.83820974338</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1913,36 +1795,33 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>44.01</v>
+        <v>42.58</v>
       </c>
       <c r="C40" t="n">
-        <v>44.01</v>
+        <v>42.68</v>
       </c>
       <c r="D40" t="n">
-        <v>44.01</v>
+        <v>42.68</v>
       </c>
       <c r="E40" t="n">
-        <v>44.01</v>
+        <v>42.57</v>
       </c>
       <c r="F40" t="n">
-        <v>368.3802</v>
+        <v>4470</v>
       </c>
       <c r="G40" t="n">
-        <v>181560.9280523179</v>
+        <v>13947.83820974338</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1952,36 +1831,33 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>44.15</v>
+        <v>42.6</v>
       </c>
       <c r="C41" t="n">
-        <v>44.15</v>
+        <v>41.61</v>
       </c>
       <c r="D41" t="n">
-        <v>44.15</v>
+        <v>42.6</v>
       </c>
       <c r="E41" t="n">
-        <v>44.15</v>
+        <v>41.61</v>
       </c>
       <c r="F41" t="n">
-        <v>2935.43</v>
+        <v>29547.4839</v>
       </c>
       <c r="G41" t="n">
-        <v>184496.3580523179</v>
+        <v>-15599.64569025662</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1991,36 +1867,33 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>44.15</v>
+        <v>42</v>
       </c>
       <c r="C42" t="n">
-        <v>44.01</v>
+        <v>42</v>
       </c>
       <c r="D42" t="n">
-        <v>44.15</v>
+        <v>42</v>
       </c>
       <c r="E42" t="n">
-        <v>44.01</v>
+        <v>42</v>
       </c>
       <c r="F42" t="n">
-        <v>5309.283843035108</v>
+        <v>3316.275</v>
       </c>
       <c r="G42" t="n">
-        <v>179187.0742092828</v>
+        <v>-12283.37069025662</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2030,36 +1903,33 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>44.01</v>
+        <v>42.6</v>
       </c>
       <c r="C43" t="n">
-        <v>44.01</v>
+        <v>43</v>
       </c>
       <c r="D43" t="n">
-        <v>44.01</v>
+        <v>43</v>
       </c>
       <c r="E43" t="n">
-        <v>44.01</v>
+        <v>42.6</v>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>2671</v>
       </c>
       <c r="G43" t="n">
-        <v>179187.0742092828</v>
+        <v>-9612.370690256617</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2069,36 +1939,33 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>44.02</v>
+        <v>42.99</v>
       </c>
       <c r="C44" t="n">
-        <v>44.02</v>
+        <v>42.7</v>
       </c>
       <c r="D44" t="n">
-        <v>44.02</v>
+        <v>42.99</v>
       </c>
       <c r="E44" t="n">
-        <v>44.02</v>
+        <v>42.7</v>
       </c>
       <c r="F44" t="n">
-        <v>1057.214</v>
+        <v>1255</v>
       </c>
       <c r="G44" t="n">
-        <v>180244.2882092828</v>
+        <v>-10867.37069025662</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2108,36 +1975,33 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>44.01</v>
+        <v>42.7</v>
       </c>
       <c r="C45" t="n">
-        <v>44.01</v>
+        <v>42.99</v>
       </c>
       <c r="D45" t="n">
-        <v>44.01</v>
+        <v>42.99</v>
       </c>
       <c r="E45" t="n">
-        <v>44.01</v>
+        <v>42.7</v>
       </c>
       <c r="F45" t="n">
-        <v>9366.672200000001</v>
+        <v>850</v>
       </c>
       <c r="G45" t="n">
-        <v>170877.6160092828</v>
+        <v>-10017.37069025662</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2147,36 +2011,33 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>44.05</v>
+        <v>42.2</v>
       </c>
       <c r="C46" t="n">
-        <v>44.05</v>
+        <v>42.5</v>
       </c>
       <c r="D46" t="n">
-        <v>44.05</v>
+        <v>42.7</v>
       </c>
       <c r="E46" t="n">
-        <v>44.05</v>
+        <v>42.1</v>
       </c>
       <c r="F46" t="n">
-        <v>400</v>
+        <v>13597.7597</v>
       </c>
       <c r="G46" t="n">
-        <v>171277.6160092828</v>
+        <v>-23615.13039025662</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2186,36 +2047,33 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>44.2</v>
+        <v>42.4</v>
       </c>
       <c r="C47" t="n">
-        <v>44.2</v>
+        <v>42.98</v>
       </c>
       <c r="D47" t="n">
-        <v>44.2</v>
+        <v>42.98</v>
       </c>
       <c r="E47" t="n">
-        <v>44.2</v>
+        <v>42.4</v>
       </c>
       <c r="F47" t="n">
-        <v>400</v>
+        <v>1864</v>
       </c>
       <c r="G47" t="n">
-        <v>171677.6160092828</v>
+        <v>-21751.13039025662</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2225,79 +2083,75 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>44.2</v>
+        <v>42.5</v>
       </c>
       <c r="C48" t="n">
-        <v>44.3</v>
+        <v>42.4</v>
       </c>
       <c r="D48" t="n">
-        <v>44.3</v>
+        <v>42.5</v>
       </c>
       <c r="E48" t="n">
-        <v>44.2</v>
+        <v>42.3</v>
       </c>
       <c r="F48" t="n">
-        <v>800</v>
+        <v>3065</v>
       </c>
       <c r="G48" t="n">
-        <v>172477.6160092828</v>
+        <v>-24816.13039025662</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>44.2</v>
+        <v>42.4</v>
       </c>
       <c r="C49" t="n">
-        <v>44.2</v>
+        <v>42.89</v>
       </c>
       <c r="D49" t="n">
-        <v>44.2</v>
+        <v>43</v>
       </c>
       <c r="E49" t="n">
-        <v>44.2</v>
+        <v>42.4</v>
       </c>
       <c r="F49" t="n">
-        <v>6253</v>
+        <v>4969</v>
       </c>
       <c r="G49" t="n">
-        <v>166224.6160092828</v>
+        <v>-19847.13039025662</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2305,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>44.3</v>
+        <v>42.85</v>
       </c>
       <c r="C50" t="n">
-        <v>44.1</v>
+        <v>42.64</v>
       </c>
       <c r="D50" t="n">
-        <v>44.41</v>
+        <v>43.07</v>
       </c>
       <c r="E50" t="n">
-        <v>44.1</v>
+        <v>42.64</v>
       </c>
       <c r="F50" t="n">
-        <v>11113.69</v>
+        <v>4573</v>
       </c>
       <c r="G50" t="n">
-        <v>155110.9260092828</v>
+        <v>-24420.13039025662</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2340,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>44.2</v>
+        <v>42.57</v>
       </c>
       <c r="C51" t="n">
-        <v>44.2</v>
+        <v>42.56</v>
       </c>
       <c r="D51" t="n">
-        <v>44.2</v>
+        <v>42.78</v>
       </c>
       <c r="E51" t="n">
-        <v>44.2</v>
+        <v>42.56</v>
       </c>
       <c r="F51" t="n">
-        <v>15165.2619</v>
+        <v>1319</v>
       </c>
       <c r="G51" t="n">
-        <v>170276.1879092828</v>
+        <v>-25739.13039025662</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2375,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>44.2</v>
+        <v>42.66</v>
       </c>
       <c r="C52" t="n">
-        <v>44</v>
+        <v>42.79</v>
       </c>
       <c r="D52" t="n">
-        <v>44.2</v>
+        <v>42.89</v>
       </c>
       <c r="E52" t="n">
-        <v>44</v>
+        <v>42.66</v>
       </c>
       <c r="F52" t="n">
-        <v>49912.6404</v>
+        <v>1200</v>
       </c>
       <c r="G52" t="n">
-        <v>120363.5475092828</v>
+        <v>-24539.13039025662</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2410,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>43.9</v>
+        <v>43.08</v>
       </c>
       <c r="C53" t="n">
-        <v>44</v>
+        <v>42.9</v>
       </c>
       <c r="D53" t="n">
-        <v>44</v>
+        <v>43.08</v>
       </c>
       <c r="E53" t="n">
-        <v>43.9</v>
+        <v>42.89</v>
       </c>
       <c r="F53" t="n">
-        <v>1308.6503</v>
+        <v>2400</v>
       </c>
       <c r="G53" t="n">
-        <v>120363.5475092828</v>
+        <v>-22139.13039025662</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2445,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>44</v>
+        <v>42.1</v>
       </c>
       <c r="C54" t="n">
-        <v>44</v>
+        <v>43.06</v>
       </c>
       <c r="D54" t="n">
-        <v>44</v>
+        <v>43.06</v>
       </c>
       <c r="E54" t="n">
-        <v>44</v>
+        <v>42.1</v>
       </c>
       <c r="F54" t="n">
-        <v>13603.4422</v>
+        <v>1378.1419</v>
       </c>
       <c r="G54" t="n">
-        <v>120363.5475092828</v>
+        <v>-20760.98849025662</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2480,623 +2339,743 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>43.95</v>
+        <v>42.6</v>
       </c>
       <c r="C55" t="n">
-        <v>44</v>
+        <v>42.7</v>
       </c>
       <c r="D55" t="n">
-        <v>44</v>
+        <v>42.7</v>
       </c>
       <c r="E55" t="n">
-        <v>43.95</v>
+        <v>42.59</v>
       </c>
       <c r="F55" t="n">
-        <v>5959.936103349934</v>
+        <v>2400</v>
       </c>
       <c r="G55" t="n">
-        <v>120363.5475092828</v>
+        <v>-23160.98849025662</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>43.06</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>44</v>
+        <v>42.99</v>
       </c>
       <c r="C56" t="n">
-        <v>44</v>
+        <v>42.99</v>
       </c>
       <c r="D56" t="n">
-        <v>44</v>
+        <v>42.99</v>
       </c>
       <c r="E56" t="n">
-        <v>44</v>
+        <v>42.99</v>
       </c>
       <c r="F56" t="n">
-        <v>2949.022727272727</v>
+        <v>800</v>
       </c>
       <c r="G56" t="n">
-        <v>120363.5475092828</v>
+        <v>-22360.98849025662</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>43.99</v>
+        <v>42.99</v>
       </c>
       <c r="C57" t="n">
-        <v>43.99</v>
+        <v>42.99</v>
       </c>
       <c r="D57" t="n">
-        <v>43.99</v>
+        <v>42.99</v>
       </c>
       <c r="E57" t="n">
-        <v>43.99</v>
+        <v>42.99</v>
       </c>
       <c r="F57" t="n">
-        <v>4361.991361673107</v>
+        <v>46</v>
       </c>
       <c r="G57" t="n">
-        <v>116001.5561476097</v>
+        <v>-22360.98849025662</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>42.99</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>43.99</v>
+        <v>42.1</v>
       </c>
       <c r="C58" t="n">
-        <v>43.99</v>
+        <v>42.1</v>
       </c>
       <c r="D58" t="n">
-        <v>43.99</v>
+        <v>42.1</v>
       </c>
       <c r="E58" t="n">
-        <v>43.99</v>
+        <v>42.1</v>
       </c>
       <c r="F58" t="n">
-        <v>233.5602</v>
+        <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>116001.5561476097</v>
+        <v>-22460.98849025662</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>42.99</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>43.47</v>
+        <v>42.89</v>
       </c>
       <c r="C59" t="n">
-        <v>43.47</v>
+        <v>42.89</v>
       </c>
       <c r="D59" t="n">
-        <v>43.47</v>
+        <v>42.89</v>
       </c>
       <c r="E59" t="n">
-        <v>43.47</v>
+        <v>42.89</v>
       </c>
       <c r="F59" t="n">
-        <v>3514.9785</v>
+        <v>55</v>
       </c>
       <c r="G59" t="n">
-        <v>112486.5776476097</v>
+        <v>-22405.98849025662</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>42.1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>43.6</v>
+        <v>42.89</v>
       </c>
       <c r="C60" t="n">
-        <v>43.6</v>
+        <v>42.89</v>
       </c>
       <c r="D60" t="n">
-        <v>43.6</v>
+        <v>42.89</v>
       </c>
       <c r="E60" t="n">
-        <v>43.6</v>
+        <v>42.89</v>
       </c>
       <c r="F60" t="n">
-        <v>527.1754</v>
+        <v>1200</v>
       </c>
       <c r="G60" t="n">
-        <v>113013.7530476097</v>
+        <v>-22405.98849025662</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>42.89</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>43.63</v>
+        <v>42.89</v>
       </c>
       <c r="C61" t="n">
-        <v>43.63</v>
+        <v>42.88</v>
       </c>
       <c r="D61" t="n">
-        <v>43.63</v>
+        <v>42.89</v>
       </c>
       <c r="E61" t="n">
-        <v>43.63</v>
+        <v>42.88</v>
       </c>
       <c r="F61" t="n">
-        <v>9373.65</v>
+        <v>800</v>
       </c>
       <c r="G61" t="n">
-        <v>122387.4030476097</v>
+        <v>-23205.98849025662</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>42.89</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>43.41</v>
+        <v>42.9</v>
       </c>
       <c r="C62" t="n">
-        <v>43.4</v>
+        <v>42.99</v>
       </c>
       <c r="D62" t="n">
-        <v>43.41</v>
+        <v>42.99</v>
       </c>
       <c r="E62" t="n">
-        <v>43.4</v>
+        <v>42.9</v>
       </c>
       <c r="F62" t="n">
-        <v>4670.889</v>
+        <v>400</v>
       </c>
       <c r="G62" t="n">
-        <v>117716.5140476097</v>
+        <v>-22805.98849025662</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>42.88</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>43.4</v>
+        <v>42.99</v>
       </c>
       <c r="C63" t="n">
-        <v>43.39</v>
+        <v>42.99</v>
       </c>
       <c r="D63" t="n">
-        <v>43.4</v>
+        <v>42.99</v>
       </c>
       <c r="E63" t="n">
-        <v>43.39</v>
+        <v>42.99</v>
       </c>
       <c r="F63" t="n">
-        <v>6833.5019</v>
+        <v>397</v>
       </c>
       <c r="G63" t="n">
-        <v>110883.0121476097</v>
+        <v>-22805.98849025662</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>42.99</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>43.79</v>
+        <v>42.99</v>
       </c>
       <c r="C64" t="n">
-        <v>43.24</v>
+        <v>42.99</v>
       </c>
       <c r="D64" t="n">
-        <v>43.79</v>
+        <v>42.99</v>
       </c>
       <c r="E64" t="n">
-        <v>43.24</v>
+        <v>42.99</v>
       </c>
       <c r="F64" t="n">
-        <v>20522.731</v>
+        <v>860.706</v>
       </c>
       <c r="G64" t="n">
-        <v>90360.28114760965</v>
+        <v>-22805.98849025662</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>42.99</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>43.3</v>
+        <v>42.51</v>
       </c>
       <c r="C65" t="n">
-        <v>43.3</v>
+        <v>42.99</v>
       </c>
       <c r="D65" t="n">
-        <v>43.3</v>
+        <v>42.99</v>
       </c>
       <c r="E65" t="n">
-        <v>43.3</v>
+        <v>42.51</v>
       </c>
       <c r="F65" t="n">
-        <v>28.7844</v>
+        <v>2909.43</v>
       </c>
       <c r="G65" t="n">
-        <v>90389.06554760966</v>
+        <v>-22805.98849025662</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>42.99</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>43.57</v>
+        <v>42.3</v>
       </c>
       <c r="C66" t="n">
-        <v>43.57</v>
+        <v>42.97</v>
       </c>
       <c r="D66" t="n">
-        <v>43.57</v>
+        <v>42.98</v>
       </c>
       <c r="E66" t="n">
-        <v>43.57</v>
+        <v>42.3</v>
       </c>
       <c r="F66" t="n">
-        <v>2117.84</v>
+        <v>6534.4675</v>
       </c>
       <c r="G66" t="n">
-        <v>92506.90554760965</v>
+        <v>-29340.45599025662</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>42.99</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>42.82</v>
+        <v>42.36</v>
       </c>
       <c r="C67" t="n">
-        <v>40.5</v>
+        <v>42.99</v>
       </c>
       <c r="D67" t="n">
-        <v>42.82</v>
+        <v>42.99</v>
       </c>
       <c r="E67" t="n">
-        <v>40.5</v>
+        <v>42.36</v>
       </c>
       <c r="F67" t="n">
-        <v>63249.5158</v>
+        <v>7818</v>
       </c>
       <c r="G67" t="n">
-        <v>29257.38974760965</v>
+        <v>-21522.45599025662</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>42.97</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>42.9</v>
+        <v>42.99</v>
       </c>
       <c r="C68" t="n">
-        <v>42.9</v>
+        <v>42.99</v>
       </c>
       <c r="D68" t="n">
-        <v>42.9</v>
+        <v>42.99</v>
       </c>
       <c r="E68" t="n">
-        <v>42.9</v>
+        <v>42.99</v>
       </c>
       <c r="F68" t="n">
-        <v>572</v>
+        <v>155.809</v>
       </c>
       <c r="G68" t="n">
-        <v>29829.38974760965</v>
+        <v>-21522.45599025662</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>42.99</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>42.6</v>
+        <v>42.99</v>
       </c>
       <c r="C69" t="n">
-        <v>42.89</v>
+        <v>42.99</v>
       </c>
       <c r="D69" t="n">
-        <v>42.89</v>
+        <v>42.99</v>
       </c>
       <c r="E69" t="n">
-        <v>42.6</v>
+        <v>42.99</v>
       </c>
       <c r="F69" t="n">
-        <v>2926</v>
+        <v>4696</v>
       </c>
       <c r="G69" t="n">
-        <v>26903.38974760965</v>
+        <v>-21522.45599025662</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>42.99</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>42.52</v>
+        <v>42.99</v>
       </c>
       <c r="C70" t="n">
-        <v>42.76</v>
+        <v>43.55</v>
       </c>
       <c r="D70" t="n">
-        <v>42.76</v>
+        <v>43.55</v>
       </c>
       <c r="E70" t="n">
-        <v>42.52</v>
+        <v>42.99</v>
       </c>
       <c r="F70" t="n">
-        <v>996.4728</v>
+        <v>1870.645</v>
       </c>
       <c r="G70" t="n">
-        <v>25906.91694760965</v>
+        <v>-19651.81099025662</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>42.99</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>42.63</v>
+        <v>43.53</v>
       </c>
       <c r="C71" t="n">
-        <v>42.62</v>
+        <v>43.53</v>
       </c>
       <c r="D71" t="n">
-        <v>42.85</v>
+        <v>43.53</v>
       </c>
       <c r="E71" t="n">
-        <v>42.62</v>
+        <v>43.53</v>
       </c>
       <c r="F71" t="n">
-        <v>1276</v>
+        <v>800</v>
       </c>
       <c r="G71" t="n">
-        <v>24630.91694760965</v>
+        <v>-20451.81099025662</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>43.55</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>42.77</v>
+        <v>43.53</v>
       </c>
       <c r="C72" t="n">
-        <v>43.15</v>
+        <v>43.53</v>
       </c>
       <c r="D72" t="n">
-        <v>43.15</v>
+        <v>43.53</v>
       </c>
       <c r="E72" t="n">
-        <v>42.76</v>
+        <v>43.53</v>
       </c>
       <c r="F72" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="G72" t="n">
-        <v>26230.91694760965</v>
+        <v>-20451.81099025662</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3106,32 +3085,37 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>42.76</v>
+        <v>43.53</v>
       </c>
       <c r="C73" t="n">
-        <v>43.08</v>
+        <v>43.53</v>
       </c>
       <c r="D73" t="n">
-        <v>43.08</v>
+        <v>43.53</v>
       </c>
       <c r="E73" t="n">
-        <v>42.75</v>
+        <v>43.53</v>
       </c>
       <c r="F73" t="n">
-        <v>2908</v>
+        <v>400</v>
       </c>
       <c r="G73" t="n">
-        <v>23322.91694760965</v>
+        <v>-20451.81099025662</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3141,32 +3125,37 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>42.86</v>
+        <v>43.53</v>
       </c>
       <c r="C74" t="n">
-        <v>42.86</v>
+        <v>43.5</v>
       </c>
       <c r="D74" t="n">
-        <v>42.88</v>
+        <v>43.53</v>
       </c>
       <c r="E74" t="n">
-        <v>42.86</v>
+        <v>43.5</v>
       </c>
       <c r="F74" t="n">
-        <v>4108</v>
+        <v>1200</v>
       </c>
       <c r="G74" t="n">
-        <v>19214.91694760965</v>
+        <v>-21651.81099025662</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3176,32 +3165,37 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>42.74</v>
+        <v>43.48</v>
       </c>
       <c r="C75" t="n">
-        <v>42.74</v>
+        <v>43.48</v>
       </c>
       <c r="D75" t="n">
-        <v>42.74</v>
+        <v>43.48</v>
       </c>
       <c r="E75" t="n">
-        <v>42.74</v>
+        <v>43.48</v>
       </c>
       <c r="F75" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G75" t="n">
-        <v>17214.91694760965</v>
+        <v>-23251.81099025662</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3211,32 +3205,37 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>42.74</v>
+        <v>43.43</v>
       </c>
       <c r="C76" t="n">
-        <v>43.16</v>
+        <v>43.43</v>
       </c>
       <c r="D76" t="n">
-        <v>43.16</v>
+        <v>43.43</v>
       </c>
       <c r="E76" t="n">
-        <v>42.74</v>
+        <v>43.43</v>
       </c>
       <c r="F76" t="n">
-        <v>1918</v>
+        <v>800</v>
       </c>
       <c r="G76" t="n">
-        <v>19132.91694760965</v>
+        <v>-24051.81099025662</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3246,32 +3245,37 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>43.04</v>
+        <v>43.43</v>
       </c>
       <c r="C77" t="n">
-        <v>42.94</v>
+        <v>43.43</v>
       </c>
       <c r="D77" t="n">
-        <v>43.04</v>
+        <v>43.43</v>
       </c>
       <c r="E77" t="n">
-        <v>42.94</v>
+        <v>43.43</v>
       </c>
       <c r="F77" t="n">
-        <v>209.6542378662714</v>
+        <v>800</v>
       </c>
       <c r="G77" t="n">
-        <v>18923.26270974338</v>
+        <v>-24051.81099025662</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3281,32 +3285,37 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>42.94</v>
+        <v>42.81</v>
       </c>
       <c r="C78" t="n">
-        <v>42.94</v>
+        <v>43.33</v>
       </c>
       <c r="D78" t="n">
-        <v>42.94</v>
+        <v>43.33</v>
       </c>
       <c r="E78" t="n">
-        <v>42.94</v>
+        <v>42.81</v>
       </c>
       <c r="F78" t="n">
-        <v>433</v>
+        <v>7263.1824</v>
       </c>
       <c r="G78" t="n">
-        <v>18923.26270974338</v>
+        <v>-31314.99339025662</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3316,32 +3325,37 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>43.04</v>
+        <v>43.4</v>
       </c>
       <c r="C79" t="n">
-        <v>43.04</v>
+        <v>43.4</v>
       </c>
       <c r="D79" t="n">
-        <v>43.04</v>
+        <v>43.4</v>
       </c>
       <c r="E79" t="n">
-        <v>43.04</v>
+        <v>43.4</v>
       </c>
       <c r="F79" t="n">
-        <v>618.121</v>
+        <v>1086</v>
       </c>
       <c r="G79" t="n">
-        <v>19541.38370974338</v>
+        <v>-30228.99339025662</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3351,32 +3365,37 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>42.97</v>
+        <v>43.4</v>
       </c>
       <c r="C80" t="n">
-        <v>42.97</v>
+        <v>43.4</v>
       </c>
       <c r="D80" t="n">
-        <v>42.97</v>
+        <v>43.4</v>
       </c>
       <c r="E80" t="n">
-        <v>42.97</v>
+        <v>43.4</v>
       </c>
       <c r="F80" t="n">
-        <v>529</v>
+        <v>1200</v>
       </c>
       <c r="G80" t="n">
-        <v>19012.38370974338</v>
+        <v>-30228.99339025662</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3386,32 +3405,37 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>42.69</v>
+        <v>43.4</v>
       </c>
       <c r="C81" t="n">
-        <v>42.69</v>
+        <v>43.4</v>
       </c>
       <c r="D81" t="n">
-        <v>42.69</v>
+        <v>43.4</v>
       </c>
       <c r="E81" t="n">
-        <v>42.69</v>
+        <v>43.4</v>
       </c>
       <c r="F81" t="n">
-        <v>594.5454999999999</v>
+        <v>1042</v>
       </c>
       <c r="G81" t="n">
-        <v>18417.83820974338</v>
+        <v>-30228.99339025662</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3421,32 +3445,37 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>42.58</v>
+        <v>43.39</v>
       </c>
       <c r="C82" t="n">
-        <v>42.68</v>
+        <v>43.39</v>
       </c>
       <c r="D82" t="n">
-        <v>42.68</v>
+        <v>43.39</v>
       </c>
       <c r="E82" t="n">
-        <v>42.57</v>
+        <v>43.39</v>
       </c>
       <c r="F82" t="n">
-        <v>4470</v>
+        <v>2400</v>
       </c>
       <c r="G82" t="n">
-        <v>13947.83820974338</v>
+        <v>-32628.99339025662</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3456,32 +3485,37 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>42.6</v>
+        <v>43.39</v>
       </c>
       <c r="C83" t="n">
-        <v>41.61</v>
+        <v>43.5</v>
       </c>
       <c r="D83" t="n">
-        <v>42.6</v>
+        <v>43.5</v>
       </c>
       <c r="E83" t="n">
-        <v>41.61</v>
+        <v>43.39</v>
       </c>
       <c r="F83" t="n">
-        <v>29547.4839</v>
+        <v>4734.191</v>
       </c>
       <c r="G83" t="n">
-        <v>-15599.64569025662</v>
+        <v>-27894.80239025662</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3491,32 +3525,37 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>42</v>
+        <v>43.49</v>
       </c>
       <c r="C84" t="n">
-        <v>42</v>
+        <v>43.49</v>
       </c>
       <c r="D84" t="n">
-        <v>42</v>
+        <v>43.49</v>
       </c>
       <c r="E84" t="n">
-        <v>42</v>
+        <v>43.49</v>
       </c>
       <c r="F84" t="n">
-        <v>3316.275</v>
+        <v>529</v>
       </c>
       <c r="G84" t="n">
-        <v>-12283.37069025662</v>
+        <v>-28423.80239025662</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3526,32 +3565,37 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>42.6</v>
+        <v>43.49</v>
       </c>
       <c r="C85" t="n">
-        <v>43</v>
+        <v>43.49</v>
       </c>
       <c r="D85" t="n">
-        <v>43</v>
+        <v>43.49</v>
       </c>
       <c r="E85" t="n">
-        <v>42.6</v>
+        <v>43.49</v>
       </c>
       <c r="F85" t="n">
-        <v>2671</v>
+        <v>562.799</v>
       </c>
       <c r="G85" t="n">
-        <v>-9612.370690256617</v>
+        <v>-28423.80239025662</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3561,32 +3605,37 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>42.99</v>
+        <v>43.5</v>
       </c>
       <c r="C86" t="n">
-        <v>42.7</v>
+        <v>43.5</v>
       </c>
       <c r="D86" t="n">
-        <v>42.99</v>
+        <v>43.5</v>
       </c>
       <c r="E86" t="n">
-        <v>42.7</v>
+        <v>43.49</v>
       </c>
       <c r="F86" t="n">
-        <v>1255</v>
+        <v>1979</v>
       </c>
       <c r="G86" t="n">
-        <v>-10867.37069025662</v>
+        <v>-26444.80239025662</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3596,32 +3645,37 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>42.7</v>
+        <v>43.5</v>
       </c>
       <c r="C87" t="n">
-        <v>42.99</v>
+        <v>43.56</v>
       </c>
       <c r="D87" t="n">
-        <v>42.99</v>
+        <v>43.56</v>
       </c>
       <c r="E87" t="n">
-        <v>42.7</v>
+        <v>43.5</v>
       </c>
       <c r="F87" t="n">
-        <v>850</v>
+        <v>5200</v>
       </c>
       <c r="G87" t="n">
-        <v>-10017.37069025662</v>
+        <v>-21244.80239025662</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3631,32 +3685,37 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>42.2</v>
+        <v>43.6</v>
       </c>
       <c r="C88" t="n">
-        <v>42.5</v>
+        <v>43.66</v>
       </c>
       <c r="D88" t="n">
-        <v>42.7</v>
+        <v>43.66</v>
       </c>
       <c r="E88" t="n">
-        <v>42.1</v>
+        <v>43.6</v>
       </c>
       <c r="F88" t="n">
-        <v>13597.7597</v>
+        <v>1145.680330187815</v>
       </c>
       <c r="G88" t="n">
-        <v>-23615.13039025662</v>
+        <v>-20099.12206006881</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3666,32 +3725,37 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>42.4</v>
+        <v>43.66</v>
       </c>
       <c r="C89" t="n">
-        <v>42.98</v>
+        <v>43.66</v>
       </c>
       <c r="D89" t="n">
-        <v>42.98</v>
+        <v>43.66</v>
       </c>
       <c r="E89" t="n">
-        <v>42.4</v>
+        <v>43.66</v>
       </c>
       <c r="F89" t="n">
-        <v>1864</v>
+        <v>400</v>
       </c>
       <c r="G89" t="n">
-        <v>-21751.13039025662</v>
+        <v>-20099.12206006881</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3701,32 +3765,37 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>42.5</v>
+        <v>43.66</v>
       </c>
       <c r="C90" t="n">
-        <v>42.4</v>
+        <v>43.79</v>
       </c>
       <c r="D90" t="n">
-        <v>42.5</v>
+        <v>43.79</v>
       </c>
       <c r="E90" t="n">
-        <v>42.3</v>
+        <v>43.66</v>
       </c>
       <c r="F90" t="n">
-        <v>3065</v>
+        <v>5339.92</v>
       </c>
       <c r="G90" t="n">
-        <v>-24816.13039025662</v>
+        <v>-14759.20206006881</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3736,32 +3805,37 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>42.4</v>
+        <v>43.1</v>
       </c>
       <c r="C91" t="n">
-        <v>42.89</v>
+        <v>43.1</v>
       </c>
       <c r="D91" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="E91" t="n">
-        <v>42.4</v>
+        <v>43.1</v>
       </c>
       <c r="F91" t="n">
-        <v>4969</v>
+        <v>412.3902</v>
       </c>
       <c r="G91" t="n">
-        <v>-19847.13039025662</v>
+        <v>-15171.59226006881</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3771,32 +3845,37 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>42.85</v>
+        <v>43.6</v>
       </c>
       <c r="C92" t="n">
-        <v>42.64</v>
+        <v>43.6</v>
       </c>
       <c r="D92" t="n">
-        <v>43.07</v>
+        <v>43.6</v>
       </c>
       <c r="E92" t="n">
-        <v>42.64</v>
+        <v>43.6</v>
       </c>
       <c r="F92" t="n">
-        <v>4573</v>
+        <v>412</v>
       </c>
       <c r="G92" t="n">
-        <v>-24420.13039025662</v>
+        <v>-14759.59226006881</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3806,32 +3885,37 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>42.57</v>
+        <v>43.6</v>
       </c>
       <c r="C93" t="n">
-        <v>42.56</v>
+        <v>43.7</v>
       </c>
       <c r="D93" t="n">
-        <v>42.78</v>
+        <v>43.7</v>
       </c>
       <c r="E93" t="n">
-        <v>42.56</v>
+        <v>43.6</v>
       </c>
       <c r="F93" t="n">
-        <v>1319</v>
+        <v>4194</v>
       </c>
       <c r="G93" t="n">
-        <v>-25739.13039025662</v>
+        <v>-10565.59226006881</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3841,32 +3925,37 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>42.66</v>
+        <v>42.9</v>
       </c>
       <c r="C94" t="n">
-        <v>42.79</v>
+        <v>42.72</v>
       </c>
       <c r="D94" t="n">
-        <v>42.89</v>
+        <v>42.9</v>
       </c>
       <c r="E94" t="n">
-        <v>42.66</v>
+        <v>42.72</v>
       </c>
       <c r="F94" t="n">
-        <v>1200</v>
+        <v>3947.3868</v>
       </c>
       <c r="G94" t="n">
-        <v>-24539.13039025662</v>
+        <v>-14512.97906006881</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3876,32 +3965,37 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>43.08</v>
+        <v>43.6</v>
       </c>
       <c r="C95" t="n">
-        <v>42.9</v>
+        <v>43.6</v>
       </c>
       <c r="D95" t="n">
-        <v>43.08</v>
+        <v>43.6</v>
       </c>
       <c r="E95" t="n">
-        <v>42.89</v>
+        <v>43.5</v>
       </c>
       <c r="F95" t="n">
-        <v>2400</v>
+        <v>7380</v>
       </c>
       <c r="G95" t="n">
-        <v>-22139.13039025662</v>
+        <v>-7132.979060068807</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3911,32 +4005,37 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>42.1</v>
+        <v>43.6</v>
       </c>
       <c r="C96" t="n">
-        <v>43.06</v>
+        <v>43.6</v>
       </c>
       <c r="D96" t="n">
-        <v>43.06</v>
+        <v>43.6</v>
       </c>
       <c r="E96" t="n">
-        <v>42.1</v>
+        <v>43.6</v>
       </c>
       <c r="F96" t="n">
-        <v>1378.1419</v>
+        <v>800</v>
       </c>
       <c r="G96" t="n">
-        <v>-20760.98849025662</v>
+        <v>-7132.979060068807</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3946,32 +4045,37 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>42.6</v>
+        <v>43.59</v>
       </c>
       <c r="C97" t="n">
-        <v>42.7</v>
+        <v>43.58</v>
       </c>
       <c r="D97" t="n">
-        <v>42.7</v>
+        <v>43.59</v>
       </c>
       <c r="E97" t="n">
-        <v>42.59</v>
+        <v>43.58</v>
       </c>
       <c r="F97" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="G97" t="n">
-        <v>-23160.98849025662</v>
+        <v>-8732.979060068807</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3981,32 +4085,37 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>42.99</v>
+        <v>43.58</v>
       </c>
       <c r="C98" t="n">
-        <v>42.99</v>
+        <v>43.58</v>
       </c>
       <c r="D98" t="n">
-        <v>42.99</v>
+        <v>43.58</v>
       </c>
       <c r="E98" t="n">
-        <v>42.99</v>
+        <v>43.58</v>
       </c>
       <c r="F98" t="n">
-        <v>800</v>
+        <v>296.637</v>
       </c>
       <c r="G98" t="n">
-        <v>-22360.98849025662</v>
+        <v>-8732.979060068807</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4016,32 +4125,37 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>42.99</v>
+        <v>43.57</v>
       </c>
       <c r="C99" t="n">
-        <v>42.99</v>
+        <v>43.57</v>
       </c>
       <c r="D99" t="n">
-        <v>42.99</v>
+        <v>43.57</v>
       </c>
       <c r="E99" t="n">
-        <v>42.99</v>
+        <v>43.57</v>
       </c>
       <c r="F99" t="n">
-        <v>46</v>
+        <v>800</v>
       </c>
       <c r="G99" t="n">
-        <v>-22360.98849025662</v>
+        <v>-9532.979060068807</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4051,32 +4165,37 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>42.1</v>
+        <v>43.57</v>
       </c>
       <c r="C100" t="n">
-        <v>42.1</v>
+        <v>43.58</v>
       </c>
       <c r="D100" t="n">
-        <v>42.1</v>
+        <v>43.58</v>
       </c>
       <c r="E100" t="n">
-        <v>42.1</v>
+        <v>43.57</v>
       </c>
       <c r="F100" t="n">
-        <v>100</v>
+        <v>1232.6</v>
       </c>
       <c r="G100" t="n">
-        <v>-22460.98849025662</v>
+        <v>-8300.379060068806</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4086,32 +4205,37 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>42.89</v>
+        <v>43.58</v>
       </c>
       <c r="C101" t="n">
-        <v>42.89</v>
+        <v>43.58</v>
       </c>
       <c r="D101" t="n">
-        <v>42.89</v>
+        <v>43.58</v>
       </c>
       <c r="E101" t="n">
-        <v>42.89</v>
+        <v>43.58</v>
       </c>
       <c r="F101" t="n">
-        <v>55</v>
+        <v>800</v>
       </c>
       <c r="G101" t="n">
-        <v>-22405.98849025662</v>
+        <v>-8300.379060068806</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4121,32 +4245,37 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>42.89</v>
+        <v>43.58</v>
       </c>
       <c r="C102" t="n">
-        <v>42.89</v>
+        <v>43.6</v>
       </c>
       <c r="D102" t="n">
-        <v>42.89</v>
+        <v>43.6</v>
       </c>
       <c r="E102" t="n">
-        <v>42.89</v>
+        <v>43.58</v>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>933.359</v>
       </c>
       <c r="G102" t="n">
-        <v>-22405.98849025662</v>
+        <v>-7367.020060068806</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4156,32 +4285,37 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>42.89</v>
+        <v>43.6</v>
       </c>
       <c r="C103" t="n">
-        <v>42.88</v>
+        <v>43.6</v>
       </c>
       <c r="D103" t="n">
-        <v>42.89</v>
+        <v>43.6</v>
       </c>
       <c r="E103" t="n">
-        <v>42.88</v>
+        <v>43.6</v>
       </c>
       <c r="F103" t="n">
-        <v>800</v>
+        <v>486.8366</v>
       </c>
       <c r="G103" t="n">
-        <v>-23205.98849025662</v>
+        <v>-7367.020060068806</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4191,32 +4325,37 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>42.9</v>
+        <v>43.6</v>
       </c>
       <c r="C104" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="D104" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="E104" t="n">
-        <v>42.9</v>
+        <v>43.6</v>
       </c>
       <c r="F104" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G104" t="n">
-        <v>-22805.98849025662</v>
+        <v>-7367.020060068806</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4226,32 +4365,37 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="C105" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="D105" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="E105" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="F105" t="n">
-        <v>397</v>
+        <v>3966.6052</v>
       </c>
       <c r="G105" t="n">
-        <v>-22805.98849025662</v>
+        <v>-7367.020060068806</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4261,32 +4405,37 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>42.99</v>
+        <v>43.59</v>
       </c>
       <c r="C106" t="n">
-        <v>42.99</v>
+        <v>43.59</v>
       </c>
       <c r="D106" t="n">
-        <v>42.99</v>
+        <v>43.59</v>
       </c>
       <c r="E106" t="n">
-        <v>42.99</v>
+        <v>43.59</v>
       </c>
       <c r="F106" t="n">
-        <v>860.706</v>
+        <v>12.8236</v>
       </c>
       <c r="G106" t="n">
-        <v>-22805.98849025662</v>
+        <v>-7379.843660068806</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4296,32 +4445,37 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>42.51</v>
+        <v>43.58</v>
       </c>
       <c r="C107" t="n">
-        <v>42.99</v>
+        <v>43.59</v>
       </c>
       <c r="D107" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="E107" t="n">
-        <v>42.51</v>
+        <v>43.57</v>
       </c>
       <c r="F107" t="n">
-        <v>2909.43</v>
+        <v>2400</v>
       </c>
       <c r="G107" t="n">
-        <v>-22805.98849025662</v>
+        <v>-7379.843660068806</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4331,32 +4485,37 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>42.3</v>
+        <v>43.59</v>
       </c>
       <c r="C108" t="n">
-        <v>42.97</v>
+        <v>43.6</v>
       </c>
       <c r="D108" t="n">
-        <v>42.98</v>
+        <v>43.6</v>
       </c>
       <c r="E108" t="n">
-        <v>42.3</v>
+        <v>43.59</v>
       </c>
       <c r="F108" t="n">
-        <v>6534.4675</v>
+        <v>1058</v>
       </c>
       <c r="G108" t="n">
-        <v>-29340.45599025662</v>
+        <v>-6321.843660068806</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4366,32 +4525,37 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>42.36</v>
+        <v>43.6</v>
       </c>
       <c r="C109" t="n">
-        <v>42.99</v>
+        <v>43.7</v>
       </c>
       <c r="D109" t="n">
-        <v>42.99</v>
+        <v>43.7</v>
       </c>
       <c r="E109" t="n">
-        <v>42.36</v>
+        <v>43.6</v>
       </c>
       <c r="F109" t="n">
-        <v>7818</v>
+        <v>800</v>
       </c>
       <c r="G109" t="n">
-        <v>-21522.45599025662</v>
+        <v>-5521.843660068806</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4401,32 +4565,37 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>42.99</v>
+        <v>43.7</v>
       </c>
       <c r="C110" t="n">
-        <v>42.99</v>
+        <v>43.7</v>
       </c>
       <c r="D110" t="n">
-        <v>42.99</v>
+        <v>43.7</v>
       </c>
       <c r="E110" t="n">
-        <v>42.99</v>
+        <v>43.7</v>
       </c>
       <c r="F110" t="n">
-        <v>155.809</v>
+        <v>5576.8</v>
       </c>
       <c r="G110" t="n">
-        <v>-21522.45599025662</v>
+        <v>-5521.843660068806</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4436,32 +4605,37 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>42.99</v>
+        <v>43.7</v>
       </c>
       <c r="C111" t="n">
-        <v>42.99</v>
+        <v>43.8</v>
       </c>
       <c r="D111" t="n">
-        <v>42.99</v>
+        <v>43.8</v>
       </c>
       <c r="E111" t="n">
-        <v>42.99</v>
+        <v>43.7</v>
       </c>
       <c r="F111" t="n">
-        <v>4696</v>
+        <v>400</v>
       </c>
       <c r="G111" t="n">
-        <v>-21522.45599025662</v>
+        <v>-5121.843660068806</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4471,32 +4645,37 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>42.99</v>
+        <v>43.8</v>
       </c>
       <c r="C112" t="n">
-        <v>43.55</v>
+        <v>43.8</v>
       </c>
       <c r="D112" t="n">
-        <v>43.55</v>
+        <v>43.8</v>
       </c>
       <c r="E112" t="n">
-        <v>42.99</v>
+        <v>43.8</v>
       </c>
       <c r="F112" t="n">
-        <v>1870.645</v>
+        <v>1999</v>
       </c>
       <c r="G112" t="n">
-        <v>-19651.81099025662</v>
+        <v>-5121.843660068806</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4506,32 +4685,37 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>43.53</v>
+        <v>43.8</v>
       </c>
       <c r="C113" t="n">
-        <v>43.53</v>
+        <v>43.2</v>
       </c>
       <c r="D113" t="n">
-        <v>43.53</v>
+        <v>43.8</v>
       </c>
       <c r="E113" t="n">
-        <v>43.53</v>
+        <v>43.2</v>
       </c>
       <c r="F113" t="n">
-        <v>800</v>
+        <v>12803.4011</v>
       </c>
       <c r="G113" t="n">
-        <v>-20451.81099025662</v>
+        <v>-17925.2447600688</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4541,32 +4725,37 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>43.53</v>
+        <v>43.2</v>
       </c>
       <c r="C114" t="n">
-        <v>43.53</v>
+        <v>43.2</v>
       </c>
       <c r="D114" t="n">
-        <v>43.53</v>
+        <v>43.2</v>
       </c>
       <c r="E114" t="n">
-        <v>43.53</v>
+        <v>43.2</v>
       </c>
       <c r="F114" t="n">
-        <v>400</v>
+        <v>5542</v>
       </c>
       <c r="G114" t="n">
-        <v>-20451.81099025662</v>
+        <v>-17925.2447600688</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4576,32 +4765,37 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>43.53</v>
+        <v>43.2</v>
       </c>
       <c r="C115" t="n">
-        <v>43.53</v>
+        <v>43.2</v>
       </c>
       <c r="D115" t="n">
-        <v>43.53</v>
+        <v>43.2</v>
       </c>
       <c r="E115" t="n">
-        <v>43.53</v>
+        <v>43.2</v>
       </c>
       <c r="F115" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="G115" t="n">
-        <v>-20451.81099025662</v>
+        <v>-17925.2447600688</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4611,32 +4805,37 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>43.53</v>
+        <v>43.2</v>
       </c>
       <c r="C116" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="D116" t="n">
-        <v>43.53</v>
+        <v>43.2</v>
       </c>
       <c r="E116" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="F116" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G116" t="n">
-        <v>-21651.81099025662</v>
+        <v>-17925.2447600688</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4646,32 +4845,37 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>43.48</v>
+        <v>43.2</v>
       </c>
       <c r="C117" t="n">
-        <v>43.48</v>
+        <v>43.2</v>
       </c>
       <c r="D117" t="n">
-        <v>43.48</v>
+        <v>43.2</v>
       </c>
       <c r="E117" t="n">
-        <v>43.48</v>
+        <v>43.2</v>
       </c>
       <c r="F117" t="n">
-        <v>1600</v>
+        <v>3623</v>
       </c>
       <c r="G117" t="n">
-        <v>-23251.81099025662</v>
+        <v>-17925.2447600688</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4681,32 +4885,37 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>43.43</v>
+        <v>43.2</v>
       </c>
       <c r="C118" t="n">
-        <v>43.43</v>
+        <v>43.2</v>
       </c>
       <c r="D118" t="n">
-        <v>43.43</v>
+        <v>43.2</v>
       </c>
       <c r="E118" t="n">
-        <v>43.43</v>
+        <v>43.2</v>
       </c>
       <c r="F118" t="n">
-        <v>800</v>
+        <v>3011</v>
       </c>
       <c r="G118" t="n">
-        <v>-24051.81099025662</v>
+        <v>-17925.2447600688</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4716,32 +4925,37 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>43.43</v>
+        <v>43.2</v>
       </c>
       <c r="C119" t="n">
-        <v>43.43</v>
+        <v>43.2</v>
       </c>
       <c r="D119" t="n">
-        <v>43.43</v>
+        <v>43.2</v>
       </c>
       <c r="E119" t="n">
-        <v>43.43</v>
+        <v>43.2</v>
       </c>
       <c r="F119" t="n">
-        <v>800</v>
+        <v>2115.8333</v>
       </c>
       <c r="G119" t="n">
-        <v>-24051.81099025662</v>
+        <v>-17925.2447600688</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4751,32 +4965,37 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>42.81</v>
+        <v>43.2</v>
       </c>
       <c r="C120" t="n">
-        <v>43.33</v>
+        <v>43.2</v>
       </c>
       <c r="D120" t="n">
-        <v>43.33</v>
+        <v>43.2</v>
       </c>
       <c r="E120" t="n">
-        <v>42.81</v>
+        <v>43.2</v>
       </c>
       <c r="F120" t="n">
-        <v>7263.1824</v>
+        <v>2000</v>
       </c>
       <c r="G120" t="n">
-        <v>-31314.99339025662</v>
+        <v>-17925.2447600688</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4786,1515 +5005,57 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="C121" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="D121" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="E121" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="F121" t="n">
-        <v>1086</v>
+        <v>1600</v>
       </c>
       <c r="G121" t="n">
-        <v>-30228.99339025662</v>
+        <v>-17925.2447600688</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>43.2</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="C122" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="D122" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="E122" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-30228.99339025662</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="C123" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="D123" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="E123" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1042</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-30228.99339025662</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>43.39</v>
-      </c>
-      <c r="C124" t="n">
-        <v>43.39</v>
-      </c>
-      <c r="D124" t="n">
-        <v>43.39</v>
-      </c>
-      <c r="E124" t="n">
-        <v>43.39</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2400</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-32628.99339025662</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>43.39</v>
-      </c>
-      <c r="C125" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D125" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E125" t="n">
-        <v>43.39</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4734.191</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-27894.80239025662</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="C126" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="D126" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="E126" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F126" t="n">
-        <v>529</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-28423.80239025662</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="C127" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="D127" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="E127" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F127" t="n">
-        <v>562.799</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-28423.80239025662</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="C128" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D128" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1979</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-26444.80239025662</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="C129" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="D129" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="E129" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F129" t="n">
-        <v>5200</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-21244.80239025662</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>43.66</v>
-      </c>
-      <c r="D130" t="n">
-        <v>43.66</v>
-      </c>
-      <c r="E130" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1145.680330187815</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-20099.12206006881</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>43.66</v>
-      </c>
-      <c r="C131" t="n">
-        <v>43.66</v>
-      </c>
-      <c r="D131" t="n">
-        <v>43.66</v>
-      </c>
-      <c r="E131" t="n">
-        <v>43.66</v>
-      </c>
-      <c r="F131" t="n">
-        <v>400</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-20099.12206006881</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>43.66</v>
-      </c>
-      <c r="C132" t="n">
-        <v>43.79</v>
-      </c>
-      <c r="D132" t="n">
-        <v>43.79</v>
-      </c>
-      <c r="E132" t="n">
-        <v>43.66</v>
-      </c>
-      <c r="F132" t="n">
-        <v>5339.92</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-14759.20206006881</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>412.3902</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-15171.59226006881</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C134" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D134" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E134" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>412</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-14759.59226006881</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C135" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="D135" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="E135" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F135" t="n">
-        <v>4194</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-10565.59226006881</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="C136" t="n">
-        <v>42.72</v>
-      </c>
-      <c r="D136" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="E136" t="n">
-        <v>42.72</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3947.3868</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-14512.97906006881</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C137" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D137" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E137" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>7380</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-7132.979060068807</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C138" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D138" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E138" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F138" t="n">
-        <v>800</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-7132.979060068807</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="C139" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="D139" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="E139" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-8732.979060068807</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="C140" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="D140" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="E140" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="F140" t="n">
-        <v>296.637</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-8732.979060068807</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>43.57</v>
-      </c>
-      <c r="C141" t="n">
-        <v>43.57</v>
-      </c>
-      <c r="D141" t="n">
-        <v>43.57</v>
-      </c>
-      <c r="E141" t="n">
-        <v>43.57</v>
-      </c>
-      <c r="F141" t="n">
-        <v>800</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-9532.979060068807</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>43.57</v>
-      </c>
-      <c r="C142" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="D142" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="E142" t="n">
-        <v>43.57</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1232.6</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-8300.379060068806</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="C143" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="D143" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="E143" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="F143" t="n">
-        <v>800</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-8300.379060068806</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="C144" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D144" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E144" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="F144" t="n">
-        <v>933.359</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-7367.020060068806</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C145" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D145" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E145" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F145" t="n">
-        <v>486.8366</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-7367.020060068806</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C146" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D146" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E146" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-7367.020060068806</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C147" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D147" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E147" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F147" t="n">
-        <v>3966.6052</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-7367.020060068806</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="C148" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="D148" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="E148" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F148" t="n">
-        <v>12.8236</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-7379.843660068806</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="C149" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="D149" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E149" t="n">
-        <v>43.57</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2400</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-7379.843660068806</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="C150" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D150" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E150" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1058</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-6321.843660068806</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C151" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F151" t="n">
-        <v>800</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-5521.843660068806</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="C152" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="E152" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="F152" t="n">
-        <v>5576.8</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-5521.843660068806</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="C153" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="D153" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="E153" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="F153" t="n">
-        <v>400</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-5121.843660068806</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="C154" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="D154" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="E154" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1999</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-5121.843660068806</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="C155" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="E155" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="F155" t="n">
-        <v>12803.4011</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="C156" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="D156" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="E156" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="F156" t="n">
-        <v>5542</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="C157" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="D157" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="E157" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="C158" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="D158" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="E158" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="F158" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="C159" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="D159" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="E159" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3623</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="C160" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="D160" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="E160" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="F160" t="n">
-        <v>3011</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="C161" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="D161" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="E161" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2115.8333</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="C162" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="D162" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="E162" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="C163" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="D163" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="E163" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
+      <c r="N121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest PAY.xlsx
+++ b/BackTest/2020-01-16 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N192"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,22 +1078,19 @@
         <v>79832.11645231787</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>41.3</v>
       </c>
       <c r="J21" t="n">
         <v>41.3</v>
       </c>
-      <c r="K21" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1180,26 +1115,21 @@
         <v>95448.43995231787</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>41.3</v>
       </c>
-      <c r="K22" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1224,26 +1154,21 @@
         <v>97271.82565231787</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="K23" t="n">
         <v>41.3</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,18 +1193,19 @@
         <v>92158.82565231787</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>41.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>41.5</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1304,24 +1230,23 @@
         <v>79538.38345231787</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.42</v>
       </c>
       <c r="J25" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1346,22 +1271,23 @@
         <v>79538.38345231787</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+        <v>41.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1386,22 +1312,23 @@
         <v>79938.38345231787</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+        <v>41.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1426,22 +1353,23 @@
         <v>79938.38345231787</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+        <v>41.28</v>
+      </c>
+      <c r="J28" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1466,22 +1394,23 @@
         <v>79938.38345231787</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+        <v>41.28</v>
+      </c>
+      <c r="J29" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1506,24 +1435,23 @@
         <v>84706.57765231786</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>41.28</v>
       </c>
       <c r="J30" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1548,22 +1476,23 @@
         <v>81874.44195231787</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1588,24 +1517,23 @@
         <v>84674.44195231787</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.12</v>
       </c>
       <c r="J32" t="n">
-        <v>41.12</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1630,24 +1558,23 @@
         <v>82770.36385231787</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="J33" t="n">
         <v>41.5</v>
       </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1672,24 +1599,23 @@
         <v>66084.36385231787</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J34" t="n">
-        <v>41</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1714,24 +1640,23 @@
         <v>66084.36385231787</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>40.23</v>
       </c>
       <c r="J35" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1756,24 +1681,23 @@
         <v>81369.36385231787</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>40.23</v>
       </c>
       <c r="J36" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1798,24 +1722,23 @@
         <v>76670.11085231787</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>41.23</v>
       </c>
       <c r="J37" t="n">
-        <v>41.23</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1840,24 +1763,21 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>41.13</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1882,24 +1802,21 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>41.14</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1924,24 +1841,21 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>41.14</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1966,24 +1880,23 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.14</v>
       </c>
       <c r="J41" t="n">
-        <v>41.14</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2008,24 +1921,23 @@
         <v>78941.11085231787</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>41.14</v>
       </c>
       <c r="J42" t="n">
-        <v>41.14</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2050,24 +1962,23 @@
         <v>78941.11085231787</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.24</v>
       </c>
       <c r="J43" t="n">
-        <v>41.24</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2092,24 +2003,23 @@
         <v>78941.11085231787</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.24</v>
       </c>
       <c r="J44" t="n">
-        <v>41.24</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+        <v>41.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2134,22 +2044,23 @@
         <v>78941.11085231787</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+        <v>41.24</v>
+      </c>
+      <c r="J45" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2174,22 +2085,23 @@
         <v>90126.11085231787</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+        <v>41.24</v>
+      </c>
+      <c r="J46" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2214,22 +2126,23 @@
         <v>90926.11085231787</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+        <v>41.25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2254,22 +2167,23 @@
         <v>91023.70525231787</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+        <v>41.99</v>
+      </c>
+      <c r="J48" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2296,20 +2210,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2334,22 +2247,23 @@
         <v>123743.3854523179</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+        <v>42.3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2376,20 +2290,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2416,20 +2329,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2456,20 +2368,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2496,20 +2407,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2536,20 +2446,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2576,20 +2485,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2616,20 +2524,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2656,20 +2563,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2696,20 +2602,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2734,22 +2639,21 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1.044638554216868</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2774,22 +2678,15 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2814,22 +2711,15 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2856,20 +2746,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2896,20 +2779,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2936,20 +2812,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2976,20 +2845,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3016,20 +2878,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3054,22 +2909,15 @@
         <v>181192.5478523179</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3094,20 +2942,15 @@
         <v>181560.9280523179</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L69" t="n">
+        <v>1</v>
       </c>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3132,18 +2975,15 @@
         <v>184496.3580523179</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3170,16 +3010,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3204,18 +3041,15 @@
         <v>179187.0742092828</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3242,16 +3076,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3278,16 +3109,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3312,18 +3140,15 @@
         <v>171277.6160092828</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3350,16 +3175,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3386,16 +3208,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3420,18 +3239,15 @@
         <v>166224.6160092828</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3456,18 +3272,15 @@
         <v>155110.9260092828</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3492,18 +3305,15 @@
         <v>170276.1879092828</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3528,18 +3338,15 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3564,18 +3371,15 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3600,18 +3404,15 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3636,18 +3437,15 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3674,16 +3472,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3708,18 +3503,15 @@
         <v>116001.5561476097</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3744,18 +3536,15 @@
         <v>116001.5561476097</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3780,18 +3569,15 @@
         <v>112486.5776476097</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3816,18 +3602,15 @@
         <v>113013.7530476097</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3852,18 +3635,15 @@
         <v>122387.4030476097</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3890,16 +3670,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3926,16 +3703,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3962,16 +3736,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3998,16 +3769,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4034,16 +3802,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4070,16 +3835,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4106,16 +3868,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4142,16 +3901,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4178,16 +3934,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4214,16 +3967,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4250,16 +4000,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4286,16 +4033,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4322,16 +4066,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4358,16 +4099,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4394,16 +4132,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4430,16 +4165,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4466,16 +4198,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4502,16 +4231,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4538,16 +4264,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4574,16 +4297,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4610,16 +4330,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4646,16 +4363,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4680,22 +4394,15 @@
         <v>-12283.37069025662</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="K113" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4720,26 +4427,15 @@
         <v>-9612.370690256617</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>42</v>
-      </c>
-      <c r="K114" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4766,22 +4462,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4808,16 +4495,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4844,16 +4528,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4880,16 +4561,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4916,16 +4594,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4952,16 +4627,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4988,16 +4660,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5024,16 +4693,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5060,16 +4726,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5096,16 +4759,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5132,16 +4792,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5168,16 +4825,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5204,16 +4858,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5240,16 +4891,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5276,16 +4924,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5312,16 +4957,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5348,16 +4990,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5384,16 +5023,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5420,16 +5056,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5456,16 +5089,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5492,16 +5122,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5528,16 +5155,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5564,16 +5188,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5600,16 +5221,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5636,16 +5254,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5672,16 +5287,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5708,16 +5320,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5744,16 +5353,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5780,16 +5386,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5816,16 +5419,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5852,16 +5452,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5888,16 +5485,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5924,16 +5518,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5960,16 +5551,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5996,16 +5584,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6032,16 +5617,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6068,16 +5650,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6104,16 +5683,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6140,16 +5716,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6176,16 +5749,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6212,16 +5782,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6248,16 +5815,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6284,16 +5848,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6320,16 +5881,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6356,16 +5914,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6392,16 +5947,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6428,16 +5980,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6464,16 +6013,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6500,16 +6046,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6536,16 +6079,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6572,16 +6112,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6606,22 +6143,15 @@
         <v>-7132.979060068807</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>42.72</v>
-      </c>
-      <c r="K166" t="n">
-        <v>42.72</v>
-      </c>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6648,22 +6178,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>42.72</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6690,22 +6211,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>42.72</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6732,16 +6244,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6768,16 +6277,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6804,16 +6310,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6840,16 +6343,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6876,16 +6376,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6912,16 +6409,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6948,16 +6442,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6984,16 +6475,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7020,16 +6508,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7056,16 +6541,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7092,16 +6574,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7128,16 +6607,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7164,16 +6640,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7200,16 +6673,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7234,22 +6704,15 @@
         <v>-5121.843660068806</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="K183" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7276,22 +6739,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7316,26 +6770,15 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="K185" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7360,26 +6803,15 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="K186" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7404,26 +6836,15 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="K187" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7448,26 +6869,15 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="K188" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7492,26 +6902,15 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="K189" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7536,26 +6935,15 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="K190" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7580,26 +6968,15 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="K191" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7624,28 +7001,17 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="K192" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest PAY.xlsx
+++ b/BackTest/2020-01-16 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1078,7 +1078,7 @@
         <v>79832.11645231787</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>41.3</v>
@@ -1115,9 +1115,11 @@
         <v>95448.43995231787</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>41.3</v>
+      </c>
       <c r="J22" t="n">
         <v>41.3</v>
       </c>
@@ -1154,9 +1156,11 @@
         <v>97271.82565231787</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>41.42</v>
+      </c>
       <c r="J23" t="n">
         <v>41.3</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>92158.82565231787</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>41.5</v>
@@ -1230,11 +1234,9 @@
         <v>79538.38345231787</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>41.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>41.5</v>
       </c>
@@ -1271,11 +1273,9 @@
         <v>79538.38345231787</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>41.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>41.5</v>
       </c>
@@ -1312,11 +1312,9 @@
         <v>79938.38345231787</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>41.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>41.5</v>
       </c>
@@ -1353,11 +1351,9 @@
         <v>79938.38345231787</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>41.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>41.5</v>
       </c>
@@ -1394,11 +1390,9 @@
         <v>79938.38345231787</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>41.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>41.5</v>
       </c>
@@ -1435,11 +1429,9 @@
         <v>84706.57765231786</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>41.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>41.5</v>
       </c>
@@ -1476,11 +1468,9 @@
         <v>81874.44195231787</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>41.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>41.5</v>
       </c>
@@ -1517,7 +1507,7 @@
         <v>84674.44195231787</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>41.12</v>
@@ -1558,7 +1548,7 @@
         <v>82770.36385231787</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>41.5</v>
@@ -1599,7 +1589,7 @@
         <v>66084.36385231787</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>41</v>
@@ -1640,7 +1630,7 @@
         <v>66084.36385231787</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>40.23</v>
@@ -1681,7 +1671,7 @@
         <v>81369.36385231787</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>40.23</v>
@@ -1722,7 +1712,7 @@
         <v>76670.11085231787</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>41.23</v>
@@ -1763,9 +1753,11 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>41.13</v>
+      </c>
       <c r="J38" t="n">
         <v>41.5</v>
       </c>
@@ -1802,9 +1794,11 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>41.14</v>
+      </c>
       <c r="J39" t="n">
         <v>41.5</v>
       </c>
@@ -1841,9 +1835,11 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>41.14</v>
+      </c>
       <c r="J40" t="n">
         <v>41.5</v>
       </c>
@@ -1880,7 +1876,7 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>41.14</v>
@@ -1921,7 +1917,7 @@
         <v>78941.11085231787</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>41.14</v>
@@ -1962,7 +1958,7 @@
         <v>78941.11085231787</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>41.24</v>
@@ -2003,7 +1999,7 @@
         <v>78941.11085231787</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>41.24</v>
@@ -2044,11 +2040,9 @@
         <v>78941.11085231787</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>41.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>41.5</v>
       </c>
@@ -2085,11 +2079,9 @@
         <v>90126.11085231787</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>41.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>41.5</v>
       </c>
@@ -2126,11 +2118,9 @@
         <v>90926.11085231787</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>41.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>41.5</v>
       </c>
@@ -2167,11 +2157,9 @@
         <v>91023.70525231787</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>41.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>41.5</v>
       </c>
@@ -2247,11 +2235,9 @@
         <v>123743.3854523179</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>42.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>41.5</v>
       </c>
@@ -2639,7 +2625,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
@@ -2647,11 +2633,11 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.044638554216868</v>
+        <v>1</v>
       </c>
       <c r="M60" t="inlineStr"/>
     </row>
@@ -2678,11 +2664,17 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2711,11 +2703,17 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2747,8 +2745,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2780,8 +2784,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2813,8 +2823,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2846,8 +2862,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2879,8 +2901,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2909,11 +2937,17 @@
         <v>181192.5478523179</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +2976,17 @@
         <v>181560.9280523179</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2975,11 +3015,17 @@
         <v>184496.3580523179</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3011,8 +3057,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3041,11 +3093,17 @@
         <v>179187.0742092828</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3077,8 +3135,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3110,8 +3174,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3140,11 +3210,17 @@
         <v>171277.6160092828</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3176,8 +3252,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3209,8 +3291,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3239,15 +3327,23 @@
         <v>166224.6160092828</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>1.060060240963856</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.040389294403893</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3272,7 +3368,7 @@
         <v>155110.9260092828</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3305,7 +3401,7 @@
         <v>170276.1879092828</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3338,7 +3434,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3371,7 +3467,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3404,7 +3500,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3437,7 +3533,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3470,7 +3566,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3503,7 +3599,7 @@
         <v>116001.5561476097</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3536,7 +3632,7 @@
         <v>116001.5561476097</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3569,7 +3665,7 @@
         <v>112486.5776476097</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3602,7 +3698,7 @@
         <v>113013.7530476097</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3635,7 +3731,7 @@
         <v>122387.4030476097</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3668,7 +3764,7 @@
         <v>117716.5140476097</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3701,7 +3797,7 @@
         <v>110883.0121476097</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3734,7 +3830,7 @@
         <v>90360.28114760965</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3767,7 +3863,7 @@
         <v>90389.06554760966</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3800,7 +3896,7 @@
         <v>92506.90554760965</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3833,7 +3929,7 @@
         <v>29257.38974760965</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3866,7 +3962,7 @@
         <v>29829.38974760965</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3899,7 +3995,7 @@
         <v>26903.38974760965</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3932,7 +4028,7 @@
         <v>25906.91694760965</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3965,7 +4061,7 @@
         <v>24630.91694760965</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3998,7 +4094,7 @@
         <v>26230.91694760965</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4295,7 +4391,7 @@
         <v>18417.83820974338</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4328,7 +4424,7 @@
         <v>13947.83820974338</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4361,7 +4457,7 @@
         <v>-15599.64569025662</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4394,7 +4490,7 @@
         <v>-12283.37069025662</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -5615,10 +5711,14 @@
         <v>-30228.99339025662</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="J150" t="n">
+        <v>43.33</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5651,8 +5751,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5684,8 +5790,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5846,11 +5958,17 @@
         <v>-26444.80239025662</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>43.49</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5879,11 +5997,17 @@
         <v>-21244.80239025662</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>43.5</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5912,11 +6036,17 @@
         <v>-20099.12206006881</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>43.56</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5945,11 +6075,17 @@
         <v>-20099.12206006881</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>43.66</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5982,7 +6118,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6015,7 +6155,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6044,11 +6188,17 @@
         <v>-14759.59226006881</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6077,11 +6227,17 @@
         <v>-10565.59226006881</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6110,11 +6266,17 @@
         <v>-14512.97906006881</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +6305,17 @@
         <v>-7132.979060068807</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>42.72</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6176,11 +6344,17 @@
         <v>-7132.979060068807</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6213,7 +6387,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6246,7 +6424,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6279,7 +6461,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6312,7 +6498,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6345,7 +6535,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6378,7 +6572,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6411,7 +6609,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6444,7 +6646,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6477,7 +6683,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6510,7 +6720,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6543,7 +6757,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6572,11 +6790,17 @@
         <v>-6321.843660068806</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6605,11 +6829,17 @@
         <v>-5521.843660068806</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6642,7 +6872,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6675,7 +6909,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6704,11 +6942,17 @@
         <v>-5121.843660068806</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6741,7 +6985,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6774,7 +7022,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6807,7 +7059,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6840,7 +7096,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6873,7 +7133,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6906,7 +7170,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6935,11 +7203,17 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6968,11 +7242,17 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7001,17 +7281,23 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
       <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest PAY.xlsx
+++ b/BackTest/2020-01-16 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1078,14 +1078,10 @@
         <v>79832.11645231787</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>41.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1115,19 +1111,11 @@
         <v>95448.43995231787</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1156,19 +1144,11 @@
         <v>97271.82565231787</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="J23" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1197,14 +1177,10 @@
         <v>92158.82565231787</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>41.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1237,453 +1213,377 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>53455.5196</v>
+      </c>
+      <c r="G26" t="n">
+        <v>79538.38345231787</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="C27" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="D27" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="E27" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79938.38345231787</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="D28" t="n">
+        <v>41.39</v>
+      </c>
+      <c r="E28" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4400</v>
+      </c>
+      <c r="G28" t="n">
+        <v>79938.38345231787</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="E29" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G29" t="n">
+        <v>79938.38345231787</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>41.5</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="C30" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4768.1942</v>
+      </c>
+      <c r="G30" t="n">
+        <v>84706.57765231786</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>41.21</v>
+      </c>
+      <c r="C31" t="n">
+        <v>41.12</v>
+      </c>
+      <c r="D31" t="n">
+        <v>41.21</v>
+      </c>
+      <c r="E31" t="n">
+        <v>41.12</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2832.1357</v>
+      </c>
+      <c r="G31" t="n">
+        <v>81874.44195231787</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>41.12</v>
+      </c>
+      <c r="C32" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>41.12</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G32" t="n">
+        <v>84674.44195231787</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>41</v>
+      </c>
+      <c r="D33" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1904.0781</v>
+      </c>
+      <c r="G33" t="n">
+        <v>82770.36385231787</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>40.34</v>
+      </c>
+      <c r="C34" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="D34" t="n">
+        <v>40.34</v>
+      </c>
+      <c r="E34" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="F34" t="n">
+        <v>16686</v>
+      </c>
+      <c r="G34" t="n">
+        <v>66084.36385231787</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="C35" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="D35" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="E35" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>26652.7346</v>
+      </c>
+      <c r="G35" t="n">
+        <v>66084.36385231787</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="C36" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="D36" t="n">
+        <v>41.24</v>
+      </c>
+      <c r="E36" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="F36" t="n">
+        <v>15285</v>
+      </c>
+      <c r="G36" t="n">
+        <v>81369.36385231787</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="C26" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D26" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E26" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>53455.5196</v>
-      </c>
-      <c r="G26" t="n">
-        <v>79538.38345231787</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="C27" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="D27" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="E27" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="n">
-        <v>79938.38345231787</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="C28" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="D28" t="n">
-        <v>41.39</v>
-      </c>
-      <c r="E28" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="F28" t="n">
-        <v>4400</v>
-      </c>
-      <c r="G28" t="n">
-        <v>79938.38345231787</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="D29" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="E29" t="n">
-        <v>41.28</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3600</v>
-      </c>
-      <c r="G29" t="n">
-        <v>79938.38345231787</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="C30" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="D30" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E30" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4768.1942</v>
-      </c>
-      <c r="G30" t="n">
-        <v>84706.57765231786</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>41.21</v>
-      </c>
-      <c r="C31" t="n">
-        <v>41.12</v>
-      </c>
-      <c r="D31" t="n">
-        <v>41.21</v>
-      </c>
-      <c r="E31" t="n">
-        <v>41.12</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2832.1357</v>
-      </c>
-      <c r="G31" t="n">
-        <v>81874.44195231787</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>41.12</v>
-      </c>
-      <c r="C32" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E32" t="n">
-        <v>41.12</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2800</v>
-      </c>
-      <c r="G32" t="n">
-        <v>84674.44195231787</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>41.12</v>
-      </c>
-      <c r="J32" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>41</v>
-      </c>
-      <c r="D33" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>41</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1904.0781</v>
-      </c>
-      <c r="G33" t="n">
-        <v>82770.36385231787</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>40.34</v>
-      </c>
-      <c r="C34" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="D34" t="n">
-        <v>40.34</v>
-      </c>
-      <c r="E34" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="F34" t="n">
-        <v>16686</v>
-      </c>
-      <c r="G34" t="n">
-        <v>66084.36385231787</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>41</v>
-      </c>
-      <c r="J34" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="C35" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="D35" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="E35" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>26652.7346</v>
-      </c>
-      <c r="G35" t="n">
-        <v>66084.36385231787</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="J35" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="C36" t="n">
-        <v>41.23</v>
-      </c>
-      <c r="D36" t="n">
-        <v>41.24</v>
-      </c>
-      <c r="E36" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="F36" t="n">
-        <v>15285</v>
-      </c>
-      <c r="G36" t="n">
-        <v>81369.36385231787</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="J36" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1717,9 +1617,7 @@
       <c r="I37" t="n">
         <v>41.23</v>
       </c>
-      <c r="J37" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1753,14 +1651,10 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>41.13</v>
-      </c>
-      <c r="J38" t="n">
-        <v>41.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1794,14 +1688,10 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>41.14</v>
-      </c>
-      <c r="J39" t="n">
-        <v>41.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1835,14 +1725,10 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>41.14</v>
-      </c>
-      <c r="J40" t="n">
-        <v>41.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1876,14 +1762,10 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>41.14</v>
-      </c>
-      <c r="J41" t="n">
-        <v>41.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1917,14 +1799,10 @@
         <v>78941.11085231787</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>41.14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>41.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1958,14 +1836,10 @@
         <v>78941.11085231787</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>41.24</v>
-      </c>
-      <c r="J43" t="n">
-        <v>41.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1999,14 +1873,10 @@
         <v>78941.11085231787</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>41.24</v>
-      </c>
-      <c r="J44" t="n">
-        <v>41.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2043,9 +1913,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2082,9 +1950,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2121,9 +1987,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2160,9 +2024,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2199,9 +2061,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2238,9 +2098,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2277,9 +2135,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2316,9 +2172,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2355,9 +2209,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2394,9 +2246,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2433,9 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2472,9 +2320,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2511,9 +2357,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2550,9 +2394,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2586,20 +2428,16 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>41.5</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2625,17 +2463,11 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2664,17 +2496,11 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2703,17 +2529,11 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2742,17 +2562,11 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2781,17 +2595,11 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2820,17 +2628,11 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2862,14 +2664,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2901,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2940,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2979,14 +2763,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3018,14 +2796,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3057,14 +2829,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3096,14 +2862,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3135,14 +2895,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3174,14 +2928,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3213,14 +2961,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3252,14 +2994,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3291,14 +3027,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3327,23 +3057,15 @@
         <v>166224.6160092828</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>1.060060240963856</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.040389294403893</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3368,7 +3090,7 @@
         <v>155110.9260092828</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3401,7 +3123,7 @@
         <v>170276.1879092828</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3434,7 +3156,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3467,7 +3189,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3500,7 +3222,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3533,7 +3255,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3566,7 +3288,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3599,7 +3321,7 @@
         <v>116001.5561476097</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3632,7 +3354,7 @@
         <v>116001.5561476097</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3665,7 +3387,7 @@
         <v>112486.5776476097</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3698,7 +3420,7 @@
         <v>113013.7530476097</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3731,7 +3453,7 @@
         <v>122387.4030476097</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3764,7 +3486,7 @@
         <v>117716.5140476097</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3797,7 +3519,7 @@
         <v>110883.0121476097</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3830,7 +3552,7 @@
         <v>90360.28114760965</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3863,7 +3585,7 @@
         <v>90389.06554760966</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3896,7 +3618,7 @@
         <v>92506.90554760965</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3929,7 +3651,7 @@
         <v>29257.38974760965</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3962,7 +3684,7 @@
         <v>29829.38974760965</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3995,7 +3717,7 @@
         <v>26903.38974760965</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4028,7 +3750,7 @@
         <v>25906.91694760965</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4061,7 +3783,7 @@
         <v>24630.91694760965</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4094,7 +3816,7 @@
         <v>26230.91694760965</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4391,7 +4113,7 @@
         <v>18417.83820974338</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4424,7 +4146,7 @@
         <v>13947.83820974338</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4457,7 +4179,7 @@
         <v>-15599.64569025662</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4490,7 +4212,7 @@
         <v>-12283.37069025662</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -5711,14 +5433,10 @@
         <v>-30228.99339025662</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>43.33</v>
-      </c>
-      <c r="J150" t="n">
-        <v>43.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5751,14 +5469,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>43.33</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5790,14 +5502,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>43.33</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5958,17 +5664,11 @@
         <v>-26444.80239025662</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>43.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5997,17 +5697,11 @@
         <v>-21244.80239025662</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>43.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6036,17 +5730,11 @@
         <v>-20099.12206006881</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>43.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6075,17 +5763,11 @@
         <v>-20099.12206006881</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>43.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6118,11 +5800,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6155,11 +5833,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6188,17 +5862,11 @@
         <v>-14759.59226006881</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>43.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6227,17 +5895,11 @@
         <v>-10565.59226006881</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>43.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6266,17 +5928,11 @@
         <v>-14512.97906006881</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>43.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6305,17 +5961,11 @@
         <v>-7132.979060068807</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>42.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6344,17 +5994,11 @@
         <v>-7132.979060068807</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>43.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6387,11 +6031,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6064,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6461,11 +6097,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6498,11 +6130,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6535,11 +6163,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6572,11 +6196,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6609,11 +6229,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6646,11 +6262,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6683,11 +6295,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6720,11 +6328,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6757,11 +6361,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6790,17 +6390,11 @@
         <v>-6321.843660068806</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>43.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6829,17 +6423,11 @@
         <v>-5521.843660068806</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>43.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6872,11 +6460,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6909,11 +6493,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6942,17 +6522,11 @@
         <v>-5121.843660068806</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>43.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +6559,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7022,11 +6592,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7059,11 +6625,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7096,11 +6658,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7133,11 +6691,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7170,11 +6724,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7203,17 +6753,11 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7242,17 +6786,11 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7281,23 +6819,17 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>43.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
       <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest PAY.xlsx
+++ b/BackTest/2020-01-16 BackTest PAY.xlsx
@@ -1177,7 +1177,7 @@
         <v>92158.82565231787</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1573,17 +1573,11 @@
         <v>81369.36385231787</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>40.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1612,17 +1606,11 @@
         <v>76670.11085231787</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>41.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1655,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1692,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1729,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1766,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1803,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1840,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1877,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1914,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1951,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1988,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2025,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2062,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2099,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2136,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2173,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2210,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2247,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2284,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2321,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2358,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2395,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2428,16 +2332,14 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
       <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2463,7 +2365,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2496,7 +2398,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2529,7 +2431,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2562,7 +2464,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2595,7 +2497,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2628,7 +2530,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2793,7 +2695,7 @@
         <v>184496.3580523179</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2826,7 +2728,7 @@
         <v>179187.0742092828</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2859,7 +2761,7 @@
         <v>179187.0742092828</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2892,7 +2794,7 @@
         <v>180244.2882092828</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2925,7 +2827,7 @@
         <v>170877.6160092828</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2991,7 +2893,7 @@
         <v>171677.6160092828</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3024,7 +2926,7 @@
         <v>172477.6160092828</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3057,7 +2959,7 @@
         <v>166224.6160092828</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3090,7 +2992,7 @@
         <v>155110.9260092828</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3123,7 +3025,7 @@
         <v>170276.1879092828</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3156,7 +3058,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3189,7 +3091,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3387,7 +3289,7 @@
         <v>112486.5776476097</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3453,7 +3355,7 @@
         <v>122387.4030476097</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3486,7 +3388,7 @@
         <v>117716.5140476097</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3519,7 +3421,7 @@
         <v>110883.0121476097</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -5433,10 +5335,14 @@
         <v>-30228.99339025662</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="J150" t="n">
+        <v>43.33</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5466,11 +5372,19 @@
         <v>-30228.99339025662</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J151" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5502,8 +5416,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5532,10 +5452,14 @@
         <v>-32628.99339025662</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J153" t="n">
+        <v>43.4</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
@@ -5565,11 +5489,19 @@
         <v>-27894.80239025662</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J154" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +5530,19 @@
         <v>-28423.80239025662</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J155" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5634,8 +5574,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5664,11 +5610,19 @@
         <v>-26444.80239025662</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="J157" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5697,11 +5651,19 @@
         <v>-21244.80239025662</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J158" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5730,11 +5692,19 @@
         <v>-20099.12206006881</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="J159" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5763,11 +5733,19 @@
         <v>-20099.12206006881</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>43.66</v>
+      </c>
+      <c r="J160" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5796,11 +5774,19 @@
         <v>-14759.20206006881</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>43.66</v>
+      </c>
+      <c r="J161" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5829,11 +5815,19 @@
         <v>-15171.59226006881</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>43.79</v>
+      </c>
+      <c r="J162" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5862,11 +5856,19 @@
         <v>-14759.59226006881</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5895,11 +5897,19 @@
         <v>-10565.59226006881</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J164" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5928,11 +5938,19 @@
         <v>-14512.97906006881</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J165" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5961,11 +5979,19 @@
         <v>-7132.979060068807</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="J166" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5994,11 +6020,19 @@
         <v>-7132.979060068807</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J167" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6030,8 +6064,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6063,8 +6103,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6096,8 +6142,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6126,11 +6178,19 @@
         <v>-8300.379060068806</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="J171" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +6222,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6192,11 +6258,19 @@
         <v>-7367.020060068806</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="J173" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6225,11 +6299,19 @@
         <v>-7367.020060068806</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J174" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6258,11 +6340,19 @@
         <v>-7367.020060068806</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J175" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6291,11 +6381,19 @@
         <v>-7367.020060068806</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J176" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6324,11 +6422,19 @@
         <v>-7379.843660068806</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J177" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6357,11 +6463,19 @@
         <v>-7379.843660068806</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="J178" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6390,11 +6504,19 @@
         <v>-6321.843660068806</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="J179" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6423,11 +6545,19 @@
         <v>-5521.843660068806</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J180" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6456,11 +6586,19 @@
         <v>-5521.843660068806</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J181" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6489,11 +6627,19 @@
         <v>-5121.843660068806</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J182" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6522,11 +6668,19 @@
         <v>-5121.843660068806</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="J183" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6555,11 +6709,19 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="J184" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6588,11 +6750,19 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="J185" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6621,11 +6791,19 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="J186" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6654,11 +6832,19 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="J187" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6687,11 +6873,19 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6720,11 +6914,19 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="J189" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6753,11 +6955,19 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="J190" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6786,11 +6996,19 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="J191" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6819,11 +7037,19 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="J192" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest PAY.xlsx
+++ b/BackTest/2020-01-16 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>7781.7794</v>
       </c>
       <c r="G2" t="n">
-        <v>54397.47455231787</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2376</v>
       </c>
       <c r="G3" t="n">
-        <v>52021.47455231787</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>5804.8352</v>
       </c>
       <c r="G4" t="n">
-        <v>46216.63935231787</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>18.0815</v>
       </c>
       <c r="G5" t="n">
-        <v>46198.55785231787</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>502.578</v>
       </c>
       <c r="G6" t="n">
-        <v>45695.97985231787</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>46718.733</v>
       </c>
       <c r="G7" t="n">
-        <v>92414.71285231787</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>640.5498</v>
       </c>
       <c r="G8" t="n">
-        <v>91774.16305231788</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>10634.3079</v>
       </c>
       <c r="G9" t="n">
-        <v>81139.85515231788</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>209</v>
       </c>
       <c r="G10" t="n">
-        <v>81348.85515231788</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>5599</v>
       </c>
       <c r="G11" t="n">
-        <v>75749.85515231788</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>42.3159</v>
       </c>
       <c r="G12" t="n">
-        <v>75792.17105231788</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>17030.1429</v>
       </c>
       <c r="G13" t="n">
-        <v>92822.31395231787</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>800</v>
       </c>
       <c r="G14" t="n">
-        <v>92022.31395231787</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3318</v>
       </c>
       <c r="G15" t="n">
-        <v>92022.31395231787</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>839.34</v>
       </c>
       <c r="G16" t="n">
-        <v>91182.97395231787</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>414</v>
       </c>
       <c r="G17" t="n">
-        <v>91182.97395231787</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>10031.8575</v>
       </c>
       <c r="G18" t="n">
-        <v>81151.11645231787</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3330.33</v>
       </c>
       <c r="G19" t="n">
-        <v>81151.11645231787</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1319</v>
       </c>
       <c r="G20" t="n">
-        <v>79832.11645231787</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>725</v>
       </c>
       <c r="G21" t="n">
-        <v>79832.11645231787</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>15616.3235</v>
       </c>
       <c r="G22" t="n">
-        <v>95448.43995231787</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1823.3857</v>
       </c>
       <c r="G23" t="n">
-        <v>97271.82565231787</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>5113</v>
       </c>
       <c r="G24" t="n">
-        <v>92158.82565231787</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>12620.4422</v>
       </c>
       <c r="G25" t="n">
-        <v>79538.38345231787</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>53455.5196</v>
       </c>
       <c r="G26" t="n">
-        <v>79538.38345231787</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>400</v>
       </c>
       <c r="G27" t="n">
-        <v>79938.38345231787</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>4400</v>
       </c>
       <c r="G28" t="n">
-        <v>79938.38345231787</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>3600</v>
       </c>
       <c r="G29" t="n">
-        <v>79938.38345231787</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>4768.1942</v>
       </c>
       <c r="G30" t="n">
-        <v>84706.57765231786</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>2832.1357</v>
       </c>
       <c r="G31" t="n">
-        <v>81874.44195231787</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2800</v>
       </c>
       <c r="G32" t="n">
-        <v>84674.44195231787</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1904.0781</v>
       </c>
       <c r="G33" t="n">
-        <v>82770.36385231787</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>16686</v>
       </c>
       <c r="G34" t="n">
-        <v>66084.36385231787</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>26652.7346</v>
       </c>
       <c r="G35" t="n">
-        <v>66084.36385231787</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>15285</v>
       </c>
       <c r="G36" t="n">
-        <v>81369.36385231787</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>4699.253</v>
       </c>
       <c r="G37" t="n">
-        <v>76670.11085231787</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>110</v>
       </c>
       <c r="G38" t="n">
-        <v>76780.11085231787</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,21 @@
         <v>2775</v>
       </c>
       <c r="G39" t="n">
-        <v>76780.11085231787</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>41.14</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1589,21 @@
         <v>38.0773</v>
       </c>
       <c r="G40" t="n">
-        <v>76780.11085231787</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>41.14</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1625,19 @@
         <v>1600</v>
       </c>
       <c r="G41" t="n">
-        <v>76780.11085231787</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1659,21 @@
         <v>2161</v>
       </c>
       <c r="G42" t="n">
-        <v>78941.11085231787</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>41.14</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1695,21 @@
         <v>1564</v>
       </c>
       <c r="G43" t="n">
-        <v>78941.11085231787</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.24</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1731,21 @@
         <v>8898.3385</v>
       </c>
       <c r="G44" t="n">
-        <v>78941.11085231787</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>41.24</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1767,21 @@
         <v>11342</v>
       </c>
       <c r="G45" t="n">
-        <v>78941.11085231787</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.24</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1803,21 @@
         <v>11185</v>
       </c>
       <c r="G46" t="n">
-        <v>90126.11085231787</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>41.24</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1839,21 @@
         <v>800</v>
       </c>
       <c r="G47" t="n">
-        <v>90926.11085231787</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>41.25</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1875,19 @@
         <v>97.59439999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>91023.70525231787</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1909,19 @@
         <v>32719.6802</v>
       </c>
       <c r="G49" t="n">
-        <v>123743.3854523179</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1943,19 @@
         <v>4758.5962</v>
       </c>
       <c r="G50" t="n">
-        <v>123743.3854523179</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1977,19 @@
         <v>381.386</v>
       </c>
       <c r="G51" t="n">
-        <v>123743.3854523179</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2011,19 @@
         <v>1355.7412</v>
       </c>
       <c r="G52" t="n">
-        <v>123743.3854523179</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2045,19 @@
         <v>20139</v>
       </c>
       <c r="G53" t="n">
-        <v>103604.3854523179</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2079,19 @@
         <v>1600</v>
       </c>
       <c r="G54" t="n">
-        <v>103604.3854523179</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2113,19 @@
         <v>9000</v>
       </c>
       <c r="G55" t="n">
-        <v>103604.3854523179</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2147,19 @@
         <v>313.62</v>
       </c>
       <c r="G56" t="n">
-        <v>103918.0054523179</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2181,19 @@
         <v>22409.9085</v>
       </c>
       <c r="G57" t="n">
-        <v>126327.9139523179</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2215,19 @@
         <v>3844.9829</v>
       </c>
       <c r="G58" t="n">
-        <v>130172.8968523179</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2249,19 @@
         <v>239.6097</v>
       </c>
       <c r="G59" t="n">
-        <v>130172.8968523179</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2283,19 @@
         <v>125.4279</v>
       </c>
       <c r="G60" t="n">
-        <v>130172.8968523179</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2317,19 @@
         <v>209.0465</v>
       </c>
       <c r="G61" t="n">
-        <v>130172.8968523179</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2351,19 @@
         <v>167.2372</v>
       </c>
       <c r="G62" t="n">
-        <v>130172.8968523179</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2385,19 @@
         <v>459.9023</v>
       </c>
       <c r="G63" t="n">
-        <v>130172.8968523179</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2419,19 @@
         <v>41.8093</v>
       </c>
       <c r="G64" t="n">
-        <v>130172.8968523179</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2453,19 @@
         <v>4398.0291</v>
       </c>
       <c r="G65" t="n">
-        <v>130172.8968523179</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2487,19 @@
         <v>123.632</v>
       </c>
       <c r="G66" t="n">
-        <v>130172.8968523179</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2521,19 @@
         <v>7533</v>
       </c>
       <c r="G67" t="n">
-        <v>137705.8968523179</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2555,19 @@
         <v>43486.651</v>
       </c>
       <c r="G68" t="n">
-        <v>181192.5478523179</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2589,19 @@
         <v>368.3802</v>
       </c>
       <c r="G69" t="n">
-        <v>181560.9280523179</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2623,19 @@
         <v>2935.43</v>
       </c>
       <c r="G70" t="n">
-        <v>184496.3580523179</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2657,19 @@
         <v>5309.283843035108</v>
       </c>
       <c r="G71" t="n">
-        <v>179187.0742092828</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2691,19 @@
         <v>5000</v>
       </c>
       <c r="G72" t="n">
-        <v>179187.0742092828</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2725,19 @@
         <v>1057.214</v>
       </c>
       <c r="G73" t="n">
-        <v>180244.2882092828</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2759,17 @@
         <v>9366.672200000001</v>
       </c>
       <c r="G74" t="n">
-        <v>170877.6160092828</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2791,15 @@
         <v>400</v>
       </c>
       <c r="G75" t="n">
-        <v>171277.6160092828</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2821,15 @@
         <v>400</v>
       </c>
       <c r="G76" t="n">
-        <v>171677.6160092828</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2851,15 @@
         <v>800</v>
       </c>
       <c r="G77" t="n">
-        <v>172477.6160092828</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2881,15 @@
         <v>6253</v>
       </c>
       <c r="G78" t="n">
-        <v>166224.6160092828</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2911,15 @@
         <v>11113.69</v>
       </c>
       <c r="G79" t="n">
-        <v>155110.9260092828</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2941,15 @@
         <v>15165.2619</v>
       </c>
       <c r="G80" t="n">
-        <v>170276.1879092828</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2971,15 @@
         <v>49912.6404</v>
       </c>
       <c r="G81" t="n">
-        <v>120363.5475092828</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3001,15 @@
         <v>1308.6503</v>
       </c>
       <c r="G82" t="n">
-        <v>120363.5475092828</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3031,15 @@
         <v>13603.4422</v>
       </c>
       <c r="G83" t="n">
-        <v>120363.5475092828</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3061,15 @@
         <v>5959.936103349934</v>
       </c>
       <c r="G84" t="n">
-        <v>120363.5475092828</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3091,15 @@
         <v>2949.022727272727</v>
       </c>
       <c r="G85" t="n">
-        <v>120363.5475092828</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3121,15 @@
         <v>4361.991361673107</v>
       </c>
       <c r="G86" t="n">
-        <v>116001.5561476097</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3151,15 @@
         <v>233.5602</v>
       </c>
       <c r="G87" t="n">
-        <v>116001.5561476097</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3181,15 @@
         <v>3514.9785</v>
       </c>
       <c r="G88" t="n">
-        <v>112486.5776476097</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3211,15 @@
         <v>527.1754</v>
       </c>
       <c r="G89" t="n">
-        <v>113013.7530476097</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3241,15 @@
         <v>9373.65</v>
       </c>
       <c r="G90" t="n">
-        <v>122387.4030476097</v>
-      </c>
-      <c r="H90" t="n">
         <v>2</v>
       </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3271,15 @@
         <v>4670.889</v>
       </c>
       <c r="G91" t="n">
-        <v>117716.5140476097</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3301,15 @@
         <v>6833.5019</v>
       </c>
       <c r="G92" t="n">
-        <v>110883.0121476097</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3331,15 @@
         <v>20522.731</v>
       </c>
       <c r="G93" t="n">
-        <v>90360.28114760965</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3361,15 @@
         <v>28.7844</v>
       </c>
       <c r="G94" t="n">
-        <v>90389.06554760966</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3391,15 @@
         <v>2117.84</v>
       </c>
       <c r="G95" t="n">
-        <v>92506.90554760965</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3421,15 @@
         <v>63249.5158</v>
       </c>
       <c r="G96" t="n">
-        <v>29257.38974760965</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3451,15 @@
         <v>572</v>
       </c>
       <c r="G97" t="n">
-        <v>29829.38974760965</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3481,15 @@
         <v>2926</v>
       </c>
       <c r="G98" t="n">
-        <v>26903.38974760965</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3511,15 @@
         <v>996.4728</v>
       </c>
       <c r="G99" t="n">
-        <v>25906.91694760965</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3541,15 @@
         <v>1276</v>
       </c>
       <c r="G100" t="n">
-        <v>24630.91694760965</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3571,15 @@
         <v>1600</v>
       </c>
       <c r="G101" t="n">
-        <v>26230.91694760965</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3601,15 @@
         <v>2908</v>
       </c>
       <c r="G102" t="n">
-        <v>23322.91694760965</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3631,15 @@
         <v>4108</v>
       </c>
       <c r="G103" t="n">
-        <v>19214.91694760965</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3661,15 @@
         <v>2000</v>
       </c>
       <c r="G104" t="n">
-        <v>17214.91694760965</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3691,15 @@
         <v>1918</v>
       </c>
       <c r="G105" t="n">
-        <v>19132.91694760965</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3721,15 @@
         <v>209.6542378662714</v>
       </c>
       <c r="G106" t="n">
-        <v>18923.26270974338</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3751,15 @@
         <v>433</v>
       </c>
       <c r="G107" t="n">
-        <v>18923.26270974338</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3781,15 @@
         <v>618.121</v>
       </c>
       <c r="G108" t="n">
-        <v>19541.38370974338</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3811,15 @@
         <v>529</v>
       </c>
       <c r="G109" t="n">
-        <v>19012.38370974338</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3841,15 @@
         <v>594.5454999999999</v>
       </c>
       <c r="G110" t="n">
-        <v>18417.83820974338</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3871,15 @@
         <v>4470</v>
       </c>
       <c r="G111" t="n">
-        <v>13947.83820974338</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3901,15 @@
         <v>29547.4839</v>
       </c>
       <c r="G112" t="n">
-        <v>-15599.64569025662</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3931,15 @@
         <v>3316.275</v>
       </c>
       <c r="G113" t="n">
-        <v>-12283.37069025662</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3961,15 @@
         <v>2671</v>
       </c>
       <c r="G114" t="n">
-        <v>-9612.370690256617</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3991,15 @@
         <v>1255</v>
       </c>
       <c r="G115" t="n">
-        <v>-10867.37069025662</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4021,15 @@
         <v>850</v>
       </c>
       <c r="G116" t="n">
-        <v>-10017.37069025662</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4051,15 @@
         <v>13597.7597</v>
       </c>
       <c r="G117" t="n">
-        <v>-23615.13039025662</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4081,15 @@
         <v>1864</v>
       </c>
       <c r="G118" t="n">
-        <v>-21751.13039025662</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4111,15 @@
         <v>3065</v>
       </c>
       <c r="G119" t="n">
-        <v>-24816.13039025662</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4141,15 @@
         <v>4969</v>
       </c>
       <c r="G120" t="n">
-        <v>-19847.13039025662</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4171,15 @@
         <v>4573</v>
       </c>
       <c r="G121" t="n">
-        <v>-24420.13039025662</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4201,15 @@
         <v>1319</v>
       </c>
       <c r="G122" t="n">
-        <v>-25739.13039025662</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4231,15 @@
         <v>1200</v>
       </c>
       <c r="G123" t="n">
-        <v>-24539.13039025662</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4261,15 @@
         <v>2400</v>
       </c>
       <c r="G124" t="n">
-        <v>-22139.13039025662</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4291,15 @@
         <v>1378.1419</v>
       </c>
       <c r="G125" t="n">
-        <v>-20760.98849025662</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4321,15 @@
         <v>2400</v>
       </c>
       <c r="G126" t="n">
-        <v>-23160.98849025662</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4351,15 @@
         <v>800</v>
       </c>
       <c r="G127" t="n">
-        <v>-22360.98849025662</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4381,15 @@
         <v>46</v>
       </c>
       <c r="G128" t="n">
-        <v>-22360.98849025662</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4411,15 @@
         <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>-22460.98849025662</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4441,15 @@
         <v>55</v>
       </c>
       <c r="G130" t="n">
-        <v>-22405.98849025662</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4471,15 @@
         <v>1200</v>
       </c>
       <c r="G131" t="n">
-        <v>-22405.98849025662</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4501,15 @@
         <v>800</v>
       </c>
       <c r="G132" t="n">
-        <v>-23205.98849025662</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4531,15 @@
         <v>400</v>
       </c>
       <c r="G133" t="n">
-        <v>-22805.98849025662</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4561,15 @@
         <v>397</v>
       </c>
       <c r="G134" t="n">
-        <v>-22805.98849025662</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4591,15 @@
         <v>860.706</v>
       </c>
       <c r="G135" t="n">
-        <v>-22805.98849025662</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4621,15 @@
         <v>2909.43</v>
       </c>
       <c r="G136" t="n">
-        <v>-22805.98849025662</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4651,15 @@
         <v>6534.4675</v>
       </c>
       <c r="G137" t="n">
-        <v>-29340.45599025662</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4681,15 @@
         <v>7818</v>
       </c>
       <c r="G138" t="n">
-        <v>-21522.45599025662</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4711,15 @@
         <v>155.809</v>
       </c>
       <c r="G139" t="n">
-        <v>-21522.45599025662</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4741,15 @@
         <v>4696</v>
       </c>
       <c r="G140" t="n">
-        <v>-21522.45599025662</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4771,15 @@
         <v>1870.645</v>
       </c>
       <c r="G141" t="n">
-        <v>-19651.81099025662</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4801,15 @@
         <v>800</v>
       </c>
       <c r="G142" t="n">
-        <v>-20451.81099025662</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4831,15 @@
         <v>400</v>
       </c>
       <c r="G143" t="n">
-        <v>-20451.81099025662</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4861,15 @@
         <v>400</v>
       </c>
       <c r="G144" t="n">
-        <v>-20451.81099025662</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4891,15 @@
         <v>1200</v>
       </c>
       <c r="G145" t="n">
-        <v>-21651.81099025662</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4921,15 @@
         <v>1600</v>
       </c>
       <c r="G146" t="n">
-        <v>-23251.81099025662</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4951,15 @@
         <v>800</v>
       </c>
       <c r="G147" t="n">
-        <v>-24051.81099025662</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4981,15 @@
         <v>800</v>
       </c>
       <c r="G148" t="n">
-        <v>-24051.81099025662</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5011,15 @@
         <v>7263.1824</v>
       </c>
       <c r="G149" t="n">
-        <v>-31314.99339025662</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,22 +5041,15 @@
         <v>1086</v>
       </c>
       <c r="G150" t="n">
-        <v>-30228.99339025662</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>43.33</v>
-      </c>
-      <c r="J150" t="n">
-        <v>43.33</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5369,26 +5071,15 @@
         <v>1200</v>
       </c>
       <c r="G151" t="n">
-        <v>-30228.99339025662</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="J151" t="n">
-        <v>43.33</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5410,24 +5101,15 @@
         <v>1042</v>
       </c>
       <c r="G152" t="n">
-        <v>-30228.99339025662</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>43.33</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5449,22 +5131,15 @@
         <v>2400</v>
       </c>
       <c r="G153" t="n">
-        <v>-32628.99339025662</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="J153" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5486,26 +5161,15 @@
         <v>4734.191</v>
       </c>
       <c r="G154" t="n">
-        <v>-27894.80239025662</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>43.39</v>
-      </c>
-      <c r="J154" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5527,26 +5191,15 @@
         <v>529</v>
       </c>
       <c r="G155" t="n">
-        <v>-28423.80239025662</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J155" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5568,24 +5221,15 @@
         <v>562.799</v>
       </c>
       <c r="G156" t="n">
-        <v>-28423.80239025662</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5607,26 +5251,15 @@
         <v>1979</v>
       </c>
       <c r="G157" t="n">
-        <v>-26444.80239025662</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="J157" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5648,26 +5281,15 @@
         <v>5200</v>
       </c>
       <c r="G158" t="n">
-        <v>-21244.80239025662</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J158" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5689,26 +5311,15 @@
         <v>1145.680330187815</v>
       </c>
       <c r="G159" t="n">
-        <v>-20099.12206006881</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>43.56</v>
-      </c>
-      <c r="J159" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5730,26 +5341,15 @@
         <v>400</v>
       </c>
       <c r="G160" t="n">
-        <v>-20099.12206006881</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>43.66</v>
-      </c>
-      <c r="J160" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5771,26 +5371,15 @@
         <v>5339.92</v>
       </c>
       <c r="G161" t="n">
-        <v>-14759.20206006881</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>43.66</v>
-      </c>
-      <c r="J161" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5812,26 +5401,15 @@
         <v>412.3902</v>
       </c>
       <c r="G162" t="n">
-        <v>-15171.59226006881</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>43.79</v>
-      </c>
-      <c r="J162" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5853,26 +5431,15 @@
         <v>412</v>
       </c>
       <c r="G163" t="n">
-        <v>-14759.59226006881</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="J163" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5894,26 +5461,15 @@
         <v>4194</v>
       </c>
       <c r="G164" t="n">
-        <v>-10565.59226006881</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J164" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5935,26 +5491,15 @@
         <v>3947.3868</v>
       </c>
       <c r="G165" t="n">
-        <v>-14512.97906006881</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J165" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5976,26 +5521,15 @@
         <v>7380</v>
       </c>
       <c r="G166" t="n">
-        <v>-7132.979060068807</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>42.72</v>
-      </c>
-      <c r="J166" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6017,26 +5551,15 @@
         <v>800</v>
       </c>
       <c r="G167" t="n">
-        <v>-7132.979060068807</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J167" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6058,24 +5581,15 @@
         <v>1600</v>
       </c>
       <c r="G168" t="n">
-        <v>-8732.979060068807</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6097,24 +5611,15 @@
         <v>296.637</v>
       </c>
       <c r="G169" t="n">
-        <v>-8732.979060068807</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6136,24 +5641,15 @@
         <v>800</v>
       </c>
       <c r="G170" t="n">
-        <v>-9532.979060068807</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6175,26 +5671,15 @@
         <v>1232.6</v>
       </c>
       <c r="G171" t="n">
-        <v>-8300.379060068806</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>43.57</v>
-      </c>
-      <c r="J171" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6216,24 +5701,15 @@
         <v>800</v>
       </c>
       <c r="G172" t="n">
-        <v>-8300.379060068806</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6255,26 +5731,15 @@
         <v>933.359</v>
       </c>
       <c r="G173" t="n">
-        <v>-7367.020060068806</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="J173" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6296,26 +5761,15 @@
         <v>486.8366</v>
       </c>
       <c r="G174" t="n">
-        <v>-7367.020060068806</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J174" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6337,26 +5791,15 @@
         <v>1200</v>
       </c>
       <c r="G175" t="n">
-        <v>-7367.020060068806</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J175" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6378,26 +5821,15 @@
         <v>3966.6052</v>
       </c>
       <c r="G176" t="n">
-        <v>-7367.020060068806</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J176" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6419,26 +5851,15 @@
         <v>12.8236</v>
       </c>
       <c r="G177" t="n">
-        <v>-7379.843660068806</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J177" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6460,26 +5881,15 @@
         <v>2400</v>
       </c>
       <c r="G178" t="n">
-        <v>-7379.843660068806</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="J178" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6501,26 +5911,15 @@
         <v>1058</v>
       </c>
       <c r="G179" t="n">
-        <v>-6321.843660068806</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="J179" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6542,26 +5941,15 @@
         <v>800</v>
       </c>
       <c r="G180" t="n">
-        <v>-5521.843660068806</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J180" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6583,26 +5971,15 @@
         <v>5576.8</v>
       </c>
       <c r="G181" t="n">
-        <v>-5521.843660068806</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J181" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6624,26 +6001,15 @@
         <v>400</v>
       </c>
       <c r="G182" t="n">
-        <v>-5121.843660068806</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="J182" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6665,26 +6031,15 @@
         <v>1999</v>
       </c>
       <c r="G183" t="n">
-        <v>-5121.843660068806</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="J183" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6706,26 +6061,15 @@
         <v>12803.4011</v>
       </c>
       <c r="G184" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="J184" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6747,26 +6091,15 @@
         <v>5542</v>
       </c>
       <c r="G185" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="J185" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6788,26 +6121,15 @@
         <v>2000</v>
       </c>
       <c r="G186" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="J186" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6829,26 +6151,15 @@
         <v>2000</v>
       </c>
       <c r="G187" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="J187" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6870,26 +6181,15 @@
         <v>3623</v>
       </c>
       <c r="G188" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="J188" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6911,26 +6211,15 @@
         <v>3011</v>
       </c>
       <c r="G189" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="J189" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6952,26 +6241,15 @@
         <v>2115.8333</v>
       </c>
       <c r="G190" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="J190" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6993,26 +6271,15 @@
         <v>2000</v>
       </c>
       <c r="G191" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="J191" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7034,26 +6301,15 @@
         <v>1600</v>
       </c>
       <c r="G192" t="n">
-        <v>-17925.2447600688</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="J192" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
